--- a/data/argentina.xlsx
+++ b/data/argentina.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\COVID\covid19Page\covid\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14AD75BF-4535-4A31-A695-5C2168142311}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BACE139C-EAA0-4E7C-8210-0A32D1A00D4C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{FD99AC7E-67B3-424D-874D-40A6E057BF54}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="9975" windowHeight="10515" firstSheet="2" activeTab="3" xr2:uid="{FD99AC7E-67B3-424D-874D-40A6E057BF54}"/>
   </bookViews>
   <sheets>
     <sheet name="argentina_gral" sheetId="1" r:id="rId1"/>
@@ -729,9 +729,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D48F336C-A519-44F7-9544-8D5A56C7FEE1}">
   <dimension ref="A1:Q98"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A90" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P96" sqref="P96"/>
+      <selection pane="bottomLeft" activeCell="D98" sqref="D98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -46479,9 +46479,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41FC76FE-1A63-4E59-BFE1-BA7DA5FEAD63}">
-  <dimension ref="A1:M41"/>
+  <dimension ref="A1:M42"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="D42" sqref="D42"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -48166,6 +48168,47 @@
         <v>954</v>
       </c>
     </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A42" s="14">
+        <v>43989</v>
+      </c>
+      <c r="B42">
+        <v>22781</v>
+      </c>
+      <c r="C42">
+        <v>49.3</v>
+      </c>
+      <c r="D42">
+        <v>50.32</v>
+      </c>
+      <c r="E42">
+        <v>1615</v>
+      </c>
+      <c r="F42">
+        <v>1868</v>
+      </c>
+      <c r="G42">
+        <v>4483</v>
+      </c>
+      <c r="H42">
+        <v>4874</v>
+      </c>
+      <c r="I42">
+        <v>3846</v>
+      </c>
+      <c r="J42">
+        <v>2680</v>
+      </c>
+      <c r="K42">
+        <v>1467</v>
+      </c>
+      <c r="L42">
+        <v>938</v>
+      </c>
+      <c r="M42">
+        <v>982</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/argentina.xlsx
+++ b/data/argentina.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\COVID\covid19Page\covid\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BACE139C-EAA0-4E7C-8210-0A32D1A00D4C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8BEC7CD-F20D-4DB0-8BC4-5EE851C95DBB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="9975" windowHeight="10515" firstSheet="2" activeTab="3" xr2:uid="{FD99AC7E-67B3-424D-874D-40A6E057BF54}"/>
+    <workbookView xWindow="11760" yWindow="390" windowWidth="8700" windowHeight="10515" xr2:uid="{FD99AC7E-67B3-424D-874D-40A6E057BF54}"/>
   </bookViews>
   <sheets>
     <sheet name="argentina_gral" sheetId="1" r:id="rId1"/>
@@ -729,9 +729,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D48F336C-A519-44F7-9544-8D5A56C7FEE1}">
   <dimension ref="A1:Q98"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A90" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D98" sqref="D98"/>
+      <selection pane="bottomLeft" activeCell="B98" sqref="B98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5470,20 +5470,41 @@
         <v>664</v>
       </c>
       <c r="F98" s="1">
-        <v>6909</v>
+        <v>7305</v>
       </c>
       <c r="G98" s="1">
-        <v>247</v>
-      </c>
-      <c r="H98" s="4"/>
-      <c r="I98" s="4"/>
-      <c r="J98" s="4"/>
-      <c r="K98" s="4"/>
-      <c r="L98" s="4"/>
-      <c r="M98" s="5"/>
-      <c r="N98" s="5"/>
-      <c r="O98" s="5"/>
-      <c r="P98" s="5"/>
+        <v>235</v>
+      </c>
+      <c r="H98" s="4">
+        <v>4607</v>
+      </c>
+      <c r="I98" s="4">
+        <v>198520</v>
+      </c>
+      <c r="J98" s="7">
+        <f>L98-K98</f>
+        <v>847.49400000000605</v>
+      </c>
+      <c r="K98" s="7">
+        <f>0.994*L98</f>
+        <v>140401.50599999999</v>
+      </c>
+      <c r="L98" s="4">
+        <v>141249</v>
+      </c>
+      <c r="M98" s="4">
+        <v>985</v>
+      </c>
+      <c r="N98" s="4">
+        <v>9476</v>
+      </c>
+      <c r="O98" s="4">
+        <v>8441</v>
+      </c>
+      <c r="P98" s="4">
+        <f>22794-O98-N98-M98</f>
+        <v>3892</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:Q86" xr:uid="{F1784F29-C3FA-4C1F-AFF4-1C4499D0A37D}"/>
@@ -5494,11 +5515,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C255934D-2CD9-446F-A5BE-CB7D14454E2D}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:F666"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E680" sqref="E680"/>
+    <sheetView topLeftCell="A655" workbookViewId="0">
+      <selection activeCell="A666" sqref="A666"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5527,7 +5547,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="16">
         <v>43897</v>
       </c>
@@ -5544,7 +5564,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="16">
         <v>43903</v>
       </c>
@@ -5561,7 +5581,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="16">
         <v>43908</v>
       </c>
@@ -5578,7 +5598,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="16">
         <v>43911</v>
       </c>
@@ -5595,7 +5615,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="16">
         <v>43914</v>
       </c>
@@ -5612,7 +5632,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="16">
         <v>43914</v>
       </c>
@@ -5626,7 +5646,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="16">
         <v>43915</v>
       </c>
@@ -5643,7 +5663,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="16">
         <v>43915</v>
       </c>
@@ -5660,7 +5680,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="16">
         <v>43916</v>
       </c>
@@ -5674,7 +5694,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="16">
         <v>43916</v>
       </c>
@@ -5688,7 +5708,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="16">
         <v>43916</v>
       </c>
@@ -5705,7 +5725,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="13" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="16">
         <v>43916</v>
       </c>
@@ -5719,7 +5739,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="16">
         <v>43917</v>
       </c>
@@ -5733,7 +5753,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="16">
         <v>43917</v>
       </c>
@@ -5750,7 +5770,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="16" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="16">
         <v>43917</v>
       </c>
@@ -5767,7 +5787,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="17" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="16">
         <v>43917</v>
       </c>
@@ -5784,7 +5804,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="18" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="16">
         <v>43917</v>
       </c>
@@ -5798,7 +5818,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="19" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="16">
         <v>43918</v>
       </c>
@@ -5815,7 +5835,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="20" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="16">
         <v>43918</v>
       </c>
@@ -5832,7 +5852,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="21" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="16">
         <v>43919</v>
       </c>
@@ -5849,7 +5869,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="22" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="16">
         <v>43920</v>
       </c>
@@ -5863,7 +5883,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="23" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="16">
         <v>43920</v>
       </c>
@@ -5877,7 +5897,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="24" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="16">
         <v>43920</v>
       </c>
@@ -5891,7 +5911,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="25" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="16">
         <v>43920</v>
       </c>
@@ -5905,7 +5925,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="26" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="16">
         <v>43920</v>
       </c>
@@ -5922,7 +5942,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="27" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="16">
         <v>43921</v>
       </c>
@@ -5936,7 +5956,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="16">
         <v>43921</v>
       </c>
@@ -5950,7 +5970,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="29" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="16">
         <v>43921</v>
       </c>
@@ -5964,7 +5984,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="30" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="16">
         <v>43922</v>
       </c>
@@ -5978,7 +5998,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="31" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="16">
         <v>43922</v>
       </c>
@@ -5992,7 +6012,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="32" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="16">
         <v>43922</v>
       </c>
@@ -6006,7 +6026,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="33" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="16">
         <v>43922</v>
       </c>
@@ -6020,7 +6040,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="34" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="16">
         <v>43922</v>
       </c>
@@ -6034,7 +6054,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="35" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="16">
         <v>43923</v>
       </c>
@@ -6048,7 +6068,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="36" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="16">
         <v>43923</v>
       </c>
@@ -6062,7 +6082,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="37" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="16">
         <v>43923</v>
       </c>
@@ -6076,7 +6096,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="38" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="16">
         <v>43923</v>
       </c>
@@ -6090,7 +6110,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="39" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="16">
         <v>43924</v>
       </c>
@@ -6104,7 +6124,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="40" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="16">
         <v>43924</v>
       </c>
@@ -6118,7 +6138,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="41" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="16">
         <v>43924</v>
       </c>
@@ -6132,7 +6152,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="42" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="16">
         <v>43924</v>
       </c>
@@ -6146,7 +6166,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="43" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="16">
         <v>43924</v>
       </c>
@@ -6160,7 +6180,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="44" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="16">
         <v>43925</v>
       </c>
@@ -6174,7 +6194,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="45" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="16">
         <v>43926</v>
       </c>
@@ -6188,7 +6208,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="46" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="16">
         <v>43926</v>
       </c>
@@ -6202,7 +6222,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="47" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="16">
         <v>43926</v>
       </c>
@@ -6216,7 +6236,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="48" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="16">
         <v>43927</v>
       </c>
@@ -6230,7 +6250,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="49" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="16">
         <v>43927</v>
       </c>
@@ -6244,7 +6264,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="50" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="16">
         <v>43927</v>
       </c>
@@ -6258,7 +6278,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="51" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="16">
         <v>43927</v>
       </c>
@@ -6272,7 +6292,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="52" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="16">
         <v>43927</v>
       </c>
@@ -6286,7 +6306,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="53" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="16">
         <v>43927</v>
       </c>
@@ -6300,7 +6320,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="54" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="16">
         <v>43927</v>
       </c>
@@ -6314,7 +6334,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="55" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="16">
         <v>43928</v>
       </c>
@@ -6328,7 +6348,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="56" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="16">
         <v>43928</v>
       </c>
@@ -6342,7 +6362,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="57" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="16">
         <v>43928</v>
       </c>
@@ -6356,7 +6376,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="58" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="16">
         <v>43928</v>
       </c>
@@ -6370,7 +6390,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="59" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="16">
         <v>43928</v>
       </c>
@@ -6384,7 +6404,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="60" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="16">
         <v>43928</v>
       </c>
@@ -6398,7 +6418,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="61" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="16">
         <v>43928</v>
       </c>
@@ -6412,7 +6432,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="62" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="16">
         <v>43929</v>
       </c>
@@ -6426,7 +6446,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="63" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="16">
         <v>43929</v>
       </c>
@@ -6440,7 +6460,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="64" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="16">
         <v>43929</v>
       </c>
@@ -6454,7 +6474,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="65" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="16">
         <v>43929</v>
       </c>
@@ -6468,7 +6488,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="66" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="16">
         <v>43929</v>
       </c>
@@ -6482,7 +6502,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="67" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="16">
         <v>43930</v>
       </c>
@@ -6496,7 +6516,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="68" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="16">
         <v>43930</v>
       </c>
@@ -6510,7 +6530,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="69" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="16">
         <v>43930</v>
       </c>
@@ -6524,7 +6544,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="70" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="16">
         <v>43930</v>
       </c>
@@ -6538,7 +6558,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="71" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="16">
         <v>43930</v>
       </c>
@@ -6552,7 +6572,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="72" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="16">
         <v>43930</v>
       </c>
@@ -6566,7 +6586,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="73" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="16">
         <v>43930</v>
       </c>
@@ -6580,7 +6600,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="74" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="16">
         <v>43930</v>
       </c>
@@ -6594,7 +6614,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="75" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="16">
         <v>43930</v>
       </c>
@@ -6608,7 +6628,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="76" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="16">
         <v>43930</v>
       </c>
@@ -6622,7 +6642,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="77" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="16">
         <v>43930</v>
       </c>
@@ -6636,7 +6656,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="78" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="16">
         <v>43930</v>
       </c>
@@ -6650,7 +6670,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="79" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="16">
         <v>43930</v>
       </c>
@@ -6664,7 +6684,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="80" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="16">
         <v>43930</v>
       </c>
@@ -6678,7 +6698,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="81" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="16">
         <v>43931</v>
       </c>
@@ -6692,7 +6712,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="82" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="16">
         <v>43931</v>
       </c>
@@ -6706,7 +6726,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="83" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="16">
         <v>43931</v>
       </c>
@@ -6720,7 +6740,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="84" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="16">
         <v>43932</v>
       </c>
@@ -6734,7 +6754,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="85" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="16">
         <v>43932</v>
       </c>
@@ -6748,7 +6768,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="86" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="16">
         <v>43932</v>
       </c>
@@ -6762,7 +6782,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="87" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="16">
         <v>43932</v>
       </c>
@@ -6776,7 +6796,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="88" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="16">
         <v>43932</v>
       </c>
@@ -6790,7 +6810,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="89" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="16">
         <v>43932</v>
       </c>
@@ -6804,7 +6824,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="90" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="16">
         <v>43932</v>
       </c>
@@ -6818,7 +6838,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="91" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="16">
         <v>43933</v>
       </c>
@@ -6832,7 +6852,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="92" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="16">
         <v>43933</v>
       </c>
@@ -6846,7 +6866,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="93" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="16">
         <v>43933</v>
       </c>
@@ -6860,7 +6880,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="94" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="16">
         <v>43933</v>
       </c>
@@ -6874,7 +6894,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="95" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="16">
         <v>43933</v>
       </c>
@@ -6888,7 +6908,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="96" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="16">
         <v>43933</v>
       </c>
@@ -6902,7 +6922,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="97" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="16">
         <v>43934</v>
       </c>
@@ -6916,7 +6936,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="98" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="16">
         <v>43934</v>
       </c>
@@ -6930,7 +6950,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="99" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="16">
         <v>43934</v>
       </c>
@@ -6944,7 +6964,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="100" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="16">
         <v>43935</v>
       </c>
@@ -6958,7 +6978,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="101" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="16">
         <v>43935</v>
       </c>
@@ -6972,7 +6992,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="102" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="16">
         <v>43935</v>
       </c>
@@ -6986,7 +7006,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="103" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="16">
         <v>43935</v>
       </c>
@@ -7000,7 +7020,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="104" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="16">
         <v>43935</v>
       </c>
@@ -7014,7 +7034,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="105" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="16">
         <v>43935</v>
       </c>
@@ -7028,7 +7048,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="106" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="16">
         <v>43935</v>
       </c>
@@ -7042,7 +7062,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="107" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="16">
         <v>43936</v>
       </c>
@@ -7056,7 +7076,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="108" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="16">
         <v>43936</v>
       </c>
@@ -7070,7 +7090,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="109" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="16">
         <v>43936</v>
       </c>
@@ -7084,7 +7104,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="110" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="16">
         <v>43936</v>
       </c>
@@ -7098,7 +7118,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="111" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="16">
         <v>43936</v>
       </c>
@@ -7112,7 +7132,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="112" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="16">
         <v>43936</v>
       </c>
@@ -7126,7 +7146,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="113" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="16">
         <v>43936</v>
       </c>
@@ -7140,7 +7160,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="114" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" s="16">
         <v>43937</v>
       </c>
@@ -7154,7 +7174,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="115" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" s="16">
         <v>43937</v>
       </c>
@@ -7168,7 +7188,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="116" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" s="16">
         <v>43937</v>
       </c>
@@ -7182,7 +7202,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="117" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" s="16">
         <v>43937</v>
       </c>
@@ -7196,7 +7216,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="118" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" s="16">
         <v>43937</v>
       </c>
@@ -7210,7 +7230,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="119" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" s="16">
         <v>43937</v>
       </c>
@@ -7224,7 +7244,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="120" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" s="16">
         <v>43937</v>
       </c>
@@ -7238,7 +7258,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="121" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" s="16">
         <v>43937</v>
       </c>
@@ -7252,7 +7272,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="122" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" s="16">
         <v>43937</v>
       </c>
@@ -7266,7 +7286,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="123" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" s="16">
         <v>43937</v>
       </c>
@@ -7280,7 +7300,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="124" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" s="16">
         <v>43938</v>
       </c>
@@ -7294,7 +7314,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="125" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" s="16">
         <v>43938</v>
       </c>
@@ -7308,7 +7328,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="126" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" s="16">
         <v>43938</v>
       </c>
@@ -7322,7 +7342,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="127" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" s="16">
         <v>43938</v>
       </c>
@@ -7336,7 +7356,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="128" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" s="16">
         <v>43938</v>
       </c>
@@ -7350,7 +7370,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="129" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" s="16">
         <v>43938</v>
       </c>
@@ -7364,7 +7384,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="130" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" s="16">
         <v>43938</v>
       </c>
@@ -7378,7 +7398,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="131" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" s="16">
         <v>43939</v>
       </c>
@@ -7392,7 +7412,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="132" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" s="16">
         <v>43939</v>
       </c>
@@ -7406,7 +7426,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="133" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" s="16">
         <v>43939</v>
       </c>
@@ -7420,7 +7440,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="134" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" s="16">
         <v>43940</v>
       </c>
@@ -7434,7 +7454,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="135" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" s="16">
         <v>43940</v>
       </c>
@@ -7448,7 +7468,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="136" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" s="16">
         <v>43941</v>
       </c>
@@ -7462,7 +7482,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="137" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" s="16">
         <v>43941</v>
       </c>
@@ -7476,7 +7496,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="138" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" s="16">
         <v>43941</v>
       </c>
@@ -7490,7 +7510,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="139" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" s="16">
         <v>43941</v>
       </c>
@@ -7504,7 +7524,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="140" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" s="16">
         <v>43941</v>
       </c>
@@ -7518,7 +7538,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="141" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" s="16">
         <v>43941</v>
       </c>
@@ -7532,7 +7552,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="142" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" s="16">
         <v>43941</v>
       </c>
@@ -7546,7 +7566,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="143" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" s="16">
         <v>43941</v>
       </c>
@@ -7560,7 +7580,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="144" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" s="16">
         <v>43942</v>
       </c>
@@ -7574,7 +7594,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="145" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" s="16">
         <v>43942</v>
       </c>
@@ -7588,7 +7608,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="146" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" s="16">
         <v>43942</v>
       </c>
@@ -7602,7 +7622,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="147" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" s="16">
         <v>43942</v>
       </c>
@@ -7616,7 +7636,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="148" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" s="16">
         <v>43942</v>
       </c>
@@ -7630,7 +7650,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="149" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" s="16">
         <v>43942</v>
       </c>
@@ -7644,7 +7664,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="150" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" s="16">
         <v>43942</v>
       </c>
@@ -7658,7 +7678,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="151" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" s="16">
         <v>43942</v>
       </c>
@@ -7672,7 +7692,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="152" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" s="16">
         <v>43942</v>
       </c>
@@ -7686,7 +7706,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="153" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" s="16">
         <v>43943</v>
       </c>
@@ -7700,7 +7720,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="154" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" s="16">
         <v>43943</v>
       </c>
@@ -7714,7 +7734,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="155" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" s="16">
         <v>43943</v>
       </c>
@@ -7728,7 +7748,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="156" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" s="16">
         <v>43943</v>
       </c>
@@ -7742,7 +7762,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="157" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" s="16">
         <v>43943</v>
       </c>
@@ -7756,7 +7776,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="158" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" s="16">
         <v>43943</v>
       </c>
@@ -7770,7 +7790,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="159" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" s="16">
         <v>43943</v>
       </c>
@@ -7784,7 +7804,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="160" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" s="16">
         <v>43943</v>
       </c>
@@ -7798,7 +7818,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="161" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161" s="16">
         <v>43944</v>
       </c>
@@ -7812,7 +7832,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="162" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" s="16">
         <v>43944</v>
       </c>
@@ -7826,7 +7846,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="163" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163" s="16">
         <v>43944</v>
       </c>
@@ -7840,7 +7860,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="164" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164" s="16">
         <v>43944</v>
       </c>
@@ -7854,7 +7874,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="165" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165" s="16">
         <v>43944</v>
       </c>
@@ -7868,7 +7888,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="166" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166" s="16">
         <v>43944</v>
       </c>
@@ -7882,7 +7902,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="167" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167" s="16">
         <v>43945</v>
       </c>
@@ -7896,7 +7916,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="168" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168" s="16">
         <v>43945</v>
       </c>
@@ -7910,7 +7930,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="169" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169" s="16">
         <v>43945</v>
       </c>
@@ -7924,7 +7944,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="170" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170" s="16">
         <v>43945</v>
       </c>
@@ -7938,7 +7958,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="171" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171" s="16">
         <v>43945</v>
       </c>
@@ -7952,7 +7972,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="172" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172" s="16">
         <v>43945</v>
       </c>
@@ -7966,7 +7986,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="173" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173" s="16">
         <v>43945</v>
       </c>
@@ -7978,7 +7998,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="174" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174" s="16">
         <v>43945</v>
       </c>
@@ -7992,7 +8012,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="175" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175" s="16">
         <v>43945</v>
       </c>
@@ -8006,7 +8026,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="176" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176" s="16">
         <v>43945</v>
       </c>
@@ -8020,7 +8040,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="177" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177" s="16">
         <v>43945</v>
       </c>
@@ -8034,7 +8054,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="178" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178" s="16">
         <v>43946</v>
       </c>
@@ -8048,7 +8068,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="179" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179" s="16">
         <v>43946</v>
       </c>
@@ -8062,7 +8082,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="180" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180" s="16">
         <v>43946</v>
       </c>
@@ -8076,7 +8096,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="181" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181" s="16">
         <v>43946</v>
       </c>
@@ -8090,7 +8110,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="182" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182" s="16">
         <v>43946</v>
       </c>
@@ -8104,7 +8124,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="183" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183" s="16">
         <v>43946</v>
       </c>
@@ -8118,7 +8138,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="184" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184" s="16">
         <v>43946</v>
       </c>
@@ -8132,7 +8152,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="185" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185" s="16">
         <v>43946</v>
       </c>
@@ -8146,7 +8166,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="186" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186" s="16">
         <v>43946</v>
       </c>
@@ -8160,7 +8180,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="187" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187" s="16">
         <v>43947</v>
       </c>
@@ -8174,7 +8194,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="188" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188" s="16">
         <v>43947</v>
       </c>
@@ -8188,7 +8208,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="189" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189" s="16">
         <v>43947</v>
       </c>
@@ -8202,7 +8222,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="190" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190" s="16">
         <v>43947</v>
       </c>
@@ -8216,7 +8236,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="191" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191" s="16">
         <v>43947</v>
       </c>
@@ -8230,7 +8250,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="192" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192" s="16">
         <v>43947</v>
       </c>
@@ -8244,7 +8264,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="193" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A193" s="16">
         <v>43947</v>
       </c>
@@ -8258,7 +8278,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="194" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194" s="16">
         <v>43948</v>
       </c>
@@ -8272,7 +8292,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="195" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195" s="16">
         <v>43948</v>
       </c>
@@ -8286,7 +8306,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="196" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A196" s="16">
         <v>43948</v>
       </c>
@@ -8300,7 +8320,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="197" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A197" s="16">
         <v>43948</v>
       </c>
@@ -8314,7 +8334,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="198" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A198" s="16">
         <v>43948</v>
       </c>
@@ -8328,7 +8348,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="199" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A199" s="16">
         <v>43949</v>
       </c>
@@ -8342,7 +8362,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="200" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A200" s="16">
         <v>43949</v>
       </c>
@@ -8356,7 +8376,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="201" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A201" s="16">
         <v>43949</v>
       </c>
@@ -8370,7 +8390,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="202" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A202" s="16">
         <v>43949</v>
       </c>
@@ -8384,7 +8404,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="203" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A203" s="16">
         <v>43949</v>
       </c>
@@ -8398,7 +8418,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="204" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A204" s="16">
         <v>43949</v>
       </c>
@@ -8412,7 +8432,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="205" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A205" s="16">
         <v>43949</v>
       </c>
@@ -8426,7 +8446,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="206" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A206" s="16">
         <v>43949</v>
       </c>
@@ -8440,7 +8460,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="207" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A207" s="16">
         <v>43949</v>
       </c>
@@ -8454,7 +8474,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="208" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A208" s="16">
         <v>43949</v>
       </c>
@@ -8468,7 +8488,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="209" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A209" s="16">
         <v>43950</v>
       </c>
@@ -8482,7 +8502,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="210" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A210" s="16">
         <v>43950</v>
       </c>
@@ -8496,7 +8516,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="211" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A211" s="16">
         <v>43950</v>
       </c>
@@ -8510,7 +8530,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="212" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A212" s="16">
         <v>43950</v>
       </c>
@@ -8524,7 +8544,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="213" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A213" s="16">
         <v>43950</v>
       </c>
@@ -8538,7 +8558,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="214" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A214" s="16">
         <v>43950</v>
       </c>
@@ -8552,7 +8572,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="215" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A215" s="16">
         <v>43950</v>
       </c>
@@ -8566,7 +8586,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="216" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A216" s="16">
         <v>43951</v>
       </c>
@@ -8580,7 +8600,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="217" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A217" s="16">
         <v>43951</v>
       </c>
@@ -8594,7 +8614,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="218" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A218" s="16">
         <v>43951</v>
       </c>
@@ -8608,7 +8628,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="219" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A219" s="16">
         <v>43951</v>
       </c>
@@ -8622,7 +8642,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="220" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A220" s="16">
         <v>43952</v>
       </c>
@@ -8636,7 +8656,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="221" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A221" s="16">
         <v>43952</v>
       </c>
@@ -8650,7 +8670,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="222" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A222" s="16">
         <v>43952</v>
       </c>
@@ -8664,7 +8684,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="223" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A223" s="16">
         <v>43952</v>
       </c>
@@ -8678,7 +8698,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="224" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A224" s="16">
         <v>43952</v>
       </c>
@@ -8692,7 +8712,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="225" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A225" s="16">
         <v>43952</v>
       </c>
@@ -8706,7 +8726,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="226" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A226" s="16">
         <v>43952</v>
       </c>
@@ -8720,7 +8740,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="227" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A227" s="16">
         <v>43953</v>
       </c>
@@ -8734,7 +8754,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="228" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A228" s="16">
         <v>43953</v>
       </c>
@@ -8748,7 +8768,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="229" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A229" s="16">
         <v>43953</v>
       </c>
@@ -8762,7 +8782,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="230" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A230" s="16">
         <v>43953</v>
       </c>
@@ -8776,7 +8796,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="231" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A231" s="16">
         <v>43953</v>
       </c>
@@ -8790,7 +8810,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="232" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A232" s="16">
         <v>43953</v>
       </c>
@@ -8804,7 +8824,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="233" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A233" s="16">
         <v>43953</v>
       </c>
@@ -8818,7 +8838,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="234" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A234" s="16">
         <v>43953</v>
       </c>
@@ -8832,7 +8852,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="235" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A235" s="16">
         <v>43953</v>
       </c>
@@ -8846,7 +8866,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="236" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A236" s="16">
         <v>43953</v>
       </c>
@@ -8860,7 +8880,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="237" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A237" s="16">
         <v>43953</v>
       </c>
@@ -8874,7 +8894,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="238" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A238" s="16">
         <v>43953</v>
       </c>
@@ -8888,7 +8908,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="239" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A239" s="16">
         <v>43954</v>
       </c>
@@ -8902,7 +8922,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="240" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A240" s="16">
         <v>43954</v>
       </c>
@@ -8916,7 +8936,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="241" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A241" s="16">
         <v>43954</v>
       </c>
@@ -8930,7 +8950,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="242" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A242" s="16">
         <v>43954</v>
       </c>
@@ -8944,7 +8964,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="243" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A243" s="16">
         <v>43954</v>
       </c>
@@ -8958,7 +8978,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="244" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A244" s="16">
         <v>43954</v>
       </c>
@@ -8972,7 +8992,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="245" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A245" s="16">
         <v>43954</v>
       </c>
@@ -9003,7 +9023,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="247" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A247" s="16">
         <v>43954</v>
       </c>
@@ -9017,7 +9037,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="248" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A248" s="16">
         <v>43955</v>
       </c>
@@ -9031,7 +9051,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="249" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A249" s="16">
         <v>43955</v>
       </c>
@@ -9045,7 +9065,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="250" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A250" s="16">
         <v>43955</v>
       </c>
@@ -9059,7 +9079,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="251" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A251" s="16">
         <v>43955</v>
       </c>
@@ -9073,7 +9093,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="252" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A252" s="16">
         <v>43955</v>
       </c>
@@ -9087,7 +9107,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="253" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A253" s="16">
         <v>43955</v>
       </c>
@@ -9101,7 +9121,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="254" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A254" s="16">
         <v>43955</v>
       </c>
@@ -9115,7 +9135,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="255" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A255" s="16">
         <v>43955</v>
       </c>
@@ -9129,7 +9149,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="256" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A256" s="16">
         <v>43955</v>
       </c>
@@ -9143,7 +9163,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="257" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A257" s="16">
         <v>43955</v>
       </c>
@@ -9157,7 +9177,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="258" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A258" s="16">
         <v>43955</v>
       </c>
@@ -9171,7 +9191,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="259" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A259" s="16">
         <v>43955</v>
       </c>
@@ -9185,7 +9205,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="260" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A260" s="16">
         <v>43955</v>
       </c>
@@ -9199,7 +9219,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="261" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A261" s="16">
         <v>43955</v>
       </c>
@@ -9213,7 +9233,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="262" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A262" s="16">
         <v>43956</v>
       </c>
@@ -9227,7 +9247,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="263" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A263" s="16">
         <v>43956</v>
       </c>
@@ -9241,7 +9261,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="264" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A264" s="16">
         <v>43956</v>
       </c>
@@ -9255,7 +9275,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="265" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A265" s="16">
         <v>43956</v>
       </c>
@@ -9269,7 +9289,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="266" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A266" s="16">
         <v>43957</v>
       </c>
@@ -9283,7 +9303,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="267" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A267" s="16">
         <v>43957</v>
       </c>
@@ -9297,7 +9317,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="268" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A268" s="16">
         <v>43957</v>
       </c>
@@ -9311,7 +9331,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="269" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A269" s="16">
         <v>43957</v>
       </c>
@@ -9325,7 +9345,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="270" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A270" s="16">
         <v>43957</v>
       </c>
@@ -9337,7 +9357,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="271" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A271" s="16">
         <v>43957</v>
       </c>
@@ -9351,7 +9371,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="272" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A272" s="16">
         <v>43957</v>
       </c>
@@ -9365,7 +9385,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="273" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A273" s="16">
         <v>43957</v>
       </c>
@@ -9379,7 +9399,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="274" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A274" s="16">
         <v>43957</v>
       </c>
@@ -9393,7 +9413,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="275" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A275" s="16">
         <v>43958</v>
       </c>
@@ -9407,7 +9427,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="276" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A276" s="16">
         <v>43958</v>
       </c>
@@ -9421,7 +9441,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="277" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A277" s="16">
         <v>43958</v>
       </c>
@@ -9435,7 +9455,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="278" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A278" s="16">
         <v>43958</v>
       </c>
@@ -9449,7 +9469,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="279" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A279" s="16">
         <v>43958</v>
       </c>
@@ -9463,7 +9483,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="280" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A280" s="16">
         <v>43958</v>
       </c>
@@ -9477,7 +9497,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="281" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A281" s="16">
         <v>43958</v>
       </c>
@@ -9491,7 +9511,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="282" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A282" s="16">
         <v>43958</v>
       </c>
@@ -9505,7 +9525,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="283" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A283" s="16">
         <v>43958</v>
       </c>
@@ -9519,7 +9539,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="284" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A284" s="16">
         <v>43959</v>
       </c>
@@ -9533,7 +9553,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="285" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A285" s="16">
         <v>43959</v>
       </c>
@@ -9547,7 +9567,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="286" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A286" s="16">
         <v>43959</v>
       </c>
@@ -9561,7 +9581,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="287" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A287" s="16">
         <v>43959</v>
       </c>
@@ -9575,7 +9595,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="288" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A288" s="16">
         <v>43959</v>
       </c>
@@ -9589,7 +9609,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="289" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A289" s="16">
         <v>43959</v>
       </c>
@@ -9603,7 +9623,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="290" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A290" s="16">
         <v>43959</v>
       </c>
@@ -9617,7 +9637,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="291" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A291" s="16">
         <v>43959</v>
       </c>
@@ -9631,7 +9651,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="292" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A292" s="16">
         <v>43959</v>
       </c>
@@ -9645,7 +9665,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="293" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A293" s="16">
         <v>43959</v>
       </c>
@@ -9659,7 +9679,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="294" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A294" s="16">
         <v>43959</v>
       </c>
@@ -9673,7 +9693,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="295" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A295" s="16">
         <v>43960</v>
       </c>
@@ -9687,7 +9707,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="296" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A296" s="16">
         <v>43960</v>
       </c>
@@ -9701,7 +9721,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="297" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A297" s="16">
         <v>43960</v>
       </c>
@@ -9715,7 +9735,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="298" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A298" s="16">
         <v>43960</v>
       </c>
@@ -9729,7 +9749,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="299" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A299" s="16">
         <v>43960</v>
       </c>
@@ -9743,7 +9763,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="300" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A300" s="16">
         <v>43960</v>
       </c>
@@ -9757,7 +9777,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="301" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A301" s="16">
         <v>43960</v>
       </c>
@@ -9771,7 +9791,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="302" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A302" s="16">
         <v>43961</v>
       </c>
@@ -9785,7 +9805,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="303" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A303" s="16">
         <v>43961</v>
       </c>
@@ -9799,7 +9819,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="304" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A304" s="16">
         <v>43961</v>
       </c>
@@ -9813,7 +9833,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="305" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A305" s="16">
         <v>43961</v>
       </c>
@@ -9827,7 +9847,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="306" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A306" s="16">
         <v>43961</v>
       </c>
@@ -9841,7 +9861,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="307" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A307" s="16">
         <v>43962</v>
       </c>
@@ -9855,7 +9875,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="308" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A308" s="16">
         <v>43962</v>
       </c>
@@ -9869,7 +9889,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="309" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A309" s="16">
         <v>43962</v>
       </c>
@@ -9883,7 +9903,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="310" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A310" s="16">
         <v>43962</v>
       </c>
@@ -9897,7 +9917,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="311" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A311" s="16">
         <v>43962</v>
       </c>
@@ -9911,7 +9931,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="312" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A312" s="16">
         <v>43962</v>
       </c>
@@ -9925,7 +9945,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="313" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A313" s="16">
         <v>43962</v>
       </c>
@@ -9939,7 +9959,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="314" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A314" s="16">
         <v>43962</v>
       </c>
@@ -9953,7 +9973,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="315" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A315" s="16">
         <v>43962</v>
       </c>
@@ -9967,7 +9987,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="316" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A316" s="16">
         <v>43963</v>
       </c>
@@ -9981,7 +10001,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="317" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A317" s="16">
         <v>43963</v>
       </c>
@@ -9995,7 +10015,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="318" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A318" s="16">
         <v>43963</v>
       </c>
@@ -10009,7 +10029,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="319" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A319" s="16">
         <v>43963</v>
       </c>
@@ -10023,7 +10043,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="320" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A320" s="16">
         <v>43963</v>
       </c>
@@ -10037,7 +10057,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="321" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A321" s="16">
         <v>43964</v>
       </c>
@@ -10051,7 +10071,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="322" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A322" s="16">
         <v>43964</v>
       </c>
@@ -10065,7 +10085,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="323" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A323" s="16">
         <v>43964</v>
       </c>
@@ -10079,7 +10099,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="324" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A324" s="16">
         <v>43964</v>
       </c>
@@ -10093,7 +10113,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="325" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A325" s="16">
         <v>43964</v>
       </c>
@@ -10107,7 +10127,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="326" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A326" s="16">
         <v>43964</v>
       </c>
@@ -10121,7 +10141,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="327" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A327" s="16">
         <v>43964</v>
       </c>
@@ -10135,7 +10155,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="328" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A328" s="16">
         <v>43964</v>
       </c>
@@ -10149,7 +10169,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="329" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A329" s="16">
         <v>43964</v>
       </c>
@@ -10163,7 +10183,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="330" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A330" s="16">
         <v>43964</v>
       </c>
@@ -10177,7 +10197,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="331" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A331" s="16">
         <v>43965</v>
       </c>
@@ -10191,7 +10211,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="332" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A332" s="16">
         <v>43965</v>
       </c>
@@ -10205,7 +10225,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="333" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A333" s="16">
         <v>43965</v>
       </c>
@@ -10219,7 +10239,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="334" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A334" s="16">
         <v>43965</v>
       </c>
@@ -10233,7 +10253,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="335" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A335" s="16">
         <v>43965</v>
       </c>
@@ -10247,7 +10267,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="336" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A336" s="16">
         <v>43965</v>
       </c>
@@ -10261,7 +10281,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="337" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A337" s="16">
         <v>43965</v>
       </c>
@@ -10275,7 +10295,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="338" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A338" s="16">
         <v>43965</v>
       </c>
@@ -10289,7 +10309,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="339" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A339" s="16">
         <v>43965</v>
       </c>
@@ -10303,7 +10323,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="340" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A340" s="16">
         <v>43965</v>
       </c>
@@ -10317,7 +10337,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="341" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A341" s="16">
         <v>43965</v>
       </c>
@@ -10331,7 +10351,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="342" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A342" s="16">
         <v>43965</v>
       </c>
@@ -10345,7 +10365,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="343" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A343" s="16">
         <v>43965</v>
       </c>
@@ -10359,7 +10379,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="344" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A344" s="16">
         <v>43965</v>
       </c>
@@ -10373,7 +10393,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="345" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A345" s="16">
         <v>43965</v>
       </c>
@@ -10387,7 +10407,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="346" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A346" s="16">
         <v>43965</v>
       </c>
@@ -10401,7 +10421,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="347" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A347" s="16">
         <v>43965</v>
       </c>
@@ -10415,7 +10435,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="348" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A348" s="16">
         <v>43965</v>
       </c>
@@ -10429,7 +10449,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="349" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A349" s="16">
         <v>43965</v>
       </c>
@@ -10443,7 +10463,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="350" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A350" s="16">
         <v>43965</v>
       </c>
@@ -10457,7 +10477,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="351" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A351" s="16">
         <v>43965</v>
       </c>
@@ -10471,7 +10491,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="352" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A352" s="16">
         <v>43965</v>
       </c>
@@ -10485,7 +10505,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="353" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A353" s="16">
         <v>43965</v>
       </c>
@@ -10499,7 +10519,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="354" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A354" s="16">
         <v>43965</v>
       </c>
@@ -10513,7 +10533,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="355" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A355" s="16">
         <v>43966</v>
       </c>
@@ -10527,7 +10547,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="356" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A356" s="16">
         <v>43966</v>
       </c>
@@ -10541,7 +10561,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="357" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A357" s="16">
         <v>43966</v>
       </c>
@@ -10555,7 +10575,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="358" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A358" s="16">
         <v>43967</v>
       </c>
@@ -10569,7 +10589,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="359" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A359" s="16">
         <v>43967</v>
       </c>
@@ -10583,7 +10603,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="360" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A360" s="16">
         <v>43967</v>
       </c>
@@ -10597,7 +10617,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="361" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A361" s="16">
         <v>43967</v>
       </c>
@@ -10611,7 +10631,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="362" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A362" s="16">
         <v>43967</v>
       </c>
@@ -10625,7 +10645,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="363" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A363" s="16">
         <v>43967</v>
       </c>
@@ -10639,7 +10659,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="364" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A364" s="16">
         <v>43967</v>
       </c>
@@ -10653,7 +10673,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="365" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A365" s="16">
         <v>43968</v>
       </c>
@@ -10667,7 +10687,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="366" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A366" s="16">
         <v>43968</v>
       </c>
@@ -10681,7 +10701,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="367" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A367" s="16">
         <v>43968</v>
       </c>
@@ -10695,7 +10715,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="368" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A368" s="16">
         <v>43968</v>
       </c>
@@ -10709,7 +10729,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="369" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A369" s="16">
         <v>43968</v>
       </c>
@@ -10723,7 +10743,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="370" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A370" s="16">
         <v>43968</v>
       </c>
@@ -10737,7 +10757,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="371" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A371" s="16">
         <v>43968</v>
       </c>
@@ -10751,7 +10771,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="372" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A372" s="16">
         <v>43968</v>
       </c>
@@ -10765,7 +10785,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="373" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A373" s="16">
         <v>43968</v>
       </c>
@@ -10779,7 +10799,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="374" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A374" s="16">
         <v>43968</v>
       </c>
@@ -10793,7 +10813,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="375" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A375" s="16">
         <v>43969</v>
       </c>
@@ -10807,7 +10827,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="376" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A376" s="16">
         <v>43969</v>
       </c>
@@ -10821,7 +10841,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="377" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A377" s="16">
         <v>43969</v>
       </c>
@@ -10835,7 +10855,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="378" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A378" s="16">
         <v>43969</v>
       </c>
@@ -10849,7 +10869,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="379" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A379" s="16">
         <v>43969</v>
       </c>
@@ -10863,7 +10883,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="380" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A380" s="16">
         <v>43969</v>
       </c>
@@ -10877,7 +10897,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="381" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A381" s="16">
         <v>43969</v>
       </c>
@@ -10891,7 +10911,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="382" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A382" s="16">
         <v>43969</v>
       </c>
@@ -10905,7 +10925,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="383" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A383" s="16">
         <v>43969</v>
       </c>
@@ -10919,7 +10939,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="384" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A384" s="16">
         <v>43969</v>
       </c>
@@ -10933,7 +10953,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="385" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A385" s="16">
         <v>43970</v>
       </c>
@@ -10947,7 +10967,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="386" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A386" s="16">
         <v>43970</v>
       </c>
@@ -10961,7 +10981,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="387" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A387" s="16">
         <v>43970</v>
       </c>
@@ -10975,7 +10995,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="388" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A388" s="16">
         <v>43970</v>
       </c>
@@ -10989,7 +11009,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="389" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A389" s="16">
         <v>43970</v>
       </c>
@@ -11003,7 +11023,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="390" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A390" s="16">
         <v>43970</v>
       </c>
@@ -11017,7 +11037,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="391" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A391" s="16">
         <v>43970</v>
       </c>
@@ -11031,7 +11051,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="392" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A392" s="16">
         <v>43970</v>
       </c>
@@ -11045,7 +11065,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="393" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A393" s="16">
         <v>43970</v>
       </c>
@@ -11059,7 +11079,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="394" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A394" s="16">
         <v>43970</v>
       </c>
@@ -11073,7 +11093,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="395" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A395" s="16">
         <v>43970</v>
       </c>
@@ -11087,7 +11107,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="396" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A396" s="16">
         <v>43971</v>
       </c>
@@ -11101,7 +11121,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="397" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A397" s="16">
         <v>43971</v>
       </c>
@@ -11115,7 +11135,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="398" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A398" s="16">
         <v>43971</v>
       </c>
@@ -11129,7 +11149,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="399" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A399" s="16">
         <v>43971</v>
       </c>
@@ -11143,7 +11163,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="400" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A400" s="16">
         <v>43971</v>
       </c>
@@ -11157,7 +11177,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="401" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A401" s="16">
         <v>43971</v>
       </c>
@@ -11171,7 +11191,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="402" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A402" s="16">
         <v>43971</v>
       </c>
@@ -11185,7 +11205,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="403" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A403" s="16">
         <v>43971</v>
       </c>
@@ -11199,7 +11219,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="404" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A404" s="16">
         <v>43971</v>
       </c>
@@ -11213,7 +11233,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="405" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A405" s="16">
         <v>43971</v>
       </c>
@@ -11227,7 +11247,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="406" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A406" s="16">
         <v>43972</v>
       </c>
@@ -11241,7 +11261,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="407" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A407" s="16">
         <v>43972</v>
       </c>
@@ -11255,7 +11275,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="408" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A408" s="16">
         <v>43972</v>
       </c>
@@ -11269,7 +11289,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="409" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A409" s="16">
         <v>43972</v>
       </c>
@@ -11283,7 +11303,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="410" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A410" s="16">
         <v>43972</v>
       </c>
@@ -11297,7 +11317,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="411" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A411" s="16">
         <v>43972</v>
       </c>
@@ -11311,7 +11331,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="412" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A412" s="16">
         <v>43972</v>
       </c>
@@ -11325,7 +11345,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="413" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A413" s="16">
         <v>43972</v>
       </c>
@@ -11339,7 +11359,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="414" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A414" s="16">
         <v>43972</v>
       </c>
@@ -11353,7 +11373,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="415" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A415" s="16">
         <v>43972</v>
       </c>
@@ -11367,7 +11387,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="416" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A416" s="16">
         <v>43972</v>
       </c>
@@ -11381,7 +11401,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="417" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A417" s="16">
         <v>43972</v>
       </c>
@@ -11395,7 +11415,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="418" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A418" s="16">
         <v>43972</v>
       </c>
@@ -11409,7 +11429,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="419" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A419" s="16">
         <v>43973</v>
       </c>
@@ -11423,7 +11443,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="420" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A420" s="16">
         <v>43973</v>
       </c>
@@ -11437,7 +11457,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="421" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A421" s="16">
         <v>43973</v>
       </c>
@@ -11451,7 +11471,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="422" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A422" s="16">
         <v>43973</v>
       </c>
@@ -11465,7 +11485,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="423" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A423" s="16">
         <v>43973</v>
       </c>
@@ -11479,7 +11499,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="424" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A424" s="16">
         <v>43973</v>
       </c>
@@ -11493,7 +11513,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="425" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A425" s="16">
         <v>43973</v>
       </c>
@@ -11507,7 +11527,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="426" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A426" s="16">
         <v>43973</v>
       </c>
@@ -11521,7 +11541,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="427" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A427" s="16">
         <v>43973</v>
       </c>
@@ -11535,7 +11555,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="428" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A428" s="16">
         <v>43973</v>
       </c>
@@ -11549,7 +11569,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="429" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A429" s="16">
         <v>43973</v>
       </c>
@@ -11563,7 +11583,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="430" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A430" s="16">
         <v>43973</v>
       </c>
@@ -11577,7 +11597,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="431" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A431" s="16">
         <v>43973</v>
       </c>
@@ -11591,7 +11611,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="432" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A432" s="16">
         <v>43973</v>
       </c>
@@ -11605,7 +11625,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="433" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A433" s="16">
         <v>43973</v>
       </c>
@@ -11619,7 +11639,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="434" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A434" s="16">
         <v>43973</v>
       </c>
@@ -11633,7 +11653,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="435" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A435" s="16">
         <v>43973</v>
       </c>
@@ -11647,7 +11667,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="436" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A436" s="16">
         <v>43974</v>
       </c>
@@ -11661,7 +11681,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="437" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A437" s="16">
         <v>43974</v>
       </c>
@@ -11675,7 +11695,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="438" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A438" s="16">
         <v>43974</v>
       </c>
@@ -11689,7 +11709,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="439" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A439" s="16">
         <v>43974</v>
       </c>
@@ -11703,7 +11723,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="440" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A440" s="16">
         <v>43974</v>
       </c>
@@ -11717,7 +11737,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="441" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A441" s="16">
         <v>43974</v>
       </c>
@@ -11731,7 +11751,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="442" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A442" s="16">
         <v>43974</v>
       </c>
@@ -11745,7 +11765,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="443" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A443" s="16">
         <v>43974</v>
       </c>
@@ -11759,7 +11779,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="444" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A444" s="16">
         <v>43974</v>
       </c>
@@ -11773,7 +11793,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="445" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A445" s="16">
         <v>43974</v>
       </c>
@@ -11787,7 +11807,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="446" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A446" s="16">
         <v>43974</v>
       </c>
@@ -11801,7 +11821,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="447" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A447" s="16">
         <v>43974</v>
       </c>
@@ -11815,7 +11835,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="448" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A448" s="16">
         <v>43975</v>
       </c>
@@ -11829,7 +11849,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="449" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A449" s="16">
         <v>43975</v>
       </c>
@@ -11843,7 +11863,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="450" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A450" s="16">
         <v>43975</v>
       </c>
@@ -11857,7 +11877,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="451" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A451" s="16">
         <v>43975</v>
       </c>
@@ -11871,7 +11891,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="452" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A452" s="16">
         <v>43975</v>
       </c>
@@ -11885,7 +11905,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="453" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A453" s="16">
         <v>43975</v>
       </c>
@@ -11899,7 +11919,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="454" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A454" s="16">
         <v>43975</v>
       </c>
@@ -11913,7 +11933,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="455" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A455" s="16">
         <v>43976</v>
       </c>
@@ -11927,7 +11947,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="456" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A456" s="16">
         <v>43976</v>
       </c>
@@ -11941,7 +11961,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="457" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A457" s="16">
         <v>43976</v>
       </c>
@@ -11955,7 +11975,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="458" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A458" s="16">
         <v>43976</v>
       </c>
@@ -11969,7 +11989,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="459" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A459" s="16">
         <v>43976</v>
       </c>
@@ -11983,7 +12003,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="460" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A460" s="16">
         <v>43976</v>
       </c>
@@ -11997,7 +12017,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="461" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A461" s="16">
         <v>43976</v>
       </c>
@@ -12011,7 +12031,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="462" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A462" s="16">
         <v>43976</v>
       </c>
@@ -12025,7 +12045,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="463" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A463" s="16">
         <v>43976</v>
       </c>
@@ -12039,7 +12059,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="464" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A464" s="16">
         <v>43976</v>
       </c>
@@ -12053,7 +12073,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="465" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A465" s="16">
         <v>43976</v>
       </c>
@@ -12067,7 +12087,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="466" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A466" s="16">
         <v>43976</v>
       </c>
@@ -12081,7 +12101,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="467" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A467" s="16">
         <v>43976</v>
       </c>
@@ -12095,7 +12115,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="468" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A468" s="16">
         <v>43976</v>
       </c>
@@ -12109,7 +12129,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="469" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A469" s="16">
         <v>43976</v>
       </c>
@@ -12123,7 +12143,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="470" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A470" s="16">
         <v>43977</v>
       </c>
@@ -12137,7 +12157,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="471" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A471" s="16">
         <v>43977</v>
       </c>
@@ -12151,7 +12171,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="472" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A472" s="16">
         <v>43977</v>
       </c>
@@ -12165,7 +12185,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="473" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A473" s="16">
         <v>43977</v>
       </c>
@@ -12179,7 +12199,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="474" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A474" s="16">
         <v>43977</v>
       </c>
@@ -12193,7 +12213,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="475" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A475" s="16">
         <v>43977</v>
       </c>
@@ -12207,7 +12227,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="476" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A476" s="16">
         <v>43977</v>
       </c>
@@ -12221,7 +12241,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="477" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A477" s="16">
         <v>43977</v>
       </c>
@@ -12235,7 +12255,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="478" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A478" s="16">
         <v>43977</v>
       </c>
@@ -12249,7 +12269,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="479" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A479" s="16">
         <v>43977</v>
       </c>
@@ -12263,7 +12283,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="480" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A480" s="16">
         <v>43977</v>
       </c>
@@ -12277,7 +12297,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="481" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A481" s="16">
         <v>43977</v>
       </c>
@@ -12291,7 +12311,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="482" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A482" s="16">
         <v>43977</v>
       </c>
@@ -12305,7 +12325,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="483" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A483" s="16">
         <v>43977</v>
       </c>
@@ -12319,7 +12339,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="484" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A484" s="16">
         <v>43977</v>
       </c>
@@ -12333,7 +12353,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="485" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A485" s="16">
         <v>43977</v>
       </c>
@@ -12347,7 +12367,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="486" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A486" s="16">
         <v>43977</v>
       </c>
@@ -12361,7 +12381,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="487" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A487" s="16">
         <v>43977</v>
       </c>
@@ -12375,7 +12395,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="488" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A488" s="16">
         <v>43977</v>
       </c>
@@ -12389,7 +12409,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="489" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A489" s="16">
         <v>43977</v>
       </c>
@@ -12403,7 +12423,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="490" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A490" s="16">
         <v>43977</v>
       </c>
@@ -12417,7 +12437,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="491" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A491" s="16">
         <v>43977</v>
       </c>
@@ -12431,7 +12451,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="492" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A492" s="16">
         <v>43977</v>
       </c>
@@ -12445,7 +12465,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="493" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A493" s="16">
         <v>43978</v>
       </c>
@@ -12459,7 +12479,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="494" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A494" s="16">
         <v>43978</v>
       </c>
@@ -12473,7 +12493,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="495" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A495" s="16">
         <v>43978</v>
       </c>
@@ -12487,7 +12507,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="496" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A496" s="16">
         <v>43978</v>
       </c>
@@ -12501,7 +12521,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="497" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A497" s="16">
         <v>43978</v>
       </c>
@@ -12515,7 +12535,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="498" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A498" s="16">
         <v>43978</v>
       </c>
@@ -12529,7 +12549,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="499" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A499" s="16">
         <v>43978</v>
       </c>
@@ -12543,7 +12563,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="500" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A500" s="16">
         <v>43978</v>
       </c>
@@ -12557,7 +12577,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="501" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A501" s="16">
         <v>43978</v>
       </c>
@@ -12571,7 +12591,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="502" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A502" s="16">
         <v>43978</v>
       </c>
@@ -12585,7 +12605,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="503" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A503" s="16">
         <v>43979</v>
       </c>
@@ -12599,7 +12619,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="504" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A504" s="16">
         <v>43979</v>
       </c>
@@ -12613,7 +12633,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="505" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A505" s="16">
         <v>43979</v>
       </c>
@@ -12627,7 +12647,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="506" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A506" s="16">
         <v>43979</v>
       </c>
@@ -12641,7 +12661,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="507" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A507" s="16">
         <v>43979</v>
       </c>
@@ -12655,7 +12675,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="508" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A508" s="16">
         <v>43979</v>
       </c>
@@ -12669,7 +12689,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="509" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A509" s="16">
         <v>43979</v>
       </c>
@@ -12683,7 +12703,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="510" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A510" s="16">
         <v>43979</v>
       </c>
@@ -12697,7 +12717,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="511" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A511" s="16">
         <v>43980</v>
       </c>
@@ -12711,7 +12731,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="512" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A512" s="16">
         <v>43980</v>
       </c>
@@ -12725,7 +12745,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="513" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A513" s="16">
         <v>43980</v>
       </c>
@@ -12739,7 +12759,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="514" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A514" s="16">
         <v>43980</v>
       </c>
@@ -12753,7 +12773,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="515" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A515" s="16">
         <v>43980</v>
       </c>
@@ -12767,7 +12787,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="516" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A516" s="16">
         <v>43980</v>
       </c>
@@ -12781,7 +12801,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="517" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A517" s="16">
         <v>43980</v>
       </c>
@@ -12795,7 +12815,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="518" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A518" s="16">
         <v>43980</v>
       </c>
@@ -12809,7 +12829,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="519" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A519" s="16">
         <v>43980</v>
       </c>
@@ -12823,7 +12843,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="520" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A520" s="16">
         <v>43980</v>
       </c>
@@ -12837,7 +12857,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="521" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A521" s="16">
         <v>43980</v>
       </c>
@@ -12851,7 +12871,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="522" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A522" s="16">
         <v>43980</v>
       </c>
@@ -12865,7 +12885,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="523" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A523" s="16">
         <v>43981</v>
       </c>
@@ -12879,7 +12899,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="524" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A524" s="16">
         <v>43981</v>
       </c>
@@ -12893,7 +12913,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="525" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A525" s="16">
         <v>43981</v>
       </c>
@@ -12907,7 +12927,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="526" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A526" s="16">
         <v>43981</v>
       </c>
@@ -12921,7 +12941,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="527" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A527" s="16">
         <v>43981</v>
       </c>
@@ -12935,7 +12955,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="528" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A528" s="16">
         <v>43981</v>
       </c>
@@ -12949,7 +12969,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="529" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A529" s="16">
         <v>43981</v>
       </c>
@@ -12963,7 +12983,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="530" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A530" s="16">
         <v>43981</v>
       </c>
@@ -12977,7 +12997,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="531" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A531" s="16">
         <v>43982</v>
       </c>
@@ -12991,7 +13011,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="532" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A532" s="16">
         <v>43982</v>
       </c>
@@ -13005,7 +13025,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="533" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A533" s="16">
         <v>43982</v>
       </c>
@@ -13019,7 +13039,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="534" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A534" s="16">
         <v>43982</v>
       </c>
@@ -13033,7 +13053,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="535" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A535" s="16">
         <v>43982</v>
       </c>
@@ -13047,7 +13067,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="536" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A536" s="16">
         <v>43982</v>
       </c>
@@ -13061,7 +13081,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="537" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A537" s="16">
         <v>43982</v>
       </c>
@@ -13075,7 +13095,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="538" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A538" s="16">
         <v>43982</v>
       </c>
@@ -13089,7 +13109,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="539" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A539" s="16">
         <v>43982</v>
       </c>
@@ -13103,7 +13123,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="540" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A540" s="16">
         <v>43982</v>
       </c>
@@ -13117,7 +13137,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="541" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A541" s="16">
         <v>43982</v>
       </c>
@@ -13131,7 +13151,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="542" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A542" s="16">
         <v>43983</v>
       </c>
@@ -13145,7 +13165,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="543" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A543" s="16">
         <v>43983</v>
       </c>
@@ -13159,7 +13179,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="544" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A544" s="16">
         <v>43983</v>
       </c>
@@ -13173,7 +13193,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="545" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A545" s="16">
         <v>43983</v>
       </c>
@@ -13187,7 +13207,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="546" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A546" s="16">
         <v>43983</v>
       </c>
@@ -13201,7 +13221,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="547" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A547" s="16">
         <v>43983</v>
       </c>
@@ -13215,7 +13235,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="548" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A548" s="16">
         <v>43983</v>
       </c>
@@ -13229,7 +13249,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="549" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A549" s="16">
         <v>43983</v>
       </c>
@@ -13243,7 +13263,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="550" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A550" s="16">
         <v>43983</v>
       </c>
@@ -13257,7 +13277,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="551" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A551" s="16">
         <v>43983</v>
       </c>
@@ -13271,7 +13291,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="552" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A552" s="16">
         <v>43983</v>
       </c>
@@ -13285,7 +13305,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="553" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A553" s="16">
         <v>43983</v>
       </c>
@@ -13299,7 +13319,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="554" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A554" s="16">
         <v>43983</v>
       </c>
@@ -13313,7 +13333,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="555" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A555" s="16">
         <v>43983</v>
       </c>
@@ -13327,7 +13347,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="556" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A556" s="16">
         <v>43983</v>
       </c>
@@ -13341,7 +13361,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="557" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A557" s="16">
         <v>43983</v>
       </c>
@@ -13355,7 +13375,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="558" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A558" s="16">
         <v>43983</v>
       </c>
@@ -13369,7 +13389,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="559" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A559" s="16">
         <v>43984</v>
       </c>
@@ -13383,7 +13403,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="560" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A560" s="16">
         <v>43984</v>
       </c>
@@ -13397,7 +13417,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="561" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A561" s="16">
         <v>43984</v>
       </c>
@@ -13411,7 +13431,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="562" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A562" s="16">
         <v>43984</v>
       </c>
@@ -13425,7 +13445,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="563" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A563" s="16">
         <v>43984</v>
       </c>
@@ -13439,7 +13459,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="564" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A564" s="16">
         <v>43984</v>
       </c>
@@ -13453,7 +13473,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="565" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A565" s="16">
         <v>43984</v>
       </c>
@@ -13467,7 +13487,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="566" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A566" s="16">
         <v>43984</v>
       </c>
@@ -13481,7 +13501,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="567" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A567" s="16">
         <v>43984</v>
       </c>
@@ -13495,7 +13515,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="568" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A568" s="16">
         <v>43984</v>
       </c>
@@ -13509,7 +13529,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="569" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A569" s="16">
         <v>43984</v>
       </c>
@@ -13523,7 +13543,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="570" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A570" s="16">
         <v>43984</v>
       </c>
@@ -13537,7 +13557,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="571" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A571" s="16">
         <v>43984</v>
       </c>
@@ -13551,7 +13571,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="572" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A572" s="16">
         <v>43985</v>
       </c>
@@ -13565,7 +13585,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="573" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A573" s="16">
         <v>43985</v>
       </c>
@@ -13579,7 +13599,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="574" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A574" s="16">
         <v>43985</v>
       </c>
@@ -13593,7 +13613,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="575" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A575" s="16">
         <v>43985</v>
       </c>
@@ -13607,7 +13627,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="576" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A576" s="16">
         <v>43985</v>
       </c>
@@ -13621,7 +13641,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="577" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A577" s="16">
         <v>43985</v>
       </c>
@@ -13635,7 +13655,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="578" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A578" s="16">
         <v>43985</v>
       </c>
@@ -13649,7 +13669,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="579" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A579" s="16">
         <v>43985</v>
       </c>
@@ -13663,7 +13683,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="580" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A580" s="16">
         <v>43985</v>
       </c>
@@ -13677,7 +13697,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="581" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A581" s="16">
         <v>43985</v>
       </c>
@@ -13691,7 +13711,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="582" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A582" s="16">
         <v>43985</v>
       </c>
@@ -13705,7 +13725,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="583" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A583" s="16">
         <v>43985</v>
       </c>
@@ -13719,7 +13739,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="584" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A584" s="16">
         <v>43985</v>
       </c>
@@ -13733,7 +13753,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="585" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A585" s="16">
         <v>43985</v>
       </c>
@@ -13747,7 +13767,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="586" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A586" s="16">
         <v>43986</v>
       </c>
@@ -13761,7 +13781,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="587" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A587" s="16">
         <v>43986</v>
       </c>
@@ -13775,7 +13795,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="588" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A588" s="16">
         <v>43986</v>
       </c>
@@ -13789,7 +13809,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="589" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A589" s="16">
         <v>43986</v>
       </c>
@@ -13803,7 +13823,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="590" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A590" s="16">
         <v>43986</v>
       </c>
@@ -13817,7 +13837,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="591" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A591" s="16">
         <v>43986</v>
       </c>
@@ -13831,7 +13851,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="592" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A592" s="16">
         <v>43986</v>
       </c>
@@ -13845,7 +13865,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="593" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A593" s="16">
         <v>43986</v>
       </c>
@@ -13859,7 +13879,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="594" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A594" s="16">
         <v>43986</v>
       </c>
@@ -13873,7 +13893,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="595" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A595" s="16">
         <v>43986</v>
       </c>
@@ -13887,7 +13907,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="596" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A596" s="16">
         <v>43986</v>
       </c>
@@ -13901,7 +13921,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="597" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A597" s="16">
         <v>43986</v>
       </c>
@@ -13915,7 +13935,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="598" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A598" s="16">
         <v>43986</v>
       </c>
@@ -13929,7 +13949,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="599" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A599" s="16">
         <v>43986</v>
       </c>
@@ -13943,7 +13963,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="600" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A600" s="16">
         <v>43986</v>
       </c>
@@ -13957,7 +13977,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="601" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A601" s="16">
         <v>43986</v>
       </c>
@@ -13971,7 +13991,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="602" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A602" s="16">
         <v>43986</v>
       </c>
@@ -13985,7 +14005,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="603" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A603" s="16">
         <v>43986</v>
       </c>
@@ -13999,7 +14019,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="604" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A604" s="16">
         <v>43986</v>
       </c>
@@ -14013,7 +14033,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="605" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A605" s="16">
         <v>43986</v>
       </c>
@@ -14027,7 +14047,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="606" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A606" s="16">
         <v>43986</v>
       </c>
@@ -14041,7 +14061,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="607" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A607" s="16">
         <v>43986</v>
       </c>
@@ -14055,7 +14075,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="608" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A608" s="16">
         <v>43986</v>
       </c>
@@ -14069,7 +14089,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="609" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A609" s="16">
         <v>43986</v>
       </c>
@@ -14083,7 +14103,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="610" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A610" s="16">
         <v>43986</v>
       </c>
@@ -14097,7 +14117,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="611" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A611" s="16">
         <v>43987</v>
       </c>
@@ -14111,7 +14131,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="612" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A612" s="16">
         <v>43987</v>
       </c>
@@ -14125,7 +14145,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="613" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A613" s="16">
         <v>43987</v>
       </c>
@@ -14139,7 +14159,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="614" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A614" s="16">
         <v>43987</v>
       </c>
@@ -14153,7 +14173,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="615" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A615" s="16">
         <v>43987</v>
       </c>
@@ -14167,7 +14187,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="616" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A616" s="16">
         <v>43987</v>
       </c>
@@ -14181,7 +14201,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="617" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A617" s="16">
         <v>43987</v>
       </c>
@@ -14195,7 +14215,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="618" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A618" s="16">
         <v>43987</v>
       </c>
@@ -14209,7 +14229,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="619" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A619" s="16">
         <v>43987</v>
       </c>
@@ -14223,7 +14243,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="620" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A620" s="16">
         <v>43987</v>
       </c>
@@ -14237,7 +14257,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="621" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A621" s="16">
         <v>43987</v>
       </c>
@@ -14251,7 +14271,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="622" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A622" s="16">
         <v>43987</v>
       </c>
@@ -14265,7 +14285,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="623" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A623" s="16">
         <v>43987</v>
       </c>
@@ -14279,7 +14299,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="624" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A624" s="16">
         <v>43987</v>
       </c>
@@ -14293,7 +14313,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="625" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A625" s="16">
         <v>43987</v>
       </c>
@@ -14307,7 +14327,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="626" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A626" s="16">
         <v>43987</v>
       </c>
@@ -14321,7 +14341,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="627" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A627" s="16">
         <v>43987</v>
       </c>
@@ -14335,7 +14355,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="628" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A628" s="16">
         <v>43987</v>
       </c>
@@ -14349,7 +14369,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="629" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A629" s="16">
         <v>43987</v>
       </c>
@@ -14363,7 +14383,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="630" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A630" s="16">
         <v>43987</v>
       </c>
@@ -14377,7 +14397,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="631" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A631" s="16">
         <v>43987</v>
       </c>
@@ -14391,7 +14411,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="632" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A632" s="16">
         <v>43987</v>
       </c>
@@ -14405,7 +14425,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="633" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A633" s="16">
         <v>43987</v>
       </c>
@@ -14419,7 +14439,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="634" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A634" s="16">
         <v>43987</v>
       </c>
@@ -14433,7 +14453,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="635" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A635" s="16">
         <v>43988</v>
       </c>
@@ -14447,7 +14467,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="636" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A636" s="16">
         <v>43988</v>
       </c>
@@ -14461,7 +14481,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="637" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A637" s="16">
         <v>43988</v>
       </c>
@@ -14475,7 +14495,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="638" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A638" s="16">
         <v>43988</v>
       </c>
@@ -14489,7 +14509,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="639" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A639" s="16">
         <v>43988</v>
       </c>
@@ -14503,7 +14523,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="640" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A640" s="16">
         <v>43988</v>
       </c>
@@ -14517,7 +14537,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="641" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A641" s="16">
         <v>43988</v>
       </c>
@@ -14531,7 +14551,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="642" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A642" s="16">
         <v>43988</v>
       </c>
@@ -14545,7 +14565,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="643" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A643" s="16">
         <v>43988</v>
       </c>
@@ -14559,7 +14579,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="644" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A644" s="16">
         <v>43988</v>
       </c>
@@ -14573,7 +14593,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="645" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A645" s="16">
         <v>43988</v>
       </c>
@@ -14587,7 +14607,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="646" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A646" s="16">
         <v>43988</v>
       </c>
@@ -14601,7 +14621,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="647" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A647" s="16">
         <v>43988</v>
       </c>
@@ -14615,7 +14635,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="648" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A648" s="16">
         <v>43988</v>
       </c>
@@ -14629,7 +14649,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="649" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A649" s="16">
         <v>43988</v>
       </c>
@@ -14643,7 +14663,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="650" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A650" s="16">
         <v>43988</v>
       </c>
@@ -14657,7 +14677,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="651" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A651" s="16">
         <v>43989</v>
       </c>
@@ -14671,7 +14691,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="652" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A652" s="16">
         <v>43989</v>
       </c>
@@ -14685,7 +14705,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="653" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A653" s="16">
         <v>43989</v>
       </c>
@@ -14699,7 +14719,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="654" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A654" s="16">
         <v>43989</v>
       </c>
@@ -14713,7 +14733,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="655" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A655" s="16">
         <v>43989</v>
       </c>
@@ -14727,7 +14747,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="656" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A656" s="16">
         <v>43989</v>
       </c>
@@ -14741,7 +14761,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="657" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A657" s="16">
         <v>43989</v>
       </c>
@@ -14755,7 +14775,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="658" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A658" s="16">
         <v>43989</v>
       </c>
@@ -14769,7 +14789,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="659" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A659" s="16">
         <v>43989</v>
       </c>
@@ -14783,7 +14803,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="660" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A660" s="16">
         <v>43989</v>
       </c>
@@ -14797,7 +14817,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="661" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A661" s="16">
         <v>43989</v>
       </c>
@@ -14811,7 +14831,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="662" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A662" s="16">
         <v>43989</v>
       </c>
@@ -14825,7 +14845,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="663" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A663" s="16">
         <v>43989</v>
       </c>
@@ -14837,7 +14857,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="664" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A664" s="16">
         <v>43989</v>
       </c>
@@ -14851,7 +14871,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="665" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A665" s="16">
         <v>43989</v>
       </c>
@@ -14865,7 +14885,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="666" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A666" s="16">
         <v>43989</v>
       </c>
@@ -14880,11 +14900,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F666" xr:uid="{00000000-0009-0000-0000-000000000000}">
-    <filterColumn colId="3">
-      <filters blank="1"/>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:F666" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -14894,7 +14910,7 @@
   <dimension ref="A1:H2274"/>
   <sheetViews>
     <sheetView topLeftCell="A2249" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D2273" sqref="D2273"/>
+      <selection activeCell="A2257" sqref="A2257"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -46481,7 +46497,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41FC76FE-1A63-4E59-BFE1-BA7DA5FEAD63}">
   <dimension ref="A1:M42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+    <sheetView topLeftCell="A34" workbookViewId="0">
       <selection activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>

--- a/data/argentina.xlsx
+++ b/data/argentina.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\COVID\covid19Page\covid\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8BEC7CD-F20D-4DB0-8BC4-5EE851C95DBB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51F69B21-88FF-491D-B401-A0E21EF3A2D4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11760" yWindow="390" windowWidth="8700" windowHeight="10515" xr2:uid="{FD99AC7E-67B3-424D-874D-40A6E057BF54}"/>
+    <workbookView xWindow="11325" yWindow="390" windowWidth="9135" windowHeight="10515" xr2:uid="{FD99AC7E-67B3-424D-874D-40A6E057BF54}"/>
   </bookViews>
   <sheets>
     <sheet name="argentina_gral" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3662" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3742" uniqueCount="82">
   <si>
     <t>D¡a</t>
   </si>
@@ -327,7 +327,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -363,12 +363,23 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -412,6 +423,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -727,11 +742,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D48F336C-A519-44F7-9544-8D5A56C7FEE1}">
-  <dimension ref="A1:Q98"/>
+  <dimension ref="A1:Q99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A90" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B98" sqref="B98"/>
+      <selection pane="bottomLeft" activeCell="E99" sqref="A98:E99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5506,6 +5521,30 @@
         <v>3892</v>
       </c>
     </row>
+    <row r="99" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A99" s="2">
+        <v>43990</v>
+      </c>
+      <c r="B99" s="18">
+        <v>826</v>
+      </c>
+      <c r="C99" s="18">
+        <v>23620</v>
+      </c>
+      <c r="D99" s="4">
+        <f>E99-E98</f>
+        <v>29</v>
+      </c>
+      <c r="E99" s="4">
+        <v>693</v>
+      </c>
+      <c r="F99" s="1">
+        <v>7305</v>
+      </c>
+      <c r="G99" s="1">
+        <v>235</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:Q86" xr:uid="{F1784F29-C3FA-4C1F-AFF4-1C4499D0A37D}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5515,10 +5554,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C255934D-2CD9-446F-A5BE-CB7D14454E2D}">
-  <dimension ref="A1:F666"/>
+  <dimension ref="A1:F694"/>
   <sheetViews>
-    <sheetView topLeftCell="A655" workbookViewId="0">
-      <selection activeCell="A666" sqref="A666"/>
+    <sheetView topLeftCell="A661" workbookViewId="0">
+      <selection activeCell="A694" sqref="A667:A694"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14899,6 +14938,395 @@
         <v>27</v>
       </c>
     </row>
+    <row r="667" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A667" s="16">
+        <v>43990</v>
+      </c>
+      <c r="B667" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C667" s="6">
+        <v>90</v>
+      </c>
+      <c r="D667" s="17" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="668" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A668" s="16">
+        <v>43990</v>
+      </c>
+      <c r="B668" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C668" s="6">
+        <v>96</v>
+      </c>
+      <c r="D668" s="17" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="669" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A669" s="16">
+        <v>43990</v>
+      </c>
+      <c r="B669" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C669" s="6">
+        <v>89</v>
+      </c>
+      <c r="D669" s="17" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="670" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A670" s="16">
+        <v>43990</v>
+      </c>
+      <c r="B670" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C670" s="6">
+        <v>58</v>
+      </c>
+      <c r="D670" s="17" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="671" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A671" s="16">
+        <v>43990</v>
+      </c>
+      <c r="B671" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="C671" s="6">
+        <v>71</v>
+      </c>
+      <c r="D671" s="17" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="672" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A672" s="16">
+        <v>43990</v>
+      </c>
+      <c r="B672" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="C672" s="6">
+        <v>59</v>
+      </c>
+      <c r="D672" s="17" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="673" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A673" s="16">
+        <v>43990</v>
+      </c>
+      <c r="B673" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="C673" s="6">
+        <v>78</v>
+      </c>
+      <c r="D673" s="17" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="674" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A674" s="16">
+        <v>43990</v>
+      </c>
+      <c r="B674" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="C674" s="6">
+        <v>40</v>
+      </c>
+      <c r="D674" s="17" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="675" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A675" s="16">
+        <v>43990</v>
+      </c>
+      <c r="B675" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="C675" s="6">
+        <v>77</v>
+      </c>
+      <c r="D675" s="17" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="676" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A676" s="16">
+        <v>43990</v>
+      </c>
+      <c r="B676" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="C676" s="6">
+        <v>42</v>
+      </c>
+      <c r="D676" s="17" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="677" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A677" s="16">
+        <v>43990</v>
+      </c>
+      <c r="B677" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="C677" s="6">
+        <v>74</v>
+      </c>
+      <c r="D677" s="17" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="678" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A678" s="16">
+        <v>43990</v>
+      </c>
+      <c r="B678" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="C678" s="6">
+        <v>77</v>
+      </c>
+      <c r="D678" s="17" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="679" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A679" s="16">
+        <v>43990</v>
+      </c>
+      <c r="B679" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="C679" s="6">
+        <v>74</v>
+      </c>
+      <c r="D679" s="17" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="680" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A680" s="16">
+        <v>43990</v>
+      </c>
+      <c r="B680" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="C680" s="6">
+        <v>86</v>
+      </c>
+      <c r="D680" s="17" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="681" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A681" s="16">
+        <v>43990</v>
+      </c>
+      <c r="B681" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="C681" s="6">
+        <v>66</v>
+      </c>
+      <c r="D681" s="17" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="682" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A682" s="16">
+        <v>43990</v>
+      </c>
+      <c r="B682" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="C682" s="6">
+        <v>62</v>
+      </c>
+      <c r="D682" s="17" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="683" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A683" s="16">
+        <v>43990</v>
+      </c>
+      <c r="B683" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="C683" s="6">
+        <v>58</v>
+      </c>
+      <c r="D683" s="17" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="684" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A684" s="16">
+        <v>43990</v>
+      </c>
+      <c r="B684" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="D684" s="17" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="685" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A685" s="16">
+        <v>43990</v>
+      </c>
+      <c r="B685" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="C685" s="6">
+        <v>58</v>
+      </c>
+      <c r="D685" s="17" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="686" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A686" s="16">
+        <v>43990</v>
+      </c>
+      <c r="B686" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="C686" s="6">
+        <v>62</v>
+      </c>
+      <c r="D686" s="17" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="687" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A687" s="16">
+        <v>43990</v>
+      </c>
+      <c r="B687" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="C687" s="6">
+        <v>77</v>
+      </c>
+      <c r="D687" s="17" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="688" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A688" s="16">
+        <v>43990</v>
+      </c>
+      <c r="B688" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="C688" s="6">
+        <v>80</v>
+      </c>
+      <c r="D688" s="17" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="689" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A689" s="16">
+        <v>43990</v>
+      </c>
+      <c r="B689" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="C689" s="6">
+        <v>76</v>
+      </c>
+      <c r="D689" s="17" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="690" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A690" s="16">
+        <v>43990</v>
+      </c>
+      <c r="B690" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="C690" s="6">
+        <v>77</v>
+      </c>
+      <c r="D690" s="17" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="691" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A691" s="16">
+        <v>43990</v>
+      </c>
+      <c r="B691" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="C691" s="6">
+        <v>86</v>
+      </c>
+      <c r="D691" s="17" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="692" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A692" s="16">
+        <v>43990</v>
+      </c>
+      <c r="B692" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="C692" s="6">
+        <v>76</v>
+      </c>
+      <c r="D692" s="17" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="693" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A693" s="16">
+        <v>43990</v>
+      </c>
+      <c r="B693" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="C693" s="6">
+        <v>88</v>
+      </c>
+      <c r="D693" s="17" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="694" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A694" s="16">
+        <v>43990</v>
+      </c>
+      <c r="B694" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="C694" s="6">
+        <v>82</v>
+      </c>
+      <c r="D694" s="17" t="s">
+        <v>37</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:F666" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -14907,10 +15335,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A57CA6F3-BC06-4B65-9752-C1012701CA2A}">
-  <dimension ref="A1:H2274"/>
+  <dimension ref="A1:H2298"/>
   <sheetViews>
-    <sheetView topLeftCell="A2249" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A2257" sqref="A2257"/>
+    <sheetView topLeftCell="A2274" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C2289" sqref="C2289"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -46484,6 +46912,270 @@
         <v>43989</v>
       </c>
       <c r="C2274" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2275" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2275" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2275" s="14">
+        <v>43990</v>
+      </c>
+      <c r="C2275" s="6">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="2276" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2276" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2276" s="14">
+        <v>43990</v>
+      </c>
+      <c r="C2276" s="6">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="2277" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2277" t="s">
+        <v>56</v>
+      </c>
+      <c r="B2277" s="14">
+        <v>43990</v>
+      </c>
+      <c r="C2277" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2278" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2278" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2278" s="14">
+        <v>43990</v>
+      </c>
+      <c r="C2278" s="6">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2279" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2279" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2279" s="14">
+        <v>43990</v>
+      </c>
+      <c r="C2279" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2280" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2280" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2280" s="14">
+        <v>43990</v>
+      </c>
+      <c r="C2280" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2281" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2281" t="s">
+        <v>58</v>
+      </c>
+      <c r="B2281" s="14">
+        <v>43990</v>
+      </c>
+      <c r="C2281" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2282" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2282" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2282" s="14">
+        <v>43990</v>
+      </c>
+      <c r="C2282" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2283" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2283" t="s">
+        <v>69</v>
+      </c>
+      <c r="B2283" s="14">
+        <v>43990</v>
+      </c>
+      <c r="C2283" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2284" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2284" t="s">
+        <v>60</v>
+      </c>
+      <c r="B2284" s="14">
+        <v>43990</v>
+      </c>
+      <c r="C2284" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2285" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2285" t="s">
+        <v>61</v>
+      </c>
+      <c r="B2285" s="14">
+        <v>43990</v>
+      </c>
+      <c r="C2285" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2286" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2286" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2286" s="14">
+        <v>43990</v>
+      </c>
+      <c r="C2286" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2287" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2287" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2287" s="14">
+        <v>43990</v>
+      </c>
+      <c r="C2287" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2288" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2288" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2288" s="14">
+        <v>43990</v>
+      </c>
+      <c r="C2288" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2289" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2289" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2289" s="14">
+        <v>43990</v>
+      </c>
+      <c r="C2289" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2290" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2290" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2290" s="14">
+        <v>43990</v>
+      </c>
+      <c r="C2290" s="6">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2291" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2291" t="s">
+        <v>62</v>
+      </c>
+      <c r="B2291" s="14">
+        <v>43990</v>
+      </c>
+      <c r="C2291" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2292" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2292" t="s">
+        <v>63</v>
+      </c>
+      <c r="B2292" s="14">
+        <v>43990</v>
+      </c>
+      <c r="C2292" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2293" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2293" t="s">
+        <v>64</v>
+      </c>
+      <c r="B2293" s="14">
+        <v>43990</v>
+      </c>
+      <c r="C2293" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2294" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2294" t="s">
+        <v>65</v>
+      </c>
+      <c r="B2294" s="14">
+        <v>43990</v>
+      </c>
+      <c r="C2294" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2295" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2295" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2295" s="14">
+        <v>43990</v>
+      </c>
+      <c r="C2295" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2296" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2296" t="s">
+        <v>66</v>
+      </c>
+      <c r="B2296" s="14">
+        <v>43990</v>
+      </c>
+      <c r="C2296" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2297" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2297" t="s">
+        <v>67</v>
+      </c>
+      <c r="B2297" s="14">
+        <v>43990</v>
+      </c>
+      <c r="C2297" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2298" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2298" t="s">
+        <v>68</v>
+      </c>
+      <c r="B2298" s="14">
+        <v>43990</v>
+      </c>
+      <c r="C2298" s="6">
         <v>0</v>
       </c>
     </row>

--- a/data/argentina.xlsx
+++ b/data/argentina.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\COVID\covid19Page\covid\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{596C9280-4C0C-4AE2-959D-D8417EDD8E5F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09024E8E-3E48-422E-BDFC-52BCD212386A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11235" yWindow="315" windowWidth="8190" windowHeight="10515" xr2:uid="{FD99AC7E-67B3-424D-874D-40A6E057BF54}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{FD99AC7E-67B3-424D-874D-40A6E057BF54}"/>
   </bookViews>
   <sheets>
     <sheet name="argentina_gral" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <sheet name="edades_arg" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">argentina_fallecidos!$A$1:$F$736</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">argentina_fallecidos!$A$1:$F$742</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">argentina_gral!$A$1:$Q$86</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">casos_provincias!$A$1:$H$2082</definedName>
   </definedNames>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3874" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3886" uniqueCount="81">
   <si>
     <t>D¡a</t>
   </si>
@@ -324,7 +324,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -357,17 +357,6 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
       <bottom/>
       <diagonal/>
     </border>
@@ -433,7 +422,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -442,9 +430,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -765,7 +756,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A91" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N102" sqref="N102"/>
+      <selection pane="bottomLeft" activeCell="K101" sqref="K101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5544,10 +5535,10 @@
       <c r="A99" s="2">
         <v>43990</v>
       </c>
-      <c r="B99" s="18">
+      <c r="B99" s="17">
         <v>826</v>
       </c>
-      <c r="C99" s="18">
+      <c r="C99" s="17">
         <v>23620</v>
       </c>
       <c r="D99" s="4">
@@ -5560,7 +5551,7 @@
       <c r="F99" s="1">
         <v>7568</v>
       </c>
-      <c r="G99" s="23">
+      <c r="G99" s="21">
         <v>265</v>
       </c>
       <c r="H99" s="4">
@@ -5581,10 +5572,10 @@
       <c r="M99" s="4">
         <v>986</v>
       </c>
-      <c r="N99" s="19">
+      <c r="N99" s="18">
         <v>9822</v>
       </c>
-      <c r="O99" s="19">
+      <c r="O99" s="18">
         <v>8919</v>
       </c>
       <c r="P99" s="4">
@@ -5596,23 +5587,23 @@
       <c r="A100" s="2">
         <v>43991</v>
       </c>
-      <c r="B100" s="18">
+      <c r="B100" s="17">
         <v>1141</v>
       </c>
-      <c r="C100" s="18">
+      <c r="C100" s="17">
         <v>24761</v>
       </c>
       <c r="D100" s="4">
         <f>5+19</f>
         <v>24</v>
       </c>
-      <c r="E100" s="19">
+      <c r="E100" s="18">
         <v>717</v>
       </c>
       <c r="F100" s="1">
         <v>7991</v>
       </c>
-      <c r="G100" s="23">
+      <c r="G100" s="21">
         <v>263</v>
       </c>
       <c r="H100" s="4">
@@ -5631,13 +5622,13 @@
         <f>K100+J100</f>
         <v>147917</v>
       </c>
-      <c r="M100" s="19">
+      <c r="M100" s="18">
         <v>992</v>
       </c>
-      <c r="N100" s="19">
+      <c r="N100" s="18">
         <v>10260</v>
       </c>
-      <c r="O100" s="19">
+      <c r="O100" s="18">
         <v>9406</v>
       </c>
       <c r="P100" s="4">
@@ -5649,7 +5640,7 @@
       <c r="A101" s="2">
         <v>43992</v>
       </c>
-      <c r="B101" s="18">
+      <c r="B101" s="17">
         <v>1226</v>
       </c>
       <c r="C101" s="4">
@@ -5659,16 +5650,25 @@
       <c r="D101" s="4">
         <v>18</v>
       </c>
-      <c r="E101" s="19">
+      <c r="E101" s="18">
         <v>735</v>
       </c>
-      <c r="F101" s="1"/>
-      <c r="G101" s="1"/>
-      <c r="H101" s="4"/>
-      <c r="I101" s="4"/>
+      <c r="F101" s="1">
+        <v>8332</v>
+      </c>
+      <c r="G101" s="1">
+        <v>325</v>
+      </c>
+      <c r="H101" s="4">
+        <v>6288</v>
+      </c>
+      <c r="I101" s="4">
+        <v>214807</v>
+      </c>
       <c r="J101" s="4"/>
-      <c r="K101" s="4"/>
-      <c r="L101" s="4"/>
+      <c r="L101" s="4">
+        <v>151512</v>
+      </c>
       <c r="M101" s="4">
         <v>996</v>
       </c>
@@ -5710,10 +5710,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C255934D-2CD9-446F-A5BE-CB7D14454E2D}">
-  <dimension ref="A1:F736"/>
+  <dimension ref="A1:F742"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D684" sqref="D25:D684"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6116,7 +6116,7 @@
       <c r="C25" s="4">
         <v>50</v>
       </c>
-      <c r="D25" s="20" t="s">
+      <c r="D25" s="19" t="s">
         <v>67</v>
       </c>
     </row>
@@ -6130,7 +6130,7 @@
       <c r="C26" s="4">
         <v>77</v>
       </c>
-      <c r="D26" s="20" t="s">
+      <c r="D26" s="19" t="s">
         <v>67</v>
       </c>
       <c r="E26" t="s">
@@ -6693,7 +6693,7 @@
       <c r="C66" s="4">
         <v>61</v>
       </c>
-      <c r="D66" s="20" t="s">
+      <c r="D66" s="19" t="s">
         <v>67</v>
       </c>
     </row>
@@ -9548,7 +9548,7 @@
         <v>22</v>
       </c>
       <c r="C270" s="4"/>
-      <c r="D270" s="20" t="s">
+      <c r="D270" s="19" t="s">
         <v>67</v>
       </c>
     </row>
@@ -15104,7 +15104,7 @@
       <c r="C667" s="4">
         <v>90</v>
       </c>
-      <c r="D667" s="20" t="s">
+      <c r="D667" s="19" t="s">
         <v>27</v>
       </c>
     </row>
@@ -15118,7 +15118,7 @@
       <c r="C668" s="4">
         <v>96</v>
       </c>
-      <c r="D668" s="20" t="s">
+      <c r="D668" s="19" t="s">
         <v>27</v>
       </c>
     </row>
@@ -15132,7 +15132,7 @@
       <c r="C669" s="4">
         <v>89</v>
       </c>
-      <c r="D669" s="20" t="s">
+      <c r="D669" s="19" t="s">
         <v>27</v>
       </c>
     </row>
@@ -15146,7 +15146,7 @@
       <c r="C670" s="4">
         <v>58</v>
       </c>
-      <c r="D670" s="20" t="s">
+      <c r="D670" s="19" t="s">
         <v>27</v>
       </c>
     </row>
@@ -15154,13 +15154,13 @@
       <c r="A671" s="16">
         <v>43990</v>
       </c>
-      <c r="B671" s="20" t="s">
+      <c r="B671" s="19" t="s">
         <v>22</v>
       </c>
       <c r="C671" s="4">
         <v>71</v>
       </c>
-      <c r="D671" s="20" t="s">
+      <c r="D671" s="19" t="s">
         <v>23</v>
       </c>
     </row>
@@ -15168,13 +15168,13 @@
       <c r="A672" s="16">
         <v>43990</v>
       </c>
-      <c r="B672" s="20" t="s">
+      <c r="B672" s="19" t="s">
         <v>22</v>
       </c>
       <c r="C672" s="4">
         <v>59</v>
       </c>
-      <c r="D672" s="20" t="s">
+      <c r="D672" s="19" t="s">
         <v>27</v>
       </c>
     </row>
@@ -15182,13 +15182,13 @@
       <c r="A673" s="16">
         <v>43990</v>
       </c>
-      <c r="B673" s="20" t="s">
+      <c r="B673" s="19" t="s">
         <v>22</v>
       </c>
       <c r="C673" s="4">
         <v>78</v>
       </c>
-      <c r="D673" s="20" t="s">
+      <c r="D673" s="19" t="s">
         <v>27</v>
       </c>
     </row>
@@ -15196,13 +15196,13 @@
       <c r="A674" s="16">
         <v>43990</v>
       </c>
-      <c r="B674" s="20" t="s">
+      <c r="B674" s="19" t="s">
         <v>22</v>
       </c>
       <c r="C674" s="4">
         <v>40</v>
       </c>
-      <c r="D674" s="20" t="s">
+      <c r="D674" s="19" t="s">
         <v>27</v>
       </c>
     </row>
@@ -15210,13 +15210,13 @@
       <c r="A675" s="16">
         <v>43990</v>
       </c>
-      <c r="B675" s="20" t="s">
+      <c r="B675" s="19" t="s">
         <v>22</v>
       </c>
       <c r="C675" s="4">
         <v>77</v>
       </c>
-      <c r="D675" s="20" t="s">
+      <c r="D675" s="19" t="s">
         <v>27</v>
       </c>
     </row>
@@ -15224,13 +15224,13 @@
       <c r="A676" s="16">
         <v>43990</v>
       </c>
-      <c r="B676" s="20" t="s">
+      <c r="B676" s="19" t="s">
         <v>22</v>
       </c>
       <c r="C676" s="4">
         <v>42</v>
       </c>
-      <c r="D676" s="20" t="s">
+      <c r="D676" s="19" t="s">
         <v>27</v>
       </c>
     </row>
@@ -15238,13 +15238,13 @@
       <c r="A677" s="16">
         <v>43990</v>
       </c>
-      <c r="B677" s="20" t="s">
+      <c r="B677" s="19" t="s">
         <v>22</v>
       </c>
       <c r="C677" s="4">
         <v>74</v>
       </c>
-      <c r="D677" s="20" t="s">
+      <c r="D677" s="19" t="s">
         <v>27</v>
       </c>
     </row>
@@ -15252,13 +15252,13 @@
       <c r="A678" s="16">
         <v>43990</v>
       </c>
-      <c r="B678" s="20" t="s">
+      <c r="B678" s="19" t="s">
         <v>22</v>
       </c>
       <c r="C678" s="4">
         <v>77</v>
       </c>
-      <c r="D678" s="20" t="s">
+      <c r="D678" s="19" t="s">
         <v>27</v>
       </c>
     </row>
@@ -15266,13 +15266,13 @@
       <c r="A679" s="16">
         <v>43990</v>
       </c>
-      <c r="B679" s="20" t="s">
+      <c r="B679" s="19" t="s">
         <v>22</v>
       </c>
       <c r="C679" s="4">
         <v>74</v>
       </c>
-      <c r="D679" s="20" t="s">
+      <c r="D679" s="19" t="s">
         <v>27</v>
       </c>
     </row>
@@ -15280,13 +15280,13 @@
       <c r="A680" s="16">
         <v>43990</v>
       </c>
-      <c r="B680" s="20" t="s">
+      <c r="B680" s="19" t="s">
         <v>22</v>
       </c>
       <c r="C680" s="4">
         <v>86</v>
       </c>
-      <c r="D680" s="20" t="s">
+      <c r="D680" s="19" t="s">
         <v>23</v>
       </c>
     </row>
@@ -15294,13 +15294,13 @@
       <c r="A681" s="16">
         <v>43990</v>
       </c>
-      <c r="B681" s="20" t="s">
+      <c r="B681" s="19" t="s">
         <v>22</v>
       </c>
       <c r="C681" s="4">
         <v>66</v>
       </c>
-      <c r="D681" s="20" t="s">
+      <c r="D681" s="19" t="s">
         <v>23</v>
       </c>
     </row>
@@ -15308,13 +15308,13 @@
       <c r="A682" s="16">
         <v>43990</v>
       </c>
-      <c r="B682" s="20" t="s">
+      <c r="B682" s="19" t="s">
         <v>22</v>
       </c>
       <c r="C682" s="4">
         <v>62</v>
       </c>
-      <c r="D682" s="20" t="s">
+      <c r="D682" s="19" t="s">
         <v>23</v>
       </c>
     </row>
@@ -15322,13 +15322,13 @@
       <c r="A683" s="16">
         <v>43990</v>
       </c>
-      <c r="B683" s="20" t="s">
+      <c r="B683" s="19" t="s">
         <v>22</v>
       </c>
       <c r="C683" s="4">
         <v>58</v>
       </c>
-      <c r="D683" s="20" t="s">
+      <c r="D683" s="19" t="s">
         <v>25</v>
       </c>
     </row>
@@ -15336,11 +15336,11 @@
       <c r="A684" s="16">
         <v>43990</v>
       </c>
-      <c r="B684" s="20" t="s">
+      <c r="B684" s="19" t="s">
         <v>22</v>
       </c>
       <c r="C684" s="4"/>
-      <c r="D684" s="20" t="s">
+      <c r="D684" s="19" t="s">
         <v>67</v>
       </c>
     </row>
@@ -15348,13 +15348,13 @@
       <c r="A685" s="16">
         <v>43990</v>
       </c>
-      <c r="B685" s="20" t="s">
+      <c r="B685" s="19" t="s">
         <v>22</v>
       </c>
       <c r="C685" s="4">
         <v>58</v>
       </c>
-      <c r="D685" s="20" t="s">
+      <c r="D685" s="19" t="s">
         <v>37</v>
       </c>
     </row>
@@ -15362,13 +15362,13 @@
       <c r="A686" s="16">
         <v>43990</v>
       </c>
-      <c r="B686" s="20" t="s">
+      <c r="B686" s="19" t="s">
         <v>29</v>
       </c>
       <c r="C686" s="4">
         <v>62</v>
       </c>
-      <c r="D686" s="20" t="s">
+      <c r="D686" s="19" t="s">
         <v>27</v>
       </c>
     </row>
@@ -15376,13 +15376,13 @@
       <c r="A687" s="16">
         <v>43990</v>
       </c>
-      <c r="B687" s="20" t="s">
+      <c r="B687" s="19" t="s">
         <v>29</v>
       </c>
       <c r="C687" s="4">
         <v>77</v>
       </c>
-      <c r="D687" s="20" t="s">
+      <c r="D687" s="19" t="s">
         <v>27</v>
       </c>
     </row>
@@ -15390,13 +15390,13 @@
       <c r="A688" s="16">
         <v>43990</v>
       </c>
-      <c r="B688" s="20" t="s">
+      <c r="B688" s="19" t="s">
         <v>29</v>
       </c>
       <c r="C688" s="4">
         <v>80</v>
       </c>
-      <c r="D688" s="20" t="s">
+      <c r="D688" s="19" t="s">
         <v>27</v>
       </c>
     </row>
@@ -15404,13 +15404,13 @@
       <c r="A689" s="16">
         <v>43990</v>
       </c>
-      <c r="B689" s="20" t="s">
+      <c r="B689" s="19" t="s">
         <v>29</v>
       </c>
       <c r="C689" s="4">
         <v>76</v>
       </c>
-      <c r="D689" s="20" t="s">
+      <c r="D689" s="19" t="s">
         <v>23</v>
       </c>
     </row>
@@ -15418,13 +15418,13 @@
       <c r="A690" s="16">
         <v>43990</v>
       </c>
-      <c r="B690" s="20" t="s">
+      <c r="B690" s="19" t="s">
         <v>29</v>
       </c>
       <c r="C690" s="4">
         <v>77</v>
       </c>
-      <c r="D690" s="20" t="s">
+      <c r="D690" s="19" t="s">
         <v>23</v>
       </c>
     </row>
@@ -15432,13 +15432,13 @@
       <c r="A691" s="16">
         <v>43990</v>
       </c>
-      <c r="B691" s="20" t="s">
+      <c r="B691" s="19" t="s">
         <v>29</v>
       </c>
       <c r="C691" s="4">
         <v>86</v>
       </c>
-      <c r="D691" s="20" t="s">
+      <c r="D691" s="19" t="s">
         <v>23</v>
       </c>
     </row>
@@ -15446,13 +15446,13 @@
       <c r="A692" s="16">
         <v>43990</v>
       </c>
-      <c r="B692" s="20" t="s">
+      <c r="B692" s="19" t="s">
         <v>29</v>
       </c>
       <c r="C692" s="4">
         <v>76</v>
       </c>
-      <c r="D692" s="20" t="s">
+      <c r="D692" s="19" t="s">
         <v>23</v>
       </c>
     </row>
@@ -15460,13 +15460,13 @@
       <c r="A693" s="16">
         <v>43990</v>
       </c>
-      <c r="B693" s="20" t="s">
+      <c r="B693" s="19" t="s">
         <v>29</v>
       </c>
       <c r="C693" s="4">
         <v>88</v>
       </c>
-      <c r="D693" s="20" t="s">
+      <c r="D693" s="19" t="s">
         <v>23</v>
       </c>
     </row>
@@ -15474,13 +15474,13 @@
       <c r="A694" s="16">
         <v>43990</v>
       </c>
-      <c r="B694" s="20" t="s">
+      <c r="B694" s="19" t="s">
         <v>29</v>
       </c>
       <c r="C694" s="4">
         <v>82</v>
       </c>
-      <c r="D694" s="20" t="s">
+      <c r="D694" s="19" t="s">
         <v>37</v>
       </c>
     </row>
@@ -15488,13 +15488,13 @@
       <c r="A695" s="16">
         <v>43991</v>
       </c>
-      <c r="B695" s="20" t="s">
+      <c r="B695" s="19" t="s">
         <v>29</v>
       </c>
       <c r="C695" s="4">
         <v>88</v>
       </c>
-      <c r="D695" s="20" t="s">
+      <c r="D695" s="19" t="s">
         <v>27</v>
       </c>
     </row>
@@ -15502,13 +15502,13 @@
       <c r="A696" s="16">
         <v>43991</v>
       </c>
-      <c r="B696" s="20" t="s">
+      <c r="B696" s="19" t="s">
         <v>22</v>
       </c>
       <c r="C696" s="4">
         <v>62</v>
       </c>
-      <c r="D696" s="20" t="s">
+      <c r="D696" s="19" t="s">
         <v>23</v>
       </c>
     </row>
@@ -15516,13 +15516,13 @@
       <c r="A697" s="16">
         <v>43991</v>
       </c>
-      <c r="B697" s="20" t="s">
+      <c r="B697" s="19" t="s">
         <v>22</v>
       </c>
       <c r="C697" s="4">
         <v>88</v>
       </c>
-      <c r="D697" s="20" t="s">
+      <c r="D697" s="19" t="s">
         <v>27</v>
       </c>
     </row>
@@ -15530,13 +15530,13 @@
       <c r="A698" s="16">
         <v>43991</v>
       </c>
-      <c r="B698" s="20" t="s">
+      <c r="B698" s="19" t="s">
         <v>22</v>
       </c>
       <c r="C698" s="4">
         <v>82</v>
       </c>
-      <c r="D698" s="20" t="s">
+      <c r="D698" s="19" t="s">
         <v>25</v>
       </c>
     </row>
@@ -15544,13 +15544,13 @@
       <c r="A699" s="16">
         <v>43991</v>
       </c>
-      <c r="B699" s="20" t="s">
+      <c r="B699" s="19" t="s">
         <v>22</v>
       </c>
       <c r="C699" s="4">
         <v>56</v>
       </c>
-      <c r="D699" s="20" t="s">
+      <c r="D699" s="19" t="s">
         <v>25</v>
       </c>
     </row>
@@ -15558,13 +15558,13 @@
       <c r="A700" s="16">
         <v>43991</v>
       </c>
-      <c r="B700" s="20" t="s">
+      <c r="B700" s="19" t="s">
         <v>22</v>
       </c>
       <c r="C700" s="4">
         <v>68</v>
       </c>
-      <c r="D700" s="20" t="s">
+      <c r="D700" s="19" t="s">
         <v>27</v>
       </c>
     </row>
@@ -15572,13 +15572,13 @@
       <c r="A701" s="16">
         <v>43991</v>
       </c>
-      <c r="B701" s="20" t="s">
+      <c r="B701" s="19" t="s">
         <v>22</v>
       </c>
       <c r="C701" s="4">
         <v>49</v>
       </c>
-      <c r="D701" s="20" t="s">
+      <c r="D701" s="19" t="s">
         <v>27</v>
       </c>
     </row>
@@ -15586,13 +15586,13 @@
       <c r="A702" s="16">
         <v>43991</v>
       </c>
-      <c r="B702" s="20" t="s">
+      <c r="B702" s="19" t="s">
         <v>22</v>
       </c>
       <c r="C702" s="4">
         <v>73</v>
       </c>
-      <c r="D702" s="20" t="s">
+      <c r="D702" s="19" t="s">
         <v>27</v>
       </c>
     </row>
@@ -15600,13 +15600,13 @@
       <c r="A703" s="16">
         <v>43991</v>
       </c>
-      <c r="B703" s="20" t="s">
+      <c r="B703" s="19" t="s">
         <v>22</v>
       </c>
       <c r="C703" s="4">
         <v>72</v>
       </c>
-      <c r="D703" s="20" t="s">
+      <c r="D703" s="19" t="s">
         <v>27</v>
       </c>
     </row>
@@ -15614,13 +15614,13 @@
       <c r="A704" s="16">
         <v>43991</v>
       </c>
-      <c r="B704" s="20" t="s">
+      <c r="B704" s="19" t="s">
         <v>22</v>
       </c>
       <c r="C704" s="4">
         <v>29</v>
       </c>
-      <c r="D704" s="20" t="s">
+      <c r="D704" s="19" t="s">
         <v>27</v>
       </c>
     </row>
@@ -15628,13 +15628,13 @@
       <c r="A705" s="16">
         <v>43991</v>
       </c>
-      <c r="B705" s="20" t="s">
+      <c r="B705" s="19" t="s">
         <v>22</v>
       </c>
       <c r="C705" s="4">
         <v>77</v>
       </c>
-      <c r="D705" s="20" t="s">
+      <c r="D705" s="19" t="s">
         <v>27</v>
       </c>
     </row>
@@ -15642,13 +15642,13 @@
       <c r="A706" s="16">
         <v>43991</v>
       </c>
-      <c r="B706" s="20" t="s">
+      <c r="B706" s="19" t="s">
         <v>22</v>
       </c>
       <c r="C706" s="4">
         <v>55</v>
       </c>
-      <c r="D706" s="20" t="s">
+      <c r="D706" s="19" t="s">
         <v>23</v>
       </c>
     </row>
@@ -15656,13 +15656,13 @@
       <c r="A707" s="16">
         <v>43991</v>
       </c>
-      <c r="B707" s="20" t="s">
+      <c r="B707" s="19" t="s">
         <v>22</v>
       </c>
       <c r="C707" s="4">
         <v>35</v>
       </c>
-      <c r="D707" s="20" t="s">
+      <c r="D707" s="19" t="s">
         <v>23</v>
       </c>
     </row>
@@ -15670,13 +15670,13 @@
       <c r="A708" s="16">
         <v>43991</v>
       </c>
-      <c r="B708" s="20" t="s">
+      <c r="B708" s="19" t="s">
         <v>22</v>
       </c>
       <c r="C708" s="4">
         <v>84</v>
       </c>
-      <c r="D708" s="20" t="s">
+      <c r="D708" s="19" t="s">
         <v>23</v>
       </c>
     </row>
@@ -15684,13 +15684,13 @@
       <c r="A709" s="16">
         <v>43991</v>
       </c>
-      <c r="B709" s="20" t="s">
+      <c r="B709" s="19" t="s">
         <v>29</v>
       </c>
       <c r="C709" s="4">
         <v>78</v>
       </c>
-      <c r="D709" s="20" t="s">
+      <c r="D709" s="19" t="s">
         <v>27</v>
       </c>
     </row>
@@ -15698,13 +15698,13 @@
       <c r="A710" s="16">
         <v>43991</v>
       </c>
-      <c r="B710" s="20" t="s">
+      <c r="B710" s="19" t="s">
         <v>29</v>
       </c>
       <c r="C710" s="4">
         <v>71</v>
       </c>
-      <c r="D710" s="20" t="s">
+      <c r="D710" s="19" t="s">
         <v>27</v>
       </c>
     </row>
@@ -15712,13 +15712,13 @@
       <c r="A711" s="16">
         <v>43991</v>
       </c>
-      <c r="B711" s="20" t="s">
+      <c r="B711" s="19" t="s">
         <v>29</v>
       </c>
       <c r="C711" s="4">
         <v>82</v>
       </c>
-      <c r="D711" s="20" t="s">
+      <c r="D711" s="19" t="s">
         <v>27</v>
       </c>
     </row>
@@ -15726,13 +15726,13 @@
       <c r="A712" s="16">
         <v>43991</v>
       </c>
-      <c r="B712" s="20" t="s">
+      <c r="B712" s="19" t="s">
         <v>29</v>
       </c>
       <c r="C712" s="4">
         <v>99</v>
       </c>
-      <c r="D712" s="20" t="s">
+      <c r="D712" s="19" t="s">
         <v>27</v>
       </c>
     </row>
@@ -15740,13 +15740,13 @@
       <c r="A713" s="16">
         <v>43991</v>
       </c>
-      <c r="B713" s="20" t="s">
+      <c r="B713" s="19" t="s">
         <v>29</v>
       </c>
       <c r="C713" s="4">
         <v>79</v>
       </c>
-      <c r="D713" s="20" t="s">
+      <c r="D713" s="19" t="s">
         <v>27</v>
       </c>
     </row>
@@ -15754,13 +15754,13 @@
       <c r="A714" s="16">
         <v>43991</v>
       </c>
-      <c r="B714" s="20" t="s">
+      <c r="B714" s="19" t="s">
         <v>29</v>
       </c>
       <c r="C714" s="4">
         <v>76</v>
       </c>
-      <c r="D714" s="20" t="s">
+      <c r="D714" s="19" t="s">
         <v>23</v>
       </c>
     </row>
@@ -15768,13 +15768,13 @@
       <c r="A715" s="16">
         <v>43991</v>
       </c>
-      <c r="B715" s="20" t="s">
+      <c r="B715" s="19" t="s">
         <v>29</v>
       </c>
       <c r="C715" s="4">
         <v>88</v>
       </c>
-      <c r="D715" s="20" t="s">
+      <c r="D715" s="19" t="s">
         <v>23</v>
       </c>
     </row>
@@ -15782,13 +15782,13 @@
       <c r="A716" s="16">
         <v>43991</v>
       </c>
-      <c r="B716" s="20" t="s">
+      <c r="B716" s="19" t="s">
         <v>29</v>
       </c>
       <c r="C716" s="4">
         <v>61</v>
       </c>
-      <c r="D716" s="20" t="s">
+      <c r="D716" s="19" t="s">
         <v>23</v>
       </c>
     </row>
@@ -15796,13 +15796,13 @@
       <c r="A717" s="16">
         <v>43991</v>
       </c>
-      <c r="B717" s="20" t="s">
+      <c r="B717" s="19" t="s">
         <v>29</v>
       </c>
       <c r="C717" s="4">
         <v>95</v>
       </c>
-      <c r="D717" s="20" t="s">
+      <c r="D717" s="19" t="s">
         <v>23</v>
       </c>
     </row>
@@ -15810,13 +15810,13 @@
       <c r="A718" s="16">
         <v>43991</v>
       </c>
-      <c r="B718" s="20" t="s">
+      <c r="B718" s="19" t="s">
         <v>29</v>
       </c>
       <c r="C718" s="4">
         <v>82</v>
       </c>
-      <c r="D718" s="20" t="s">
+      <c r="D718" s="19" t="s">
         <v>37</v>
       </c>
     </row>
@@ -15824,13 +15824,13 @@
       <c r="A719" s="16">
         <v>43992</v>
       </c>
-      <c r="B719" s="17" t="s">
+      <c r="B719" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="C719" s="6">
+      <c r="C719" s="4">
         <v>96</v>
       </c>
-      <c r="D719" t="s">
+      <c r="D719" s="5" t="s">
         <v>23</v>
       </c>
     </row>
@@ -15838,13 +15838,13 @@
       <c r="A720" s="16">
         <v>43992</v>
       </c>
-      <c r="B720" s="17" t="s">
+      <c r="B720" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="C720" s="6">
+      <c r="C720" s="4">
         <v>92</v>
       </c>
-      <c r="D720" t="s">
+      <c r="D720" s="5" t="s">
         <v>23</v>
       </c>
     </row>
@@ -15852,13 +15852,13 @@
       <c r="A721" s="16">
         <v>43992</v>
       </c>
-      <c r="B721" s="17" t="s">
+      <c r="B721" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="C721" s="6">
+      <c r="C721" s="4">
         <v>87</v>
       </c>
-      <c r="D721" t="s">
+      <c r="D721" s="5" t="s">
         <v>23</v>
       </c>
     </row>
@@ -15866,13 +15866,13 @@
       <c r="A722" s="16">
         <v>43992</v>
       </c>
-      <c r="B722" s="17" t="s">
+      <c r="B722" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="C722" s="6">
+      <c r="C722" s="4">
         <v>96</v>
       </c>
-      <c r="D722" t="s">
+      <c r="D722" s="5" t="s">
         <v>23</v>
       </c>
     </row>
@@ -15880,13 +15880,13 @@
       <c r="A723" s="16">
         <v>43992</v>
       </c>
-      <c r="B723" s="17" t="s">
+      <c r="B723" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="C723" s="6">
+      <c r="C723" s="4">
         <v>49</v>
       </c>
-      <c r="D723" t="s">
+      <c r="D723" s="5" t="s">
         <v>23</v>
       </c>
     </row>
@@ -15894,13 +15894,13 @@
       <c r="A724" s="16">
         <v>43992</v>
       </c>
-      <c r="B724" s="17" t="s">
+      <c r="B724" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="C724" s="6">
+      <c r="C724" s="4">
         <v>60</v>
       </c>
-      <c r="D724" t="s">
+      <c r="D724" s="5" t="s">
         <v>23</v>
       </c>
     </row>
@@ -15908,13 +15908,13 @@
       <c r="A725" s="16">
         <v>43992</v>
       </c>
-      <c r="B725" s="17" t="s">
+      <c r="B725" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="C725" s="6">
+      <c r="C725" s="4">
         <v>66</v>
       </c>
-      <c r="D725" t="s">
+      <c r="D725" s="5" t="s">
         <v>23</v>
       </c>
     </row>
@@ -15922,13 +15922,13 @@
       <c r="A726" s="16">
         <v>43992</v>
       </c>
-      <c r="B726" s="17" t="s">
+      <c r="B726" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="C726" s="6">
+      <c r="C726" s="4">
         <v>59</v>
       </c>
-      <c r="D726" t="s">
+      <c r="D726" s="5" t="s">
         <v>23</v>
       </c>
     </row>
@@ -15936,13 +15936,13 @@
       <c r="A727" s="16">
         <v>43992</v>
       </c>
-      <c r="B727" s="17" t="s">
+      <c r="B727" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="C727" s="6">
+      <c r="C727" s="4">
         <v>78</v>
       </c>
-      <c r="D727" t="s">
+      <c r="D727" s="5" t="s">
         <v>23</v>
       </c>
     </row>
@@ -15950,13 +15950,13 @@
       <c r="A728" s="16">
         <v>43992</v>
       </c>
-      <c r="B728" s="17" t="s">
+      <c r="B728" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="C728" s="6">
+      <c r="C728" s="4">
         <v>42</v>
       </c>
-      <c r="D728" t="s">
+      <c r="D728" s="5" t="s">
         <v>27</v>
       </c>
     </row>
@@ -15964,13 +15964,13 @@
       <c r="A729" s="16">
         <v>43992</v>
       </c>
-      <c r="B729" s="17" t="s">
+      <c r="B729" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="C729" s="6">
+      <c r="C729" s="4">
         <v>67</v>
       </c>
-      <c r="D729" t="s">
+      <c r="D729" s="5" t="s">
         <v>27</v>
       </c>
     </row>
@@ -15978,13 +15978,13 @@
       <c r="A730" s="16">
         <v>43992</v>
       </c>
-      <c r="B730" s="17" t="s">
+      <c r="B730" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="C730" s="6">
+      <c r="C730" s="4">
         <v>85</v>
       </c>
-      <c r="D730" t="s">
+      <c r="D730" s="5" t="s">
         <v>27</v>
       </c>
     </row>
@@ -15992,13 +15992,13 @@
       <c r="A731" s="16">
         <v>43992</v>
       </c>
-      <c r="B731" s="17" t="s">
+      <c r="B731" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="C731" s="6">
+      <c r="C731" s="4">
         <v>86</v>
       </c>
-      <c r="D731" t="s">
+      <c r="D731" s="5" t="s">
         <v>27</v>
       </c>
     </row>
@@ -16006,13 +16006,13 @@
       <c r="A732" s="16">
         <v>43992</v>
       </c>
-      <c r="B732" s="17" t="s">
+      <c r="B732" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="C732" s="6">
+      <c r="C732" s="4">
         <v>76</v>
       </c>
-      <c r="D732" t="s">
+      <c r="D732" s="5" t="s">
         <v>27</v>
       </c>
     </row>
@@ -16020,27 +16020,27 @@
       <c r="A733" s="16">
         <v>43992</v>
       </c>
-      <c r="B733" s="17" t="s">
+      <c r="B733" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="C733" s="6">
+      <c r="C733" s="4">
         <v>78</v>
       </c>
-      <c r="D733" t="s">
+      <c r="D733" s="5" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="734" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A734" s="21">
+      <c r="A734" s="20">
         <v>43992</v>
       </c>
       <c r="B734" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="C734" s="15">
+      <c r="C734" s="23">
         <v>7</v>
       </c>
-      <c r="D734" t="s">
+      <c r="D734" s="5" t="s">
         <v>27</v>
       </c>
     </row>
@@ -16048,13 +16048,13 @@
       <c r="A735" s="16">
         <v>43992</v>
       </c>
-      <c r="B735" s="17" t="s">
+      <c r="B735" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="C735" s="6">
+      <c r="C735" s="4">
         <v>65</v>
       </c>
-      <c r="D735" t="s">
+      <c r="D735" s="5" t="s">
         <v>23</v>
       </c>
     </row>
@@ -16062,18 +16062,102 @@
       <c r="A736" s="16">
         <v>43992</v>
       </c>
-      <c r="B736" s="17" t="s">
+      <c r="B736" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="C736" s="6">
+      <c r="C736" s="4">
         <v>62</v>
       </c>
-      <c r="D736" t="s">
+      <c r="D736" s="5" t="s">
         <v>23</v>
       </c>
     </row>
+    <row r="737" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A737" s="16">
+        <v>43993</v>
+      </c>
+      <c r="B737" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="C737" s="4">
+        <v>63</v>
+      </c>
+      <c r="D737" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="738" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A738" s="16">
+        <v>43993</v>
+      </c>
+      <c r="B738" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="C738" s="4">
+        <v>76</v>
+      </c>
+      <c r="D738" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="739" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A739" s="16">
+        <v>43993</v>
+      </c>
+      <c r="B739" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="C739" s="4">
+        <v>47</v>
+      </c>
+      <c r="D739" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="740" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A740" s="16">
+        <v>43993</v>
+      </c>
+      <c r="B740" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="C740" s="4">
+        <v>67</v>
+      </c>
+      <c r="D740" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="741" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A741" s="16">
+        <v>43993</v>
+      </c>
+      <c r="B741" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="C741" s="4">
+        <v>91</v>
+      </c>
+      <c r="D741" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="742" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A742" s="16">
+        <v>43993</v>
+      </c>
+      <c r="B742" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="C742" s="4">
+        <v>49</v>
+      </c>
+      <c r="D742" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:F736" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:F742" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -16082,8 +16166,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A57CA6F3-BC06-4B65-9752-C1012701CA2A}">
   <dimension ref="A1:H2346"/>
   <sheetViews>
-    <sheetView topLeftCell="A2337" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C2345" sqref="C2345"/>
+    <sheetView topLeftCell="A2233" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C2337" sqref="C2337"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -48345,6 +48429,9 @@
       <c r="C2323" s="6">
         <v>621</v>
       </c>
+      <c r="D2323" s="6">
+        <v>10211</v>
+      </c>
     </row>
     <row r="2324" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2324" t="s">
@@ -48356,6 +48443,9 @@
       <c r="C2324" s="6">
         <v>521</v>
       </c>
+      <c r="D2324" s="6">
+        <v>12487</v>
+      </c>
     </row>
     <row r="2325" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2325" t="s">
@@ -48367,6 +48457,9 @@
       <c r="C2325" s="6">
         <v>0</v>
       </c>
+      <c r="D2325" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="2326" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2326" t="s">
@@ -48378,6 +48471,9 @@
       <c r="C2326" s="6">
         <v>45</v>
       </c>
+      <c r="D2326" s="6">
+        <v>1163</v>
+      </c>
     </row>
     <row r="2327" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2327" t="s">
@@ -48389,6 +48485,9 @@
       <c r="C2327" s="6">
         <v>0</v>
       </c>
+      <c r="D2327" s="6">
+        <v>26</v>
+      </c>
     </row>
     <row r="2328" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2328" t="s">
@@ -48400,6 +48499,9 @@
       <c r="C2328" s="6">
         <v>5</v>
       </c>
+      <c r="D2328" s="6">
+        <v>571</v>
+      </c>
     </row>
     <row r="2329" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2329" t="s">
@@ -48411,6 +48513,9 @@
       <c r="C2329" s="6">
         <v>0</v>
       </c>
+      <c r="D2329" s="6">
+        <v>97</v>
+      </c>
     </row>
     <row r="2330" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2330" t="s">
@@ -48422,6 +48527,9 @@
       <c r="C2330" s="6">
         <v>4</v>
       </c>
+      <c r="D2330" s="6">
+        <v>59</v>
+      </c>
     </row>
     <row r="2331" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2331" t="s">
@@ -48433,6 +48541,9 @@
       <c r="C2331" s="6">
         <v>0</v>
       </c>
+      <c r="D2331" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="2332" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2332" t="s">
@@ -48444,6 +48555,9 @@
       <c r="C2332" s="6">
         <v>0</v>
       </c>
+      <c r="D2332" s="6">
+        <v>8</v>
+      </c>
     </row>
     <row r="2333" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2333" t="s">
@@ -48455,6 +48569,9 @@
       <c r="C2333" s="6">
         <v>0</v>
       </c>
+      <c r="D2333" s="6">
+        <v>5</v>
+      </c>
     </row>
     <row r="2334" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2334" t="s">
@@ -48466,6 +48583,9 @@
       <c r="C2334" s="6">
         <v>0</v>
       </c>
+      <c r="D2334" s="6">
+        <v>64</v>
+      </c>
     </row>
     <row r="2335" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2335" t="s">
@@ -48477,6 +48597,9 @@
       <c r="C2335" s="6">
         <v>0</v>
       </c>
+      <c r="D2335" s="6">
+        <v>102</v>
+      </c>
     </row>
     <row r="2336" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2336" t="s">
@@ -48488,8 +48611,11 @@
       <c r="C2336" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="2337" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2336" s="6">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2337" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2337" t="s">
         <v>40</v>
       </c>
@@ -48499,8 +48625,11 @@
       <c r="C2337" s="6">
         <v>10</v>
       </c>
-    </row>
-    <row r="2338" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2337" s="6">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="2338" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2338" t="s">
         <v>37</v>
       </c>
@@ -48510,8 +48639,11 @@
       <c r="C2338" s="6">
         <v>12</v>
       </c>
-    </row>
-    <row r="2339" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2338" s="6">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="2339" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2339" t="s">
         <v>61</v>
       </c>
@@ -48521,8 +48653,11 @@
       <c r="C2339" s="6">
         <v>3</v>
       </c>
-    </row>
-    <row r="2340" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2339" s="6">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2340" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2340" t="s">
         <v>62</v>
       </c>
@@ -48532,8 +48667,11 @@
       <c r="C2340" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="2341" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2340" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2341" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2341" t="s">
         <v>63</v>
       </c>
@@ -48543,8 +48681,11 @@
       <c r="C2341" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="2342" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2341" s="6">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2342" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2342" t="s">
         <v>64</v>
       </c>
@@ -48554,8 +48695,11 @@
       <c r="C2342" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="2343" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2342" s="6">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2343" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2343" t="s">
         <v>44</v>
       </c>
@@ -48565,8 +48709,11 @@
       <c r="C2343" s="6">
         <v>4</v>
       </c>
-    </row>
-    <row r="2344" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2343" s="6">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="2344" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2344" t="s">
         <v>65</v>
       </c>
@@ -48576,8 +48723,11 @@
       <c r="C2344" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="2345" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2344" s="6">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2345" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2345" t="s">
         <v>66</v>
       </c>
@@ -48587,8 +48737,11 @@
       <c r="C2345" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="2346" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2345" s="6">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="2346" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2346" t="s">
         <v>67</v>
       </c>
@@ -48597,6 +48750,9 @@
       </c>
       <c r="C2346" s="6">
         <v>0</v>
+      </c>
+      <c r="D2346" s="6">
+        <v>48</v>
       </c>
     </row>
   </sheetData>

--- a/data/argentina.xlsx
+++ b/data/argentina.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\COVID\covid19Page\covid\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09024E8E-3E48-422E-BDFC-52BCD212386A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49DA9C47-CDE2-4754-9735-59AE85392528}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{FD99AC7E-67B3-424D-874D-40A6E057BF54}"/>
+    <workbookView xWindow="12900" yWindow="180" windowWidth="8310" windowHeight="10515" firstSheet="2" activeTab="2" xr2:uid="{FD99AC7E-67B3-424D-874D-40A6E057BF54}"/>
   </bookViews>
   <sheets>
     <sheet name="argentina_gral" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">argentina_fallecidos!$A$1:$F$742</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">argentina_gral!$A$1:$Q$86</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">casos_provincias!$A$1:$H$2082</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">casos_provincias!$A$1:$H$2346</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3886" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4022" uniqueCount="81">
   <si>
     <t>D¡a</t>
   </si>
@@ -324,7 +324,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -364,10 +364,34 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -378,7 +402,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -428,14 +452,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -752,11 +788,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D48F336C-A519-44F7-9544-8D5A56C7FEE1}">
-  <dimension ref="A1:Q102"/>
+  <dimension ref="A1:Q103"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A91" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K101" sqref="K101"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A95" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F103" sqref="F103:G103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5551,7 +5587,7 @@
       <c r="F99" s="1">
         <v>7568</v>
       </c>
-      <c r="G99" s="21">
+      <c r="G99" s="23">
         <v>265</v>
       </c>
       <c r="H99" s="4">
@@ -5603,7 +5639,7 @@
       <c r="F100" s="1">
         <v>7991</v>
       </c>
-      <c r="G100" s="21">
+      <c r="G100" s="23">
         <v>263</v>
       </c>
       <c r="H100" s="4">
@@ -5665,7 +5701,12 @@
       <c r="I101" s="4">
         <v>214807</v>
       </c>
-      <c r="J101" s="4"/>
+      <c r="J101" s="4">
+        <v>757</v>
+      </c>
+      <c r="K101" s="4">
+        <v>150755</v>
+      </c>
       <c r="L101" s="4">
         <v>151512</v>
       </c>
@@ -5683,23 +5724,82 @@
         <v>4386</v>
       </c>
     </row>
-    <row r="102" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A102" s="5"/>
-      <c r="B102" s="5"/>
-      <c r="C102" s="5"/>
-      <c r="D102" s="5"/>
-      <c r="E102" s="5"/>
-      <c r="F102" s="5"/>
-      <c r="G102" s="5"/>
-      <c r="H102" s="4"/>
-      <c r="I102" s="4"/>
-      <c r="J102" s="4"/>
-      <c r="K102" s="4"/>
-      <c r="L102" s="4"/>
-      <c r="M102" s="5"/>
-      <c r="N102" s="5"/>
-      <c r="O102" s="5"/>
-      <c r="P102" s="5"/>
+    <row r="102" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="2">
+        <v>43993</v>
+      </c>
+      <c r="B102" s="17">
+        <v>1386</v>
+      </c>
+      <c r="C102" s="4">
+        <v>27373</v>
+      </c>
+      <c r="D102" s="4">
+        <f>6+24</f>
+        <v>30</v>
+      </c>
+      <c r="E102" s="18">
+        <f>E101+D102</f>
+        <v>765</v>
+      </c>
+      <c r="F102" s="1">
+        <v>8743</v>
+      </c>
+      <c r="G102" s="1">
+        <v>295</v>
+      </c>
+      <c r="H102" s="4">
+        <v>6498</v>
+      </c>
+      <c r="I102" s="4">
+        <v>221305</v>
+      </c>
+      <c r="J102" s="4">
+        <v>777</v>
+      </c>
+      <c r="K102" s="4">
+        <v>154725</v>
+      </c>
+      <c r="L102" s="4">
+        <f>K102+J102</f>
+        <v>155502</v>
+      </c>
+      <c r="M102" s="4">
+        <v>999</v>
+      </c>
+      <c r="N102" s="4">
+        <v>11091</v>
+      </c>
+      <c r="O102" s="4">
+        <v>10542</v>
+      </c>
+      <c r="P102" s="4">
+        <v>4741</v>
+      </c>
+    </row>
+    <row r="103" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="27">
+        <v>43994</v>
+      </c>
+      <c r="B103" s="19">
+        <v>1391</v>
+      </c>
+      <c r="C103" s="6">
+        <f>C102+B103</f>
+        <v>28764</v>
+      </c>
+      <c r="D103" s="6">
+        <v>20</v>
+      </c>
+      <c r="E103" s="20">
+        <v>785</v>
+      </c>
+      <c r="F103" s="1">
+        <v>8743</v>
+      </c>
+      <c r="G103" s="1">
+        <v>295</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:Q86" xr:uid="{F1784F29-C3FA-4C1F-AFF4-1C4499D0A37D}"/>
@@ -5710,10 +5810,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C255934D-2CD9-446F-A5BE-CB7D14454E2D}">
-  <dimension ref="A1:F742"/>
+  <dimension ref="A1:F786"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView topLeftCell="A767" workbookViewId="0">
+      <selection activeCell="D786" sqref="A772:D786"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6116,7 +6216,7 @@
       <c r="C25" s="4">
         <v>50</v>
       </c>
-      <c r="D25" s="19" t="s">
+      <c r="D25" s="21" t="s">
         <v>67</v>
       </c>
     </row>
@@ -6130,7 +6230,7 @@
       <c r="C26" s="4">
         <v>77</v>
       </c>
-      <c r="D26" s="19" t="s">
+      <c r="D26" s="21" t="s">
         <v>67</v>
       </c>
       <c r="E26" t="s">
@@ -6693,7 +6793,7 @@
       <c r="C66" s="4">
         <v>61</v>
       </c>
-      <c r="D66" s="19" t="s">
+      <c r="D66" s="21" t="s">
         <v>67</v>
       </c>
     </row>
@@ -9548,7 +9648,7 @@
         <v>22</v>
       </c>
       <c r="C270" s="4"/>
-      <c r="D270" s="19" t="s">
+      <c r="D270" s="21" t="s">
         <v>67</v>
       </c>
     </row>
@@ -15104,7 +15204,7 @@
       <c r="C667" s="4">
         <v>90</v>
       </c>
-      <c r="D667" s="19" t="s">
+      <c r="D667" s="21" t="s">
         <v>27</v>
       </c>
     </row>
@@ -15118,7 +15218,7 @@
       <c r="C668" s="4">
         <v>96</v>
       </c>
-      <c r="D668" s="19" t="s">
+      <c r="D668" s="21" t="s">
         <v>27</v>
       </c>
     </row>
@@ -15132,7 +15232,7 @@
       <c r="C669" s="4">
         <v>89</v>
       </c>
-      <c r="D669" s="19" t="s">
+      <c r="D669" s="21" t="s">
         <v>27</v>
       </c>
     </row>
@@ -15146,7 +15246,7 @@
       <c r="C670" s="4">
         <v>58</v>
       </c>
-      <c r="D670" s="19" t="s">
+      <c r="D670" s="21" t="s">
         <v>27</v>
       </c>
     </row>
@@ -15154,13 +15254,13 @@
       <c r="A671" s="16">
         <v>43990</v>
       </c>
-      <c r="B671" s="19" t="s">
+      <c r="B671" s="21" t="s">
         <v>22</v>
       </c>
       <c r="C671" s="4">
         <v>71</v>
       </c>
-      <c r="D671" s="19" t="s">
+      <c r="D671" s="21" t="s">
         <v>23</v>
       </c>
     </row>
@@ -15168,13 +15268,13 @@
       <c r="A672" s="16">
         <v>43990</v>
       </c>
-      <c r="B672" s="19" t="s">
+      <c r="B672" s="21" t="s">
         <v>22</v>
       </c>
       <c r="C672" s="4">
         <v>59</v>
       </c>
-      <c r="D672" s="19" t="s">
+      <c r="D672" s="21" t="s">
         <v>27</v>
       </c>
     </row>
@@ -15182,13 +15282,13 @@
       <c r="A673" s="16">
         <v>43990</v>
       </c>
-      <c r="B673" s="19" t="s">
+      <c r="B673" s="21" t="s">
         <v>22</v>
       </c>
       <c r="C673" s="4">
         <v>78</v>
       </c>
-      <c r="D673" s="19" t="s">
+      <c r="D673" s="21" t="s">
         <v>27</v>
       </c>
     </row>
@@ -15196,13 +15296,13 @@
       <c r="A674" s="16">
         <v>43990</v>
       </c>
-      <c r="B674" s="19" t="s">
+      <c r="B674" s="21" t="s">
         <v>22</v>
       </c>
       <c r="C674" s="4">
         <v>40</v>
       </c>
-      <c r="D674" s="19" t="s">
+      <c r="D674" s="21" t="s">
         <v>27</v>
       </c>
     </row>
@@ -15210,13 +15310,13 @@
       <c r="A675" s="16">
         <v>43990</v>
       </c>
-      <c r="B675" s="19" t="s">
+      <c r="B675" s="21" t="s">
         <v>22</v>
       </c>
       <c r="C675" s="4">
         <v>77</v>
       </c>
-      <c r="D675" s="19" t="s">
+      <c r="D675" s="21" t="s">
         <v>27</v>
       </c>
     </row>
@@ -15224,13 +15324,13 @@
       <c r="A676" s="16">
         <v>43990</v>
       </c>
-      <c r="B676" s="19" t="s">
+      <c r="B676" s="21" t="s">
         <v>22</v>
       </c>
       <c r="C676" s="4">
         <v>42</v>
       </c>
-      <c r="D676" s="19" t="s">
+      <c r="D676" s="21" t="s">
         <v>27</v>
       </c>
     </row>
@@ -15238,13 +15338,13 @@
       <c r="A677" s="16">
         <v>43990</v>
       </c>
-      <c r="B677" s="19" t="s">
+      <c r="B677" s="21" t="s">
         <v>22</v>
       </c>
       <c r="C677" s="4">
         <v>74</v>
       </c>
-      <c r="D677" s="19" t="s">
+      <c r="D677" s="21" t="s">
         <v>27</v>
       </c>
     </row>
@@ -15252,13 +15352,13 @@
       <c r="A678" s="16">
         <v>43990</v>
       </c>
-      <c r="B678" s="19" t="s">
+      <c r="B678" s="21" t="s">
         <v>22</v>
       </c>
       <c r="C678" s="4">
         <v>77</v>
       </c>
-      <c r="D678" s="19" t="s">
+      <c r="D678" s="21" t="s">
         <v>27</v>
       </c>
     </row>
@@ -15266,13 +15366,13 @@
       <c r="A679" s="16">
         <v>43990</v>
       </c>
-      <c r="B679" s="19" t="s">
+      <c r="B679" s="21" t="s">
         <v>22</v>
       </c>
       <c r="C679" s="4">
         <v>74</v>
       </c>
-      <c r="D679" s="19" t="s">
+      <c r="D679" s="21" t="s">
         <v>27</v>
       </c>
     </row>
@@ -15280,13 +15380,13 @@
       <c r="A680" s="16">
         <v>43990</v>
       </c>
-      <c r="B680" s="19" t="s">
+      <c r="B680" s="21" t="s">
         <v>22</v>
       </c>
       <c r="C680" s="4">
         <v>86</v>
       </c>
-      <c r="D680" s="19" t="s">
+      <c r="D680" s="21" t="s">
         <v>23</v>
       </c>
     </row>
@@ -15294,13 +15394,13 @@
       <c r="A681" s="16">
         <v>43990</v>
       </c>
-      <c r="B681" s="19" t="s">
+      <c r="B681" s="21" t="s">
         <v>22</v>
       </c>
       <c r="C681" s="4">
         <v>66</v>
       </c>
-      <c r="D681" s="19" t="s">
+      <c r="D681" s="21" t="s">
         <v>23</v>
       </c>
     </row>
@@ -15308,13 +15408,13 @@
       <c r="A682" s="16">
         <v>43990</v>
       </c>
-      <c r="B682" s="19" t="s">
+      <c r="B682" s="21" t="s">
         <v>22</v>
       </c>
       <c r="C682" s="4">
         <v>62</v>
       </c>
-      <c r="D682" s="19" t="s">
+      <c r="D682" s="21" t="s">
         <v>23</v>
       </c>
     </row>
@@ -15322,13 +15422,13 @@
       <c r="A683" s="16">
         <v>43990</v>
       </c>
-      <c r="B683" s="19" t="s">
+      <c r="B683" s="21" t="s">
         <v>22</v>
       </c>
       <c r="C683" s="4">
         <v>58</v>
       </c>
-      <c r="D683" s="19" t="s">
+      <c r="D683" s="21" t="s">
         <v>25</v>
       </c>
     </row>
@@ -15336,11 +15436,11 @@
       <c r="A684" s="16">
         <v>43990</v>
       </c>
-      <c r="B684" s="19" t="s">
+      <c r="B684" s="21" t="s">
         <v>22</v>
       </c>
       <c r="C684" s="4"/>
-      <c r="D684" s="19" t="s">
+      <c r="D684" s="21" t="s">
         <v>67</v>
       </c>
     </row>
@@ -15348,13 +15448,13 @@
       <c r="A685" s="16">
         <v>43990</v>
       </c>
-      <c r="B685" s="19" t="s">
+      <c r="B685" s="21" t="s">
         <v>22</v>
       </c>
       <c r="C685" s="4">
         <v>58</v>
       </c>
-      <c r="D685" s="19" t="s">
+      <c r="D685" s="21" t="s">
         <v>37</v>
       </c>
     </row>
@@ -15362,13 +15462,13 @@
       <c r="A686" s="16">
         <v>43990</v>
       </c>
-      <c r="B686" s="19" t="s">
+      <c r="B686" s="21" t="s">
         <v>29</v>
       </c>
       <c r="C686" s="4">
         <v>62</v>
       </c>
-      <c r="D686" s="19" t="s">
+      <c r="D686" s="21" t="s">
         <v>27</v>
       </c>
     </row>
@@ -15376,13 +15476,13 @@
       <c r="A687" s="16">
         <v>43990</v>
       </c>
-      <c r="B687" s="19" t="s">
+      <c r="B687" s="21" t="s">
         <v>29</v>
       </c>
       <c r="C687" s="4">
         <v>77</v>
       </c>
-      <c r="D687" s="19" t="s">
+      <c r="D687" s="21" t="s">
         <v>27</v>
       </c>
     </row>
@@ -15390,13 +15490,13 @@
       <c r="A688" s="16">
         <v>43990</v>
       </c>
-      <c r="B688" s="19" t="s">
+      <c r="B688" s="21" t="s">
         <v>29</v>
       </c>
       <c r="C688" s="4">
         <v>80</v>
       </c>
-      <c r="D688" s="19" t="s">
+      <c r="D688" s="21" t="s">
         <v>27</v>
       </c>
     </row>
@@ -15404,13 +15504,13 @@
       <c r="A689" s="16">
         <v>43990</v>
       </c>
-      <c r="B689" s="19" t="s">
+      <c r="B689" s="21" t="s">
         <v>29</v>
       </c>
       <c r="C689" s="4">
         <v>76</v>
       </c>
-      <c r="D689" s="19" t="s">
+      <c r="D689" s="21" t="s">
         <v>23</v>
       </c>
     </row>
@@ -15418,13 +15518,13 @@
       <c r="A690" s="16">
         <v>43990</v>
       </c>
-      <c r="B690" s="19" t="s">
+      <c r="B690" s="21" t="s">
         <v>29</v>
       </c>
       <c r="C690" s="4">
         <v>77</v>
       </c>
-      <c r="D690" s="19" t="s">
+      <c r="D690" s="21" t="s">
         <v>23</v>
       </c>
     </row>
@@ -15432,13 +15532,13 @@
       <c r="A691" s="16">
         <v>43990</v>
       </c>
-      <c r="B691" s="19" t="s">
+      <c r="B691" s="21" t="s">
         <v>29</v>
       </c>
       <c r="C691" s="4">
         <v>86</v>
       </c>
-      <c r="D691" s="19" t="s">
+      <c r="D691" s="21" t="s">
         <v>23</v>
       </c>
     </row>
@@ -15446,13 +15546,13 @@
       <c r="A692" s="16">
         <v>43990</v>
       </c>
-      <c r="B692" s="19" t="s">
+      <c r="B692" s="21" t="s">
         <v>29</v>
       </c>
       <c r="C692" s="4">
         <v>76</v>
       </c>
-      <c r="D692" s="19" t="s">
+      <c r="D692" s="21" t="s">
         <v>23</v>
       </c>
     </row>
@@ -15460,13 +15560,13 @@
       <c r="A693" s="16">
         <v>43990</v>
       </c>
-      <c r="B693" s="19" t="s">
+      <c r="B693" s="21" t="s">
         <v>29</v>
       </c>
       <c r="C693" s="4">
         <v>88</v>
       </c>
-      <c r="D693" s="19" t="s">
+      <c r="D693" s="21" t="s">
         <v>23</v>
       </c>
     </row>
@@ -15474,13 +15574,13 @@
       <c r="A694" s="16">
         <v>43990</v>
       </c>
-      <c r="B694" s="19" t="s">
+      <c r="B694" s="21" t="s">
         <v>29</v>
       </c>
       <c r="C694" s="4">
         <v>82</v>
       </c>
-      <c r="D694" s="19" t="s">
+      <c r="D694" s="21" t="s">
         <v>37</v>
       </c>
     </row>
@@ -15488,13 +15588,13 @@
       <c r="A695" s="16">
         <v>43991</v>
       </c>
-      <c r="B695" s="19" t="s">
+      <c r="B695" s="21" t="s">
         <v>29</v>
       </c>
       <c r="C695" s="4">
         <v>88</v>
       </c>
-      <c r="D695" s="19" t="s">
+      <c r="D695" s="21" t="s">
         <v>27</v>
       </c>
     </row>
@@ -15502,13 +15602,13 @@
       <c r="A696" s="16">
         <v>43991</v>
       </c>
-      <c r="B696" s="19" t="s">
+      <c r="B696" s="21" t="s">
         <v>22</v>
       </c>
       <c r="C696" s="4">
         <v>62</v>
       </c>
-      <c r="D696" s="19" t="s">
+      <c r="D696" s="21" t="s">
         <v>23</v>
       </c>
     </row>
@@ -15516,13 +15616,13 @@
       <c r="A697" s="16">
         <v>43991</v>
       </c>
-      <c r="B697" s="19" t="s">
+      <c r="B697" s="21" t="s">
         <v>22</v>
       </c>
       <c r="C697" s="4">
         <v>88</v>
       </c>
-      <c r="D697" s="19" t="s">
+      <c r="D697" s="21" t="s">
         <v>27</v>
       </c>
     </row>
@@ -15530,13 +15630,13 @@
       <c r="A698" s="16">
         <v>43991</v>
       </c>
-      <c r="B698" s="19" t="s">
+      <c r="B698" s="21" t="s">
         <v>22</v>
       </c>
       <c r="C698" s="4">
         <v>82</v>
       </c>
-      <c r="D698" s="19" t="s">
+      <c r="D698" s="21" t="s">
         <v>25</v>
       </c>
     </row>
@@ -15544,13 +15644,13 @@
       <c r="A699" s="16">
         <v>43991</v>
       </c>
-      <c r="B699" s="19" t="s">
+      <c r="B699" s="21" t="s">
         <v>22</v>
       </c>
       <c r="C699" s="4">
         <v>56</v>
       </c>
-      <c r="D699" s="19" t="s">
+      <c r="D699" s="21" t="s">
         <v>25</v>
       </c>
     </row>
@@ -15558,13 +15658,13 @@
       <c r="A700" s="16">
         <v>43991</v>
       </c>
-      <c r="B700" s="19" t="s">
+      <c r="B700" s="21" t="s">
         <v>22</v>
       </c>
       <c r="C700" s="4">
         <v>68</v>
       </c>
-      <c r="D700" s="19" t="s">
+      <c r="D700" s="21" t="s">
         <v>27</v>
       </c>
     </row>
@@ -15572,13 +15672,13 @@
       <c r="A701" s="16">
         <v>43991</v>
       </c>
-      <c r="B701" s="19" t="s">
+      <c r="B701" s="21" t="s">
         <v>22</v>
       </c>
       <c r="C701" s="4">
         <v>49</v>
       </c>
-      <c r="D701" s="19" t="s">
+      <c r="D701" s="21" t="s">
         <v>27</v>
       </c>
     </row>
@@ -15586,13 +15686,13 @@
       <c r="A702" s="16">
         <v>43991</v>
       </c>
-      <c r="B702" s="19" t="s">
+      <c r="B702" s="21" t="s">
         <v>22</v>
       </c>
       <c r="C702" s="4">
         <v>73</v>
       </c>
-      <c r="D702" s="19" t="s">
+      <c r="D702" s="21" t="s">
         <v>27</v>
       </c>
     </row>
@@ -15600,13 +15700,13 @@
       <c r="A703" s="16">
         <v>43991</v>
       </c>
-      <c r="B703" s="19" t="s">
+      <c r="B703" s="21" t="s">
         <v>22</v>
       </c>
       <c r="C703" s="4">
         <v>72</v>
       </c>
-      <c r="D703" s="19" t="s">
+      <c r="D703" s="21" t="s">
         <v>27</v>
       </c>
     </row>
@@ -15614,13 +15714,13 @@
       <c r="A704" s="16">
         <v>43991</v>
       </c>
-      <c r="B704" s="19" t="s">
+      <c r="B704" s="21" t="s">
         <v>22</v>
       </c>
       <c r="C704" s="4">
         <v>29</v>
       </c>
-      <c r="D704" s="19" t="s">
+      <c r="D704" s="21" t="s">
         <v>27</v>
       </c>
     </row>
@@ -15628,13 +15728,13 @@
       <c r="A705" s="16">
         <v>43991</v>
       </c>
-      <c r="B705" s="19" t="s">
+      <c r="B705" s="21" t="s">
         <v>22</v>
       </c>
       <c r="C705" s="4">
         <v>77</v>
       </c>
-      <c r="D705" s="19" t="s">
+      <c r="D705" s="21" t="s">
         <v>27</v>
       </c>
     </row>
@@ -15642,13 +15742,13 @@
       <c r="A706" s="16">
         <v>43991</v>
       </c>
-      <c r="B706" s="19" t="s">
+      <c r="B706" s="21" t="s">
         <v>22</v>
       </c>
       <c r="C706" s="4">
         <v>55</v>
       </c>
-      <c r="D706" s="19" t="s">
+      <c r="D706" s="21" t="s">
         <v>23</v>
       </c>
     </row>
@@ -15656,13 +15756,13 @@
       <c r="A707" s="16">
         <v>43991</v>
       </c>
-      <c r="B707" s="19" t="s">
+      <c r="B707" s="21" t="s">
         <v>22</v>
       </c>
       <c r="C707" s="4">
         <v>35</v>
       </c>
-      <c r="D707" s="19" t="s">
+      <c r="D707" s="21" t="s">
         <v>23</v>
       </c>
     </row>
@@ -15670,13 +15770,13 @@
       <c r="A708" s="16">
         <v>43991</v>
       </c>
-      <c r="B708" s="19" t="s">
+      <c r="B708" s="21" t="s">
         <v>22</v>
       </c>
       <c r="C708" s="4">
         <v>84</v>
       </c>
-      <c r="D708" s="19" t="s">
+      <c r="D708" s="21" t="s">
         <v>23</v>
       </c>
     </row>
@@ -15684,13 +15784,13 @@
       <c r="A709" s="16">
         <v>43991</v>
       </c>
-      <c r="B709" s="19" t="s">
+      <c r="B709" s="21" t="s">
         <v>29</v>
       </c>
       <c r="C709" s="4">
         <v>78</v>
       </c>
-      <c r="D709" s="19" t="s">
+      <c r="D709" s="21" t="s">
         <v>27</v>
       </c>
     </row>
@@ -15698,13 +15798,13 @@
       <c r="A710" s="16">
         <v>43991</v>
       </c>
-      <c r="B710" s="19" t="s">
+      <c r="B710" s="21" t="s">
         <v>29</v>
       </c>
       <c r="C710" s="4">
         <v>71</v>
       </c>
-      <c r="D710" s="19" t="s">
+      <c r="D710" s="21" t="s">
         <v>27</v>
       </c>
     </row>
@@ -15712,13 +15812,13 @@
       <c r="A711" s="16">
         <v>43991</v>
       </c>
-      <c r="B711" s="19" t="s">
+      <c r="B711" s="21" t="s">
         <v>29</v>
       </c>
       <c r="C711" s="4">
         <v>82</v>
       </c>
-      <c r="D711" s="19" t="s">
+      <c r="D711" s="21" t="s">
         <v>27</v>
       </c>
     </row>
@@ -15726,13 +15826,13 @@
       <c r="A712" s="16">
         <v>43991</v>
       </c>
-      <c r="B712" s="19" t="s">
+      <c r="B712" s="21" t="s">
         <v>29</v>
       </c>
       <c r="C712" s="4">
         <v>99</v>
       </c>
-      <c r="D712" s="19" t="s">
+      <c r="D712" s="21" t="s">
         <v>27</v>
       </c>
     </row>
@@ -15740,13 +15840,13 @@
       <c r="A713" s="16">
         <v>43991</v>
       </c>
-      <c r="B713" s="19" t="s">
+      <c r="B713" s="21" t="s">
         <v>29</v>
       </c>
       <c r="C713" s="4">
         <v>79</v>
       </c>
-      <c r="D713" s="19" t="s">
+      <c r="D713" s="21" t="s">
         <v>27</v>
       </c>
     </row>
@@ -15754,13 +15854,13 @@
       <c r="A714" s="16">
         <v>43991</v>
       </c>
-      <c r="B714" s="19" t="s">
+      <c r="B714" s="21" t="s">
         <v>29</v>
       </c>
       <c r="C714" s="4">
         <v>76</v>
       </c>
-      <c r="D714" s="19" t="s">
+      <c r="D714" s="21" t="s">
         <v>23</v>
       </c>
     </row>
@@ -15768,13 +15868,13 @@
       <c r="A715" s="16">
         <v>43991</v>
       </c>
-      <c r="B715" s="19" t="s">
+      <c r="B715" s="21" t="s">
         <v>29</v>
       </c>
       <c r="C715" s="4">
         <v>88</v>
       </c>
-      <c r="D715" s="19" t="s">
+      <c r="D715" s="21" t="s">
         <v>23</v>
       </c>
     </row>
@@ -15782,13 +15882,13 @@
       <c r="A716" s="16">
         <v>43991</v>
       </c>
-      <c r="B716" s="19" t="s">
+      <c r="B716" s="21" t="s">
         <v>29</v>
       </c>
       <c r="C716" s="4">
         <v>61</v>
       </c>
-      <c r="D716" s="19" t="s">
+      <c r="D716" s="21" t="s">
         <v>23</v>
       </c>
     </row>
@@ -15796,13 +15896,13 @@
       <c r="A717" s="16">
         <v>43991</v>
       </c>
-      <c r="B717" s="19" t="s">
+      <c r="B717" s="21" t="s">
         <v>29</v>
       </c>
       <c r="C717" s="4">
         <v>95</v>
       </c>
-      <c r="D717" s="19" t="s">
+      <c r="D717" s="21" t="s">
         <v>23</v>
       </c>
     </row>
@@ -15810,13 +15910,13 @@
       <c r="A718" s="16">
         <v>43991</v>
       </c>
-      <c r="B718" s="19" t="s">
+      <c r="B718" s="21" t="s">
         <v>29</v>
       </c>
       <c r="C718" s="4">
         <v>82</v>
       </c>
-      <c r="D718" s="19" t="s">
+      <c r="D718" s="21" t="s">
         <v>37</v>
       </c>
     </row>
@@ -15824,7 +15924,7 @@
       <c r="A719" s="16">
         <v>43992</v>
       </c>
-      <c r="B719" s="19" t="s">
+      <c r="B719" s="21" t="s">
         <v>22</v>
       </c>
       <c r="C719" s="4">
@@ -15838,7 +15938,7 @@
       <c r="A720" s="16">
         <v>43992</v>
       </c>
-      <c r="B720" s="19" t="s">
+      <c r="B720" s="21" t="s">
         <v>22</v>
       </c>
       <c r="C720" s="4">
@@ -15852,7 +15952,7 @@
       <c r="A721" s="16">
         <v>43992</v>
       </c>
-      <c r="B721" s="19" t="s">
+      <c r="B721" s="21" t="s">
         <v>22</v>
       </c>
       <c r="C721" s="4">
@@ -15866,7 +15966,7 @@
       <c r="A722" s="16">
         <v>43992</v>
       </c>
-      <c r="B722" s="19" t="s">
+      <c r="B722" s="21" t="s">
         <v>22</v>
       </c>
       <c r="C722" s="4">
@@ -15880,7 +15980,7 @@
       <c r="A723" s="16">
         <v>43992</v>
       </c>
-      <c r="B723" s="19" t="s">
+      <c r="B723" s="21" t="s">
         <v>22</v>
       </c>
       <c r="C723" s="4">
@@ -15894,7 +15994,7 @@
       <c r="A724" s="16">
         <v>43992</v>
       </c>
-      <c r="B724" s="19" t="s">
+      <c r="B724" s="21" t="s">
         <v>22</v>
       </c>
       <c r="C724" s="4">
@@ -15908,7 +16008,7 @@
       <c r="A725" s="16">
         <v>43992</v>
       </c>
-      <c r="B725" s="19" t="s">
+      <c r="B725" s="21" t="s">
         <v>22</v>
       </c>
       <c r="C725" s="4">
@@ -15922,7 +16022,7 @@
       <c r="A726" s="16">
         <v>43992</v>
       </c>
-      <c r="B726" s="19" t="s">
+      <c r="B726" s="21" t="s">
         <v>22</v>
       </c>
       <c r="C726" s="4">
@@ -15936,7 +16036,7 @@
       <c r="A727" s="16">
         <v>43992</v>
       </c>
-      <c r="B727" s="19" t="s">
+      <c r="B727" s="21" t="s">
         <v>22</v>
       </c>
       <c r="C727" s="4">
@@ -15950,7 +16050,7 @@
       <c r="A728" s="16">
         <v>43992</v>
       </c>
-      <c r="B728" s="19" t="s">
+      <c r="B728" s="21" t="s">
         <v>22</v>
       </c>
       <c r="C728" s="4">
@@ -15964,7 +16064,7 @@
       <c r="A729" s="16">
         <v>43992</v>
       </c>
-      <c r="B729" s="19" t="s">
+      <c r="B729" s="21" t="s">
         <v>22</v>
       </c>
       <c r="C729" s="4">
@@ -15978,7 +16078,7 @@
       <c r="A730" s="16">
         <v>43992</v>
       </c>
-      <c r="B730" s="19" t="s">
+      <c r="B730" s="21" t="s">
         <v>22</v>
       </c>
       <c r="C730" s="4">
@@ -15992,7 +16092,7 @@
       <c r="A731" s="16">
         <v>43992</v>
       </c>
-      <c r="B731" s="19" t="s">
+      <c r="B731" s="21" t="s">
         <v>22</v>
       </c>
       <c r="C731" s="4">
@@ -16006,7 +16106,7 @@
       <c r="A732" s="16">
         <v>43992</v>
       </c>
-      <c r="B732" s="19" t="s">
+      <c r="B732" s="21" t="s">
         <v>29</v>
       </c>
       <c r="C732" s="4">
@@ -16020,7 +16120,7 @@
       <c r="A733" s="16">
         <v>43992</v>
       </c>
-      <c r="B733" s="19" t="s">
+      <c r="B733" s="21" t="s">
         <v>29</v>
       </c>
       <c r="C733" s="4">
@@ -16031,13 +16131,13 @@
       </c>
     </row>
     <row r="734" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A734" s="20">
+      <c r="A734" s="22">
         <v>43992</v>
       </c>
-      <c r="B734" s="22" t="s">
+      <c r="B734" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="C734" s="23">
+      <c r="C734" s="25">
         <v>7</v>
       </c>
       <c r="D734" s="5" t="s">
@@ -16048,7 +16148,7 @@
       <c r="A735" s="16">
         <v>43992</v>
       </c>
-      <c r="B735" s="19" t="s">
+      <c r="B735" s="21" t="s">
         <v>29</v>
       </c>
       <c r="C735" s="4">
@@ -16062,7 +16162,7 @@
       <c r="A736" s="16">
         <v>43992</v>
       </c>
-      <c r="B736" s="19" t="s">
+      <c r="B736" s="21" t="s">
         <v>29</v>
       </c>
       <c r="C736" s="4">
@@ -16076,7 +16176,7 @@
       <c r="A737" s="16">
         <v>43993</v>
       </c>
-      <c r="B737" s="19" t="s">
+      <c r="B737" s="21" t="s">
         <v>29</v>
       </c>
       <c r="C737" s="4">
@@ -16090,7 +16190,7 @@
       <c r="A738" s="16">
         <v>43993</v>
       </c>
-      <c r="B738" s="19" t="s">
+      <c r="B738" s="21" t="s">
         <v>29</v>
       </c>
       <c r="C738" s="4">
@@ -16104,7 +16204,7 @@
       <c r="A739" s="16">
         <v>43993</v>
       </c>
-      <c r="B739" s="19" t="s">
+      <c r="B739" s="21" t="s">
         <v>29</v>
       </c>
       <c r="C739" s="4">
@@ -16118,7 +16218,7 @@
       <c r="A740" s="16">
         <v>43993</v>
       </c>
-      <c r="B740" s="19" t="s">
+      <c r="B740" s="21" t="s">
         <v>29</v>
       </c>
       <c r="C740" s="4">
@@ -16132,7 +16232,7 @@
       <c r="A741" s="16">
         <v>43993</v>
       </c>
-      <c r="B741" s="19" t="s">
+      <c r="B741" s="21" t="s">
         <v>22</v>
       </c>
       <c r="C741" s="4">
@@ -16146,7 +16246,7 @@
       <c r="A742" s="16">
         <v>43993</v>
       </c>
-      <c r="B742" s="19" t="s">
+      <c r="B742" s="21" t="s">
         <v>22</v>
       </c>
       <c r="C742" s="4">
@@ -16154,6 +16254,622 @@
       </c>
       <c r="D742" s="5" t="s">
         <v>27</v>
+      </c>
+    </row>
+    <row r="743" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A743" s="16">
+        <v>43993</v>
+      </c>
+      <c r="B743" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="C743" s="4">
+        <v>65</v>
+      </c>
+      <c r="D743" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="744" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A744" s="16">
+        <v>43993</v>
+      </c>
+      <c r="B744" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="C744" s="4">
+        <v>32</v>
+      </c>
+      <c r="D744" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="745" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A745" s="16">
+        <v>43993</v>
+      </c>
+      <c r="B745" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="C745" s="4">
+        <v>71</v>
+      </c>
+      <c r="D745" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="746" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A746" s="16">
+        <v>43993</v>
+      </c>
+      <c r="B746" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="C746" s="4">
+        <v>68</v>
+      </c>
+      <c r="D746" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="747" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A747" s="16">
+        <v>43993</v>
+      </c>
+      <c r="B747" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="C747" s="4">
+        <v>86</v>
+      </c>
+      <c r="D747" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="748" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A748" s="16">
+        <v>43993</v>
+      </c>
+      <c r="B748" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="C748" s="4">
+        <v>64</v>
+      </c>
+      <c r="D748" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="749" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A749" s="16">
+        <v>43993</v>
+      </c>
+      <c r="B749" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="C749" s="4">
+        <v>41</v>
+      </c>
+      <c r="D749" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="750" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A750" s="16">
+        <v>43993</v>
+      </c>
+      <c r="B750" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="C750" s="4">
+        <v>35</v>
+      </c>
+      <c r="D750" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="751" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A751" s="16">
+        <v>43993</v>
+      </c>
+      <c r="B751" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="C751" s="4">
+        <v>48</v>
+      </c>
+      <c r="D751" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="752" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A752" s="16">
+        <v>43993</v>
+      </c>
+      <c r="B752" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="C752" s="4">
+        <v>69</v>
+      </c>
+      <c r="D752" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="753" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A753" s="16">
+        <v>43993</v>
+      </c>
+      <c r="B753" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="C753" s="4">
+        <v>85</v>
+      </c>
+      <c r="D753" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="754" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A754" s="16">
+        <v>43993</v>
+      </c>
+      <c r="B754" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="C754" s="4">
+        <v>70</v>
+      </c>
+      <c r="D754" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="755" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A755" s="16">
+        <v>43993</v>
+      </c>
+      <c r="B755" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="C755" s="4">
+        <v>55</v>
+      </c>
+      <c r="D755" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="756" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A756" s="16">
+        <v>43993</v>
+      </c>
+      <c r="B756" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="C756" s="4">
+        <v>85</v>
+      </c>
+      <c r="D756" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="757" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A757" s="16">
+        <v>43993</v>
+      </c>
+      <c r="B757" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="C757" s="4">
+        <v>60</v>
+      </c>
+      <c r="D757" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="758" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A758" s="16">
+        <v>43993</v>
+      </c>
+      <c r="B758" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="C758" s="4">
+        <v>82</v>
+      </c>
+      <c r="D758" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="759" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A759" s="16">
+        <v>43993</v>
+      </c>
+      <c r="B759" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="C759" s="4">
+        <v>55</v>
+      </c>
+      <c r="D759" s="21" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="760" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A760" s="16">
+        <v>43993</v>
+      </c>
+      <c r="B760" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="C760" s="4">
+        <v>80</v>
+      </c>
+      <c r="D760" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="761" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A761" s="16">
+        <v>43993</v>
+      </c>
+      <c r="B761" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="C761" s="4">
+        <v>55</v>
+      </c>
+      <c r="D761" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="762" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A762" s="16">
+        <v>43993</v>
+      </c>
+      <c r="B762" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="C762" s="4">
+        <v>59</v>
+      </c>
+      <c r="D762" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="763" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A763" s="16">
+        <v>43993</v>
+      </c>
+      <c r="B763" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="C763" s="4">
+        <v>29</v>
+      </c>
+      <c r="D763" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="764" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A764" s="16">
+        <v>43993</v>
+      </c>
+      <c r="B764" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="C764" s="4">
+        <v>84</v>
+      </c>
+      <c r="D764" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="765" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A765" s="16">
+        <v>43993</v>
+      </c>
+      <c r="B765" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="C765" s="4">
+        <v>79</v>
+      </c>
+      <c r="D765" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="766" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A766" s="16">
+        <v>43993</v>
+      </c>
+      <c r="B766" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="C766" s="4">
+        <v>46</v>
+      </c>
+      <c r="D766" s="21" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="767" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A767" s="16">
+        <v>43994</v>
+      </c>
+      <c r="B767" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="C767" s="4">
+        <v>80</v>
+      </c>
+      <c r="D767" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="768" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A768" s="16">
+        <v>43994</v>
+      </c>
+      <c r="B768" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="C768" s="4">
+        <v>72</v>
+      </c>
+      <c r="D768" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="769" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A769" s="16">
+        <v>43994</v>
+      </c>
+      <c r="B769" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="C769" s="4">
+        <v>71</v>
+      </c>
+      <c r="D769" s="21" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="770" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A770" s="16">
+        <v>43994</v>
+      </c>
+      <c r="B770" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="C770" s="4">
+        <v>81</v>
+      </c>
+      <c r="D770" s="21" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="771" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A771" s="16">
+        <v>43994</v>
+      </c>
+      <c r="B771" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="C771" s="4">
+        <v>38</v>
+      </c>
+      <c r="D771" s="21" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="772" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A772" s="16">
+        <v>43994</v>
+      </c>
+      <c r="B772" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="C772" s="4">
+        <v>45</v>
+      </c>
+      <c r="D772" s="21" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="773" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A773" s="16">
+        <v>43994</v>
+      </c>
+      <c r="B773" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="C773" s="4">
+        <v>85</v>
+      </c>
+      <c r="D773" s="21" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="774" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A774" s="16">
+        <v>43994</v>
+      </c>
+      <c r="B774" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="C774" s="4">
+        <v>74</v>
+      </c>
+      <c r="D774" s="21" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="775" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A775" s="16">
+        <v>43994</v>
+      </c>
+      <c r="B775" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="C775" s="4">
+        <v>78</v>
+      </c>
+      <c r="D775" s="21" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="776" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A776" s="16">
+        <v>43994</v>
+      </c>
+      <c r="B776" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="C776" s="4">
+        <v>45</v>
+      </c>
+      <c r="D776" s="21" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="777" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A777" s="16">
+        <v>43994</v>
+      </c>
+      <c r="B777" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="C777" s="4">
+        <v>81</v>
+      </c>
+      <c r="D777" s="21" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="778" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A778" s="16">
+        <v>43994</v>
+      </c>
+      <c r="B778" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="C778" s="4">
+        <v>48</v>
+      </c>
+      <c r="D778" s="21" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="779" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A779" s="16">
+        <v>43994</v>
+      </c>
+      <c r="B779" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="C779" s="4">
+        <v>69</v>
+      </c>
+      <c r="D779" s="21" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="780" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A780" s="16">
+        <v>43994</v>
+      </c>
+      <c r="B780" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="C780" s="4">
+        <v>89</v>
+      </c>
+      <c r="D780" s="21" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="781" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A781" s="16">
+        <v>43994</v>
+      </c>
+      <c r="B781" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="C781" s="4">
+        <v>70</v>
+      </c>
+      <c r="D781" s="21" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="782" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A782" s="16">
+        <v>43994</v>
+      </c>
+      <c r="B782" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="C782" s="4">
+        <v>72</v>
+      </c>
+      <c r="D782" s="21" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="783" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A783" s="16">
+        <v>43994</v>
+      </c>
+      <c r="B783" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="C783" s="4">
+        <v>63</v>
+      </c>
+      <c r="D783" s="21" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="784" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A784" s="16">
+        <v>43994</v>
+      </c>
+      <c r="B784" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="C784" s="4">
+        <v>58</v>
+      </c>
+      <c r="D784" s="21" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="785" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A785" s="16">
+        <v>43994</v>
+      </c>
+      <c r="B785" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="C785" s="4">
+        <v>77</v>
+      </c>
+      <c r="D785" s="21" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="786" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A786" s="16">
+        <v>43994</v>
+      </c>
+      <c r="B786" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="C786" s="4">
+        <v>75</v>
+      </c>
+      <c r="D786" s="21" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -16164,10 +16880,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A57CA6F3-BC06-4B65-9752-C1012701CA2A}">
-  <dimension ref="A1:H2346"/>
+  <dimension ref="A1:H2394"/>
   <sheetViews>
-    <sheetView topLeftCell="A2233" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C2337" sqref="C2337"/>
+    <sheetView tabSelected="1" topLeftCell="A2374" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B2394" sqref="B2394"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -45417,7 +46133,7 @@
       <c r="C2088" s="6">
         <v>2</v>
       </c>
-      <c r="D2088" s="15">
+      <c r="D2088" s="26">
         <v>460</v>
       </c>
     </row>
@@ -45687,9 +46403,6 @@
       <c r="D2107" s="6">
         <v>6144</v>
       </c>
-      <c r="E2107">
-        <v>90</v>
-      </c>
     </row>
     <row r="2108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2108" t="s">
@@ -45718,9 +46431,6 @@
       <c r="D2109" s="6">
         <v>890</v>
       </c>
-      <c r="E2109">
-        <v>11</v>
-      </c>
     </row>
     <row r="2110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2110" t="s">
@@ -46035,58 +46745,58 @@
     </row>
     <row r="2132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2132" t="s">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="B2132" s="14">
         <v>43984</v>
       </c>
       <c r="C2132" s="6">
-        <v>371</v>
+        <v>0</v>
       </c>
       <c r="D2132" s="6">
-        <v>8851</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2133" t="s">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="B2133" s="14">
         <v>43984</v>
       </c>
       <c r="C2133" s="6">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="D2133" s="6">
-        <v>0</v>
+        <v>920</v>
       </c>
     </row>
     <row r="2134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2134" t="s">
-        <v>25</v>
+        <v>56</v>
       </c>
       <c r="B2134" s="14">
         <v>43984</v>
       </c>
       <c r="C2134" s="6">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="D2134" s="6">
-        <v>920</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2135" t="s">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="B2135" s="14">
         <v>43984</v>
       </c>
       <c r="C2135" s="6">
-        <v>0</v>
+        <v>371</v>
       </c>
       <c r="D2135" s="6">
-        <v>10</v>
+        <v>8851</v>
       </c>
     </row>
     <row r="2136" spans="1:4" x14ac:dyDescent="0.25">
@@ -46365,49 +47075,68 @@
       <c r="C2155" s="6">
         <v>442</v>
       </c>
+      <c r="D2155" s="15">
+        <f>D2154+C2155</f>
+        <v>490</v>
+      </c>
     </row>
     <row r="2156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2156" t="s">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="B2156" s="14">
         <v>43985</v>
       </c>
       <c r="C2156" s="6">
-        <v>467</v>
+        <v>0</v>
+      </c>
+      <c r="D2156" s="6">
+        <v>0</v>
       </c>
     </row>
     <row r="2157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2157" t="s">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="B2157" s="14">
         <v>43985</v>
       </c>
       <c r="C2157" s="6">
-        <v>0</v>
+        <v>6</v>
+      </c>
+      <c r="D2157" s="6">
+        <f>D2156+C2157</f>
+        <v>6</v>
       </c>
     </row>
     <row r="2158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2158" t="s">
-        <v>25</v>
+        <v>56</v>
       </c>
       <c r="B2158" s="14">
         <v>43985</v>
       </c>
       <c r="C2158" s="6">
-        <v>6</v>
+        <v>1</v>
+      </c>
+      <c r="D2158" s="6">
+        <f>D2157+C2158</f>
+        <v>7</v>
       </c>
     </row>
     <row r="2159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2159" t="s">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="B2159" s="14">
         <v>43985</v>
       </c>
       <c r="C2159" s="6">
-        <v>1</v>
+        <v>467</v>
+      </c>
+      <c r="D2159" s="15">
+        <f>D2158+C2159</f>
+        <v>474</v>
       </c>
     </row>
     <row r="2160" spans="1:4" x14ac:dyDescent="0.25">
@@ -46420,8 +47149,12 @@
       <c r="C2160" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="2161" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2160" s="15">
+        <f>D2159+C2160</f>
+        <v>475</v>
+      </c>
+    </row>
+    <row r="2161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2161" t="s">
         <v>57</v>
       </c>
@@ -46431,8 +47164,11 @@
       <c r="C2161" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="2162" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2161" s="6">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="2162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2162" t="s">
         <v>58</v>
       </c>
@@ -46442,8 +47178,12 @@
       <c r="C2162" s="6">
         <v>2</v>
       </c>
-    </row>
-    <row r="2163" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2162" s="6">
+        <f>D2161+C2162</f>
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2163" t="s">
         <v>68</v>
       </c>
@@ -46453,8 +47193,11 @@
       <c r="C2163" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="2164" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2163" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2164" t="s">
         <v>59</v>
       </c>
@@ -46464,8 +47207,11 @@
       <c r="C2164" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="2165" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2164" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2165" t="s">
         <v>60</v>
       </c>
@@ -46475,8 +47221,11 @@
       <c r="C2165" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="2166" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2165" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2166" t="s">
         <v>43</v>
       </c>
@@ -46486,8 +47235,11 @@
       <c r="C2166" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="2167" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2166" s="6">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2167" t="s">
         <v>35</v>
       </c>
@@ -46497,8 +47249,12 @@
       <c r="C2167" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="2168" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2167" s="6">
+        <f>D2166+C2167</f>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2168" t="s">
         <v>45</v>
       </c>
@@ -46508,8 +47264,12 @@
       <c r="C2168" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="2169" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2168" s="6">
+        <f>D2167+C2168</f>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2169" t="s">
         <v>40</v>
       </c>
@@ -46519,8 +47279,12 @@
       <c r="C2169" s="6">
         <v>10</v>
       </c>
-    </row>
-    <row r="2170" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2169" s="6">
+        <f>D2168+C2169</f>
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2170" t="s">
         <v>37</v>
       </c>
@@ -46530,8 +47294,12 @@
       <c r="C2170" s="6">
         <v>16</v>
       </c>
-    </row>
-    <row r="2171" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2170" s="6">
+        <f>D2169+C2170</f>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="2171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2171" t="s">
         <v>61</v>
       </c>
@@ -46541,8 +47309,11 @@
       <c r="C2171" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="2172" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2171" s="6">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2172" t="s">
         <v>62</v>
       </c>
@@ -46552,8 +47323,11 @@
       <c r="C2172" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="2173" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2172" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2173" t="s">
         <v>63</v>
       </c>
@@ -46563,8 +47337,11 @@
       <c r="C2173" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="2174" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2173" s="6">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2174" t="s">
         <v>64</v>
       </c>
@@ -46574,8 +47351,11 @@
       <c r="C2174" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="2175" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2174" s="6">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2175" t="s">
         <v>44</v>
       </c>
@@ -46585,8 +47365,12 @@
       <c r="C2175" s="6">
         <v>3</v>
       </c>
-    </row>
-    <row r="2176" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2175" s="6">
+        <f>D2174+C2175</f>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2176" t="s">
         <v>65</v>
       </c>
@@ -46596,8 +47380,11 @@
       <c r="C2176" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="2177" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2176" s="6">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2177" t="s">
         <v>66</v>
       </c>
@@ -46607,8 +47394,12 @@
       <c r="C2177" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="2178" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2177" s="6">
+        <f>C2177+D2176</f>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2178" t="s">
         <v>67</v>
       </c>
@@ -46618,8 +47409,12 @@
       <c r="C2178" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="2179" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2178" s="6">
+        <f>D2177+C2178</f>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2179" t="s">
         <v>27</v>
       </c>
@@ -46629,52 +47424,71 @@
       <c r="C2179" s="6">
         <v>422</v>
       </c>
-    </row>
-    <row r="2180" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2179" s="15">
+        <f>D2178+C2179</f>
+        <v>444</v>
+      </c>
+    </row>
+    <row r="2180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2180" t="s">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="B2180" s="14">
         <v>43986</v>
       </c>
       <c r="C2180" s="6">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="2181" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="D2180" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2181" t="s">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="B2181" s="14">
         <v>43986</v>
       </c>
       <c r="C2181" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2182" spans="1:3" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+      <c r="D2181" s="6">
+        <f>D2180+C2181</f>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2182" t="s">
-        <v>25</v>
+        <v>56</v>
       </c>
       <c r="B2182" s="14">
         <v>43986</v>
       </c>
       <c r="C2182" s="6">
+        <v>0</v>
+      </c>
+      <c r="D2182" s="6">
+        <f>D2181+C2182</f>
         <v>53</v>
       </c>
     </row>
-    <row r="2183" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2183" t="s">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="B2183" s="14">
         <v>43986</v>
       </c>
       <c r="C2183" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2184" spans="1:3" x14ac:dyDescent="0.25">
+        <v>436</v>
+      </c>
+      <c r="D2183" s="15">
+        <f>D2182+C2183</f>
+        <v>489</v>
+      </c>
+    </row>
+    <row r="2184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2184" t="s">
         <v>42</v>
       </c>
@@ -46684,8 +47498,12 @@
       <c r="C2184" s="6">
         <v>2</v>
       </c>
-    </row>
-    <row r="2185" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2184" s="15">
+        <f>D2183+C2184</f>
+        <v>491</v>
+      </c>
+    </row>
+    <row r="2185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2185" t="s">
         <v>57</v>
       </c>
@@ -46695,8 +47513,11 @@
       <c r="C2185" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="2186" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2185" s="6">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="2186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2186" t="s">
         <v>58</v>
       </c>
@@ -46706,8 +47527,12 @@
       <c r="C2186" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="2187" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2186" s="6">
+        <f>D2185+C2186</f>
+        <v>96</v>
+      </c>
+    </row>
+    <row r="2187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2187" t="s">
         <v>68</v>
       </c>
@@ -46717,8 +47542,11 @@
       <c r="C2187" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="2188" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2187" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2188" t="s">
         <v>59</v>
       </c>
@@ -46728,8 +47556,11 @@
       <c r="C2188" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="2189" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2188" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2189" t="s">
         <v>60</v>
       </c>
@@ -46739,8 +47570,11 @@
       <c r="C2189" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="2190" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2189" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2190" t="s">
         <v>43</v>
       </c>
@@ -46750,8 +47584,11 @@
       <c r="C2190" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="2191" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2190" s="6">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2191" t="s">
         <v>35</v>
       </c>
@@ -46761,8 +47598,12 @@
       <c r="C2191" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="2192" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2191" s="6">
+        <f>D2190+C2191</f>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2192" t="s">
         <v>45</v>
       </c>
@@ -46772,8 +47613,9 @@
       <c r="C2192" s="6">
         <v>2</v>
       </c>
-    </row>
-    <row r="2193" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2192" s="15"/>
+    </row>
+    <row r="2193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2193" t="s">
         <v>40</v>
       </c>
@@ -46783,8 +47625,12 @@
       <c r="C2193" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="2194" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2193" s="6">
+        <f>D2192+C2193</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2194" t="s">
         <v>37</v>
       </c>
@@ -46794,8 +47640,12 @@
       <c r="C2194" s="6">
         <v>8</v>
       </c>
-    </row>
-    <row r="2195" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2194" s="6">
+        <f>D2193+C2194</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2195" t="s">
         <v>61</v>
       </c>
@@ -46805,8 +47655,11 @@
       <c r="C2195" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="2196" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2195" s="6">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2196" t="s">
         <v>62</v>
       </c>
@@ -46816,8 +47669,11 @@
       <c r="C2196" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="2197" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2196" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2197" t="s">
         <v>63</v>
       </c>
@@ -46827,8 +47683,11 @@
       <c r="C2197" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="2198" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2197" s="6">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2198" t="s">
         <v>64</v>
       </c>
@@ -46838,8 +47697,11 @@
       <c r="C2198" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="2199" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2198" s="6">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2199" t="s">
         <v>44</v>
       </c>
@@ -46849,8 +47711,12 @@
       <c r="C2199" s="6">
         <v>5</v>
       </c>
-    </row>
-    <row r="2200" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2199" s="6">
+        <f>D2198+C2199</f>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2200" t="s">
         <v>65</v>
       </c>
@@ -46860,8 +47726,11 @@
       <c r="C2200" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="2201" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2200" s="6">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2201" t="s">
         <v>66</v>
       </c>
@@ -46871,8 +47740,12 @@
       <c r="C2201" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="2202" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2201" s="6">
+        <f>C2201+D2200</f>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2202" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2202" t="s">
         <v>67</v>
       </c>
@@ -46882,8 +47755,12 @@
       <c r="C2202" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="2203" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2202" s="6">
+        <f>D2201+C2202</f>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2203" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2203" t="s">
         <v>27</v>
       </c>
@@ -46893,52 +47770,71 @@
       <c r="C2203" s="6">
         <v>371</v>
       </c>
-    </row>
-    <row r="2204" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2203" s="15">
+        <f>D2202+C2203</f>
+        <v>394</v>
+      </c>
+    </row>
+    <row r="2204" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2204" t="s">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="B2204" s="14">
         <v>43987</v>
       </c>
       <c r="C2204" s="6">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="2205" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="D2204" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2205" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2205" t="s">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="B2205" s="14">
         <v>43987</v>
       </c>
       <c r="C2205" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2206" spans="1:3" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+      <c r="D2205" s="6">
+        <f>D2204+C2205</f>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2206" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2206" t="s">
-        <v>25</v>
+        <v>56</v>
       </c>
       <c r="B2206" s="14">
         <v>43987</v>
       </c>
       <c r="C2206" s="6">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2207" spans="1:3" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="D2206" s="6">
+        <f>D2205+C2206</f>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2207" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2207" t="s">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="B2207" s="14">
         <v>43987</v>
       </c>
       <c r="C2207" s="6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2208" spans="1:3" x14ac:dyDescent="0.25">
+        <v>420</v>
+      </c>
+      <c r="D2207" s="15">
+        <f>D2206+C2207</f>
+        <v>452</v>
+      </c>
+    </row>
+    <row r="2208" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2208" t="s">
         <v>42</v>
       </c>
@@ -46948,8 +47844,12 @@
       <c r="C2208" s="6">
         <v>2</v>
       </c>
-    </row>
-    <row r="2209" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2208" s="15">
+        <f>D2207+C2208</f>
+        <v>454</v>
+      </c>
+    </row>
+    <row r="2209" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2209" t="s">
         <v>57</v>
       </c>
@@ -46959,8 +47859,11 @@
       <c r="C2209" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="2210" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2209" s="6">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="2210" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2210" t="s">
         <v>58</v>
       </c>
@@ -46970,8 +47873,12 @@
       <c r="C2210" s="6">
         <v>4</v>
       </c>
-    </row>
-    <row r="2211" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2210" s="6">
+        <f>D2209+C2210</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="2211" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2211" t="s">
         <v>68</v>
       </c>
@@ -46981,8 +47888,11 @@
       <c r="C2211" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="2212" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2211" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2212" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2212" t="s">
         <v>59</v>
       </c>
@@ -46992,8 +47902,11 @@
       <c r="C2212" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="2213" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2212" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2213" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2213" t="s">
         <v>60</v>
       </c>
@@ -47003,8 +47916,11 @@
       <c r="C2213" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="2214" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2213" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2214" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2214" t="s">
         <v>43</v>
       </c>
@@ -47014,19 +47930,26 @@
       <c r="C2214" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="2215" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2214" s="6">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2215" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2215" t="s">
         <v>35</v>
       </c>
       <c r="B2215" s="14">
         <v>43987</v>
       </c>
-      <c r="C2215" s="6">
+      <c r="C2215" s="15">
         <v>1</v>
       </c>
-    </row>
-    <row r="2216" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2215" s="15">
+        <f>D2214+C2215</f>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2216" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2216" t="s">
         <v>45</v>
       </c>
@@ -47036,8 +47959,9 @@
       <c r="C2216" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="2217" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2216" s="15"/>
+    </row>
+    <row r="2217" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2217" t="s">
         <v>40</v>
       </c>
@@ -47047,8 +47971,12 @@
       <c r="C2217" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="2218" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2217" s="6">
+        <f>D2216+C2217</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2218" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2218" t="s">
         <v>37</v>
       </c>
@@ -47058,8 +47986,12 @@
       <c r="C2218" s="6">
         <v>8</v>
       </c>
-    </row>
-    <row r="2219" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2218" s="6">
+        <f>D2217+C2218</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2219" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2219" t="s">
         <v>61</v>
       </c>
@@ -47069,8 +48001,11 @@
       <c r="C2219" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="2220" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2219" s="6">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2220" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2220" t="s">
         <v>62</v>
       </c>
@@ -47080,8 +48015,11 @@
       <c r="C2220" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="2221" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2220" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2221" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2221" t="s">
         <v>63</v>
       </c>
@@ -47091,8 +48029,11 @@
       <c r="C2221" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="2222" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2221" s="6">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2222" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2222" t="s">
         <v>64</v>
       </c>
@@ -47102,8 +48043,11 @@
       <c r="C2222" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="2223" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2222" s="6">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2223" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2223" t="s">
         <v>44</v>
       </c>
@@ -47113,8 +48057,12 @@
       <c r="C2223" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="2224" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2223" s="6">
+        <f>D2222+C2223</f>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2224" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2224" t="s">
         <v>65</v>
       </c>
@@ -47124,8 +48072,11 @@
       <c r="C2224" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="2225" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2224" s="6">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2225" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2225" t="s">
         <v>66</v>
       </c>
@@ -47135,8 +48086,12 @@
       <c r="C2225" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="2226" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2225" s="6">
+        <f>C2225+D2224</f>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2226" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2226" t="s">
         <v>67</v>
       </c>
@@ -47146,8 +48101,12 @@
       <c r="C2226" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="2227" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2226" s="6">
+        <f>D2225+C2226</f>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2227" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2227" t="s">
         <v>27</v>
       </c>
@@ -47157,52 +48116,71 @@
       <c r="C2227" s="6">
         <v>457</v>
       </c>
-    </row>
-    <row r="2228" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2227" s="15">
+        <f>D2226+C2227</f>
+        <v>479</v>
+      </c>
+    </row>
+    <row r="2228" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2228" t="s">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="B2228" s="14">
         <v>43988</v>
       </c>
       <c r="C2228" s="6">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="2229" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="D2228" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2229" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2229" t="s">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="B2229" s="14">
         <v>43988</v>
       </c>
       <c r="C2229" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2230" spans="1:3" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+      <c r="D2229" s="6">
+        <f>D2228+C2229</f>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2230" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2230" t="s">
-        <v>25</v>
+        <v>56</v>
       </c>
       <c r="B2230" s="14">
         <v>43988</v>
       </c>
       <c r="C2230" s="6">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2231" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="D2230" s="6">
+        <f>D2229+C2230</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2231" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2231" t="s">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="B2231" s="14">
         <v>43988</v>
       </c>
       <c r="C2231" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2232" spans="1:3" x14ac:dyDescent="0.25">
+        <v>474</v>
+      </c>
+      <c r="D2231" s="15">
+        <f>D2230+C2231</f>
+        <v>494</v>
+      </c>
+    </row>
+    <row r="2232" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2232" t="s">
         <v>42</v>
       </c>
@@ -47212,8 +48190,12 @@
       <c r="C2232" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="2233" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2232" s="15">
+        <f>D2231+C2232</f>
+        <v>494</v>
+      </c>
+    </row>
+    <row r="2233" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2233" t="s">
         <v>57</v>
       </c>
@@ -47223,8 +48205,11 @@
       <c r="C2233" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="2234" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2233" s="6">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="2234" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2234" t="s">
         <v>58</v>
       </c>
@@ -47234,8 +48219,12 @@
       <c r="C2234" s="6">
         <v>10</v>
       </c>
-    </row>
-    <row r="2235" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2234" s="6">
+        <f>D2233+C2234</f>
+        <v>106</v>
+      </c>
+    </row>
+    <row r="2235" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2235" t="s">
         <v>68</v>
       </c>
@@ -47245,8 +48234,11 @@
       <c r="C2235" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="2236" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2235" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2236" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2236" t="s">
         <v>59</v>
       </c>
@@ -47256,8 +48248,11 @@
       <c r="C2236" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="2237" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2236" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2237" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2237" t="s">
         <v>60</v>
       </c>
@@ -47267,8 +48262,11 @@
       <c r="C2237" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="2238" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2237" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2238" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2238" t="s">
         <v>43</v>
       </c>
@@ -47278,19 +48276,26 @@
       <c r="C2238" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="2239" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2238" s="6">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2239" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2239" t="s">
         <v>35</v>
       </c>
       <c r="B2239" s="14">
         <v>43988</v>
       </c>
-      <c r="C2239" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2240" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C2239" s="15">
+        <v>0</v>
+      </c>
+      <c r="D2239" s="15">
+        <f>D2238+C2239</f>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2240" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2240" t="s">
         <v>45</v>
       </c>
@@ -47300,6 +48305,7 @@
       <c r="C2240" s="6">
         <v>4</v>
       </c>
+      <c r="D2240" s="15"/>
     </row>
     <row r="2241" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2241" t="s">
@@ -47311,6 +48317,10 @@
       <c r="C2241" s="6">
         <v>1</v>
       </c>
+      <c r="D2241" s="6">
+        <f>D2240+C2241</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="2242" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2242" t="s">
@@ -47322,6 +48332,10 @@
       <c r="C2242" s="6">
         <v>15</v>
       </c>
+      <c r="D2242" s="6">
+        <f>D2241+C2242</f>
+        <v>16</v>
+      </c>
     </row>
     <row r="2243" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2243" t="s">
@@ -47333,6 +48347,9 @@
       <c r="C2243" s="6">
         <v>0</v>
       </c>
+      <c r="D2243" s="6">
+        <v>15</v>
+      </c>
     </row>
     <row r="2244" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2244" t="s">
@@ -47344,6 +48361,9 @@
       <c r="C2244" s="6">
         <v>0</v>
       </c>
+      <c r="D2244" s="6">
+        <v>5</v>
+      </c>
     </row>
     <row r="2245" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2245" t="s">
@@ -47355,6 +48375,9 @@
       <c r="C2245" s="6">
         <v>0</v>
       </c>
+      <c r="D2245" s="6">
+        <v>11</v>
+      </c>
     </row>
     <row r="2246" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2246" t="s">
@@ -47366,6 +48389,9 @@
       <c r="C2246" s="6">
         <v>0</v>
       </c>
+      <c r="D2246" s="6">
+        <v>51</v>
+      </c>
     </row>
     <row r="2247" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2247" t="s">
@@ -47377,6 +48403,10 @@
       <c r="C2247" s="6">
         <v>2</v>
       </c>
+      <c r="D2247" s="6">
+        <f>D2246+C2247</f>
+        <v>53</v>
+      </c>
     </row>
     <row r="2248" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2248" t="s">
@@ -47388,6 +48418,9 @@
       <c r="C2248" s="6">
         <v>0</v>
       </c>
+      <c r="D2248" s="6">
+        <v>22</v>
+      </c>
     </row>
     <row r="2249" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2249" t="s">
@@ -47399,6 +48432,10 @@
       <c r="C2249" s="6">
         <v>0</v>
       </c>
+      <c r="D2249" s="6">
+        <f>C2249+D2248</f>
+        <v>22</v>
+      </c>
     </row>
     <row r="2250" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2250" t="s">
@@ -47410,6 +48447,10 @@
       <c r="C2250" s="6">
         <v>0</v>
       </c>
+      <c r="D2250" s="6">
+        <f>D2249+C2250</f>
+        <v>22</v>
+      </c>
     </row>
     <row r="2251" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2251" t="s">
@@ -47427,58 +48468,58 @@
     </row>
     <row r="2252" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2252" t="s">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="B2252" s="14">
         <v>43989</v>
       </c>
       <c r="C2252" s="6">
-        <v>359</v>
+        <v>0</v>
       </c>
       <c r="D2252" s="6">
-        <v>11010</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2253" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2253" t="s">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="B2253" s="14">
         <v>43989</v>
       </c>
       <c r="C2253" s="6">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="D2253" s="6">
-        <v>0</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="2254" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2254" t="s">
-        <v>25</v>
+        <v>56</v>
       </c>
       <c r="B2254" s="14">
         <v>43989</v>
       </c>
       <c r="C2254" s="6">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="D2254" s="6">
-        <v>1045</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2255" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2255" t="s">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="B2255" s="14">
         <v>43989</v>
       </c>
       <c r="C2255" s="6">
-        <v>5</v>
+        <v>359</v>
       </c>
       <c r="D2255" s="6">
-        <v>20</v>
+        <v>11010</v>
       </c>
     </row>
     <row r="2256" spans="1:4" x14ac:dyDescent="0.25">
@@ -47763,58 +48804,58 @@
     </row>
     <row r="2276" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2276" t="s">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="B2276" s="14">
         <v>43990</v>
       </c>
       <c r="C2276" s="6">
-        <v>420</v>
+        <v>0</v>
       </c>
       <c r="D2276" s="6">
-        <v>11430</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2277" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2277" t="s">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="B2277" s="14">
         <v>43990</v>
       </c>
       <c r="C2277" s="6">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="D2277" s="6">
-        <v>0</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="2278" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2278" t="s">
-        <v>25</v>
+        <v>56</v>
       </c>
       <c r="B2278" s="14">
         <v>43990</v>
       </c>
       <c r="C2278" s="6">
-        <v>45</v>
+        <v>1</v>
       </c>
       <c r="D2278" s="6">
-        <v>1090</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2279" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2279" t="s">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="B2279" s="14">
         <v>43990</v>
       </c>
       <c r="C2279" s="6">
-        <v>1</v>
+        <v>420</v>
       </c>
       <c r="D2279" s="6">
-        <v>21</v>
+        <v>11430</v>
       </c>
     </row>
     <row r="2280" spans="1:4" x14ac:dyDescent="0.25">
@@ -48099,58 +49140,58 @@
     </row>
     <row r="2300" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2300" t="s">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="B2300" s="14">
         <v>43991</v>
       </c>
       <c r="C2300" s="6">
-        <v>535</v>
+        <v>0</v>
       </c>
       <c r="D2300" s="6">
-        <v>11965</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2301" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2301" t="s">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="B2301" s="14">
         <v>43991</v>
       </c>
       <c r="C2301" s="6">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="D2301" s="6">
-        <v>0</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="2302" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2302" t="s">
-        <v>25</v>
+        <v>56</v>
       </c>
       <c r="B2302" s="14">
         <v>43991</v>
       </c>
       <c r="C2302" s="6">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="D2302" s="6">
-        <v>1118</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2303" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2303" t="s">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="B2303" s="14">
         <v>43991</v>
       </c>
       <c r="C2303" s="6">
-        <v>5</v>
+        <v>535</v>
       </c>
       <c r="D2303" s="6">
-        <v>26</v>
+        <v>11965</v>
       </c>
     </row>
     <row r="2304" spans="1:4" x14ac:dyDescent="0.25">
@@ -48755,18 +49796,551 @@
         <v>48</v>
       </c>
     </row>
+    <row r="2347" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2347" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2347" s="14">
+        <v>43993</v>
+      </c>
+      <c r="C2347" s="6">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="2348" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2348" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2348" s="14">
+        <v>43993</v>
+      </c>
+      <c r="C2348" s="6">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="2349" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2349" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2349" s="14">
+        <v>43993</v>
+      </c>
+      <c r="C2349" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2350" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2350" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2350" s="14">
+        <v>43993</v>
+      </c>
+      <c r="C2350" s="6">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2351" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2351" t="s">
+        <v>56</v>
+      </c>
+      <c r="B2351" s="14">
+        <v>43993</v>
+      </c>
+      <c r="C2351" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2352" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2352" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2352" s="14">
+        <v>43993</v>
+      </c>
+      <c r="C2352" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2353" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2353" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2353" s="14">
+        <v>43993</v>
+      </c>
+      <c r="C2353" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2354" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2354" t="s">
+        <v>58</v>
+      </c>
+      <c r="B2354" s="14">
+        <v>43993</v>
+      </c>
+      <c r="C2354" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2355" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2355" t="s">
+        <v>68</v>
+      </c>
+      <c r="B2355" s="14">
+        <v>43993</v>
+      </c>
+      <c r="C2355" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2356" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2356" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2356" s="14">
+        <v>43993</v>
+      </c>
+      <c r="C2356" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2357" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2357" t="s">
+        <v>60</v>
+      </c>
+      <c r="B2357" s="14">
+        <v>43993</v>
+      </c>
+      <c r="C2357" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2358" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2358" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2358" s="14">
+        <v>43993</v>
+      </c>
+      <c r="C2358" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2359" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2359" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2359" s="14">
+        <v>43993</v>
+      </c>
+      <c r="C2359" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2360" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2360" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2360" s="14">
+        <v>43993</v>
+      </c>
+      <c r="C2360" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2361" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2361" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2361" s="14">
+        <v>43993</v>
+      </c>
+      <c r="C2361" s="6">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2362" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2362" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2362" s="14">
+        <v>43993</v>
+      </c>
+      <c r="C2362" s="6">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2363" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2363" t="s">
+        <v>61</v>
+      </c>
+      <c r="B2363" s="14">
+        <v>43993</v>
+      </c>
+      <c r="C2363" s="6">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="2364" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2364" t="s">
+        <v>62</v>
+      </c>
+      <c r="B2364" s="14">
+        <v>43993</v>
+      </c>
+      <c r="C2364" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2365" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2365" t="s">
+        <v>63</v>
+      </c>
+      <c r="B2365" s="14">
+        <v>43993</v>
+      </c>
+      <c r="C2365" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2366" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2366" t="s">
+        <v>64</v>
+      </c>
+      <c r="B2366" s="14">
+        <v>43993</v>
+      </c>
+      <c r="C2366" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2367" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2367" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2367" s="14">
+        <v>43993</v>
+      </c>
+      <c r="C2367" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2368" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2368" t="s">
+        <v>65</v>
+      </c>
+      <c r="B2368" s="14">
+        <v>43993</v>
+      </c>
+      <c r="C2368" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2369" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2369" t="s">
+        <v>66</v>
+      </c>
+      <c r="B2369" s="14">
+        <v>43993</v>
+      </c>
+      <c r="C2369" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2370" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2370" t="s">
+        <v>67</v>
+      </c>
+      <c r="B2370" s="14">
+        <v>43993</v>
+      </c>
+      <c r="C2370" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2371" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2371" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2371" s="14">
+        <v>43994</v>
+      </c>
+      <c r="C2371" s="6">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="2372" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2372" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2372" s="14">
+        <v>43994</v>
+      </c>
+      <c r="C2372" s="6">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="2373" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2373" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2373" s="14">
+        <v>43994</v>
+      </c>
+      <c r="C2373" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2374" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2374" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2374" s="14">
+        <v>43994</v>
+      </c>
+      <c r="C2374" s="6">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2375" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2375" t="s">
+        <v>56</v>
+      </c>
+      <c r="B2375" s="14">
+        <v>43994</v>
+      </c>
+      <c r="C2375" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2376" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2376" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2376" s="14">
+        <v>43994</v>
+      </c>
+      <c r="C2376" s="6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2377" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2377" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2377" s="14">
+        <v>43994</v>
+      </c>
+      <c r="C2377" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2378" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2378" t="s">
+        <v>58</v>
+      </c>
+      <c r="B2378" s="14">
+        <v>43994</v>
+      </c>
+      <c r="C2378" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2379" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2379" t="s">
+        <v>68</v>
+      </c>
+      <c r="B2379" s="14">
+        <v>43994</v>
+      </c>
+      <c r="C2379" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2380" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2380" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2380" s="14">
+        <v>43994</v>
+      </c>
+      <c r="C2380" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2381" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2381" t="s">
+        <v>60</v>
+      </c>
+      <c r="B2381" s="14">
+        <v>43994</v>
+      </c>
+      <c r="C2381" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2382" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2382" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2382" s="14">
+        <v>43994</v>
+      </c>
+      <c r="C2382" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2383" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2383" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2383" s="14">
+        <v>43994</v>
+      </c>
+      <c r="C2383" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2384" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2384" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2384" s="14">
+        <v>43994</v>
+      </c>
+      <c r="C2384" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2385" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2385" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2385" s="14">
+        <v>43994</v>
+      </c>
+      <c r="C2385" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2386" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2386" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2386" s="14">
+        <v>43994</v>
+      </c>
+      <c r="C2386" s="6">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2387" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2387" t="s">
+        <v>61</v>
+      </c>
+      <c r="B2387" s="14">
+        <v>43994</v>
+      </c>
+      <c r="C2387" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2388" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2388" t="s">
+        <v>62</v>
+      </c>
+      <c r="B2388" s="14">
+        <v>43994</v>
+      </c>
+      <c r="C2388" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2389" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2389" t="s">
+        <v>63</v>
+      </c>
+      <c r="B2389" s="14">
+        <v>43994</v>
+      </c>
+      <c r="C2389" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2390" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2390" t="s">
+        <v>64</v>
+      </c>
+      <c r="B2390" s="14">
+        <v>43994</v>
+      </c>
+      <c r="C2390" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2391" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2391" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2391" s="14">
+        <v>43994</v>
+      </c>
+      <c r="C2391" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2392" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2392" t="s">
+        <v>65</v>
+      </c>
+      <c r="B2392" s="14">
+        <v>43994</v>
+      </c>
+      <c r="C2392" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2393" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2393" t="s">
+        <v>66</v>
+      </c>
+      <c r="B2393" s="14">
+        <v>43994</v>
+      </c>
+      <c r="C2393" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2394" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2394" t="s">
+        <v>67</v>
+      </c>
+      <c r="B2394" s="14">
+        <v>43994</v>
+      </c>
+      <c r="C2394" s="6">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:H2082" xr:uid="{41ACAD35-0291-4B37-9E18-FD5E73387D91}"/>
+  <autoFilter ref="A1:H2346" xr:uid="{3750E60A-6BA1-42E4-B3BC-73489511DE01}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H2346">
+      <sortCondition ref="B2:B2346"/>
+      <sortCondition ref="A2:A2346"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41FC76FE-1A63-4E59-BFE1-BA7DA5FEAD63}">
-  <dimension ref="A1:M45"/>
+  <dimension ref="A1:M46"/>
   <sheetViews>
     <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="E44" sqref="E44"/>
+      <selection activeCell="E46" sqref="E46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -50616,6 +52190,47 @@
         <v>1109</v>
       </c>
     </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A46" s="14">
+        <v>43993</v>
+      </c>
+      <c r="B46">
+        <v>27360</v>
+      </c>
+      <c r="C46">
+        <v>49.38</v>
+      </c>
+      <c r="D46">
+        <v>50.2</v>
+      </c>
+      <c r="E46">
+        <v>1961</v>
+      </c>
+      <c r="F46">
+        <v>2268</v>
+      </c>
+      <c r="G46">
+        <v>5375</v>
+      </c>
+      <c r="H46">
+        <v>5868</v>
+      </c>
+      <c r="I46">
+        <v>4614</v>
+      </c>
+      <c r="J46">
+        <v>3261</v>
+      </c>
+      <c r="K46">
+        <v>1729</v>
+      </c>
+      <c r="L46">
+        <v>1090</v>
+      </c>
+      <c r="M46">
+        <v>1164</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/argentina.xlsx
+++ b/data/argentina.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\COVID\covid19Page\covid\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD92ACE2-8702-4517-955B-EAD972561E1D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71DA9ECA-AD8B-4EF6-A0AE-30CC9FBB8DFC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{FD99AC7E-67B3-424D-874D-40A6E057BF54}"/>
+    <workbookView xWindow="13485" yWindow="195" windowWidth="5775" windowHeight="10515" firstSheet="2" activeTab="2" xr2:uid="{FD99AC7E-67B3-424D-874D-40A6E057BF54}"/>
   </bookViews>
   <sheets>
     <sheet name="argentina_gral" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4056" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4106" uniqueCount="81">
   <si>
     <t>D¡a</t>
   </si>
@@ -324,7 +324,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -373,12 +373,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -442,6 +453,9 @@
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -758,11 +772,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D48F336C-A519-44F7-9544-8D5A56C7FEE1}">
-  <dimension ref="A1:Q103"/>
+  <dimension ref="A1:Q104"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A95" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J103" sqref="J103"/>
+      <selection pane="bottomLeft" activeCell="F104" sqref="F104:G104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5778,21 +5792,47 @@
       </c>
       <c r="J103" s="4"/>
       <c r="K103" s="4"/>
-      <c r="L103" s="6">
+      <c r="L103" s="4">
         <v>159488</v>
       </c>
-      <c r="M103" s="6">
+      <c r="M103" s="4">
         <v>1005</v>
       </c>
-      <c r="N103" s="6">
+      <c r="N103" s="4">
         <v>11529</v>
       </c>
-      <c r="O103" s="6">
+      <c r="O103" s="4">
         <v>11161</v>
       </c>
-      <c r="P103" s="6">
+      <c r="P103" s="4">
         <f>28764-O103-N103-M103</f>
         <v>5069</v>
+      </c>
+    </row>
+    <row r="104" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="2">
+        <v>43995</v>
+      </c>
+      <c r="B104" s="26">
+        <v>1531</v>
+      </c>
+      <c r="C104" s="6">
+        <f>B104+C103</f>
+        <v>30295</v>
+      </c>
+      <c r="D104" s="6">
+        <f>17+13</f>
+        <v>30</v>
+      </c>
+      <c r="E104" s="6">
+        <f>E103+D104</f>
+        <v>815</v>
+      </c>
+      <c r="F104" s="1">
+        <v>9083</v>
+      </c>
+      <c r="G104" s="1">
+        <v>280</v>
       </c>
     </row>
   </sheetData>
@@ -5804,10 +5844,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C255934D-2CD9-446F-A5BE-CB7D14454E2D}">
-  <dimension ref="A1:F803"/>
+  <dimension ref="A1:F816"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C795" sqref="C795"/>
+    <sheetView topLeftCell="B798" workbookViewId="0">
+      <selection activeCell="D816" sqref="A804:D816"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17104,6 +17144,188 @@
         <v>37</v>
       </c>
     </row>
+    <row r="804" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A804" s="16">
+        <v>43995</v>
+      </c>
+      <c r="B804" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="C804" s="4">
+        <v>73</v>
+      </c>
+      <c r="D804" s="19" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="805" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A805" s="16">
+        <v>43995</v>
+      </c>
+      <c r="B805" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="C805" s="4">
+        <v>62</v>
+      </c>
+      <c r="D805" s="19" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="806" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A806" s="16">
+        <v>43995</v>
+      </c>
+      <c r="B806" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="C806" s="4">
+        <v>61</v>
+      </c>
+      <c r="D806" s="19" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="807" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A807" s="16">
+        <v>43995</v>
+      </c>
+      <c r="B807" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="C807" s="4">
+        <v>87</v>
+      </c>
+      <c r="D807" s="19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="808" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A808" s="16">
+        <v>43995</v>
+      </c>
+      <c r="B808" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="C808" s="4">
+        <v>88</v>
+      </c>
+      <c r="D808" s="19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="809" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A809" s="16">
+        <v>43995</v>
+      </c>
+      <c r="B809" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="C809" s="4">
+        <v>64</v>
+      </c>
+      <c r="D809" s="19" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="810" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A810" s="16">
+        <v>43995</v>
+      </c>
+      <c r="B810" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="C810" s="4">
+        <v>45</v>
+      </c>
+      <c r="D810" s="19" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="811" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A811" s="16">
+        <v>43995</v>
+      </c>
+      <c r="B811" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="C811" s="4">
+        <v>75</v>
+      </c>
+      <c r="D811" s="19" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="812" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A812" s="16">
+        <v>43995</v>
+      </c>
+      <c r="B812" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="C812" s="4">
+        <v>29</v>
+      </c>
+      <c r="D812" s="19" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="813" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A813" s="16">
+        <v>43995</v>
+      </c>
+      <c r="B813" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="C813" s="4">
+        <v>45</v>
+      </c>
+      <c r="D813" s="19" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="814" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A814" s="16">
+        <v>43995</v>
+      </c>
+      <c r="B814" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="C814" s="4">
+        <v>74</v>
+      </c>
+      <c r="D814" s="19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="815" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A815" s="16">
+        <v>43995</v>
+      </c>
+      <c r="B815" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="C815" s="4">
+        <v>82</v>
+      </c>
+      <c r="D815" s="19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="816" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A816" s="16">
+        <v>43995</v>
+      </c>
+      <c r="B816" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="C816" s="4">
+        <v>73</v>
+      </c>
+      <c r="D816" s="19" t="s">
+        <v>37</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:F803" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -17112,10 +17334,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A57CA6F3-BC06-4B65-9752-C1012701CA2A}">
-  <dimension ref="A1:H2394"/>
+  <dimension ref="A1:H2418"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D2370" sqref="D2370"/>
+    <sheetView tabSelected="1" topLeftCell="B2395" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D2418" sqref="D2418"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -50626,6 +50848,270 @@
       </c>
       <c r="D2394" s="4">
         <v>49</v>
+      </c>
+    </row>
+    <row r="2395" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2395" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2395" s="16">
+        <v>43995</v>
+      </c>
+      <c r="C2395" s="6">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="2396" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2396" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2396" s="16">
+        <v>43995</v>
+      </c>
+      <c r="C2396" s="6">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="2397" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2397" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2397" s="16">
+        <v>43995</v>
+      </c>
+      <c r="C2397" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2398" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2398" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2398" s="16">
+        <v>43995</v>
+      </c>
+      <c r="C2398" s="6">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2399" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2399" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B2399" s="16">
+        <v>43995</v>
+      </c>
+      <c r="C2399" s="6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2400" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2400" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2400" s="16">
+        <v>43995</v>
+      </c>
+      <c r="C2400" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2401" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2401" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2401" s="16">
+        <v>43995</v>
+      </c>
+      <c r="C2401" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2402" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2402" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B2402" s="16">
+        <v>43995</v>
+      </c>
+      <c r="C2402" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2403" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2403" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B2403" s="16">
+        <v>43995</v>
+      </c>
+      <c r="C2403" s="6">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2404" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2404" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2404" s="16">
+        <v>43995</v>
+      </c>
+      <c r="C2404" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2405" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2405" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B2405" s="16">
+        <v>43995</v>
+      </c>
+      <c r="C2405" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2406" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2406" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2406" s="16">
+        <v>43995</v>
+      </c>
+      <c r="C2406" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2407" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2407" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2407" s="16">
+        <v>43995</v>
+      </c>
+      <c r="C2407" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2408" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2408" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2408" s="16">
+        <v>43995</v>
+      </c>
+      <c r="C2408" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2409" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2409" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2409" s="16">
+        <v>43995</v>
+      </c>
+      <c r="C2409" s="6">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2410" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2410" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2410" s="16">
+        <v>43995</v>
+      </c>
+      <c r="C2410" s="6">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2411" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2411" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B2411" s="16">
+        <v>43995</v>
+      </c>
+      <c r="C2411" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2412" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2412" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B2412" s="16">
+        <v>43995</v>
+      </c>
+      <c r="C2412" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2413" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2413" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B2413" s="16">
+        <v>43995</v>
+      </c>
+      <c r="C2413" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2414" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2414" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B2414" s="16">
+        <v>43995</v>
+      </c>
+      <c r="C2414" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2415" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2415" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2415" s="16">
+        <v>43995</v>
+      </c>
+      <c r="C2415" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2416" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2416" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B2416" s="16">
+        <v>43995</v>
+      </c>
+      <c r="C2416" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2417" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2417" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B2417" s="16">
+        <v>43995</v>
+      </c>
+      <c r="C2417" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2418" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2418" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B2418" s="16">
+        <v>43995</v>
+      </c>
+      <c r="C2418" s="6">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/data/argentina.xlsx
+++ b/data/argentina.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\COVID\covid19Page\covid\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A072844-C979-4171-B55E-714541C0DE05}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3000B1A-B6DF-4DA6-BD2E-C7CD1C5ACABB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10395" yWindow="2130" windowWidth="10140" windowHeight="10515" xr2:uid="{FD99AC7E-67B3-424D-874D-40A6E057BF54}"/>
+    <workbookView xWindow="9555" yWindow="405" windowWidth="9945" windowHeight="10515" xr2:uid="{FD99AC7E-67B3-424D-874D-40A6E057BF54}"/>
   </bookViews>
   <sheets>
     <sheet name="argentina_gral" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4165" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4184" uniqueCount="81">
   <si>
     <t>D¡a</t>
   </si>
@@ -324,7 +324,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -398,17 +398,15 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
       </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
+      <top style="thin">
+        <color indexed="64"/>
       </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
+      <bottom style="thin">
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -420,24 +418,9 @@
         <color rgb="FF000000"/>
       </right>
       <top style="medium">
-        <color rgb="FFCCCCCC"/>
+        <color rgb="FF000000"/>
       </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -517,14 +500,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -532,6 +509,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -850,9 +833,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D48F336C-A519-44F7-9544-8D5A56C7FEE1}">
   <dimension ref="A1:Q105"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A95" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D105" sqref="B105:D105"/>
+      <selection pane="bottomLeft" activeCell="J105" sqref="J105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5837,11 +5820,11 @@
         <v>4741</v>
       </c>
     </row>
-    <row r="103" spans="1:16" s="6" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A103" s="2">
+    <row r="103" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="9">
         <v>43994</v>
       </c>
-      <c r="B103" s="35">
+      <c r="B103" s="33">
         <v>1391</v>
       </c>
       <c r="C103" s="11">
@@ -5851,7 +5834,7 @@
       <c r="D103" s="11">
         <v>20</v>
       </c>
-      <c r="E103" s="36">
+      <c r="E103" s="34">
         <v>785</v>
       </c>
       <c r="F103" s="10">
@@ -5860,36 +5843,36 @@
       <c r="G103" s="10">
         <v>280</v>
       </c>
-      <c r="H103" s="4">
+      <c r="H103" s="11">
         <v>7019</v>
       </c>
-      <c r="I103" s="4">
+      <c r="I103" s="11">
         <v>228324</v>
       </c>
-      <c r="J103" s="4">
+      <c r="J103" s="11">
         <v>797</v>
       </c>
-      <c r="K103" s="31">
+      <c r="K103" s="35">
         <v>158691</v>
       </c>
-      <c r="L103" s="4">
+      <c r="L103" s="11">
         <v>159488</v>
       </c>
-      <c r="M103" s="4">
+      <c r="M103" s="11">
         <v>1005</v>
       </c>
-      <c r="N103" s="4">
+      <c r="N103" s="11">
         <v>11529</v>
       </c>
-      <c r="O103" s="4">
+      <c r="O103" s="11">
         <v>11161</v>
       </c>
-      <c r="P103" s="4">
+      <c r="P103" s="11">
         <f>28764-O103-N103-M103</f>
         <v>5069</v>
       </c>
     </row>
-    <row r="104" spans="1:16" s="6" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A104" s="2">
         <v>43995</v>
       </c>
@@ -5914,15 +5897,34 @@
       <c r="G104" s="13">
         <v>293</v>
       </c>
-      <c r="J104" s="6">
+      <c r="H104" s="4">
+        <v>6046</v>
+      </c>
+      <c r="I104" s="4">
+        <v>234370</v>
+      </c>
+      <c r="J104" s="4">
         <v>815</v>
       </c>
-      <c r="K104" s="32">
+      <c r="K104" s="13">
         <v>162346</v>
       </c>
-      <c r="L104" s="6">
+      <c r="L104" s="4">
         <f>K104+J104</f>
         <v>163161</v>
+      </c>
+      <c r="M104" s="4">
+        <v>1011</v>
+      </c>
+      <c r="N104" s="4">
+        <v>11950</v>
+      </c>
+      <c r="O104" s="4">
+        <v>11707</v>
+      </c>
+      <c r="P104" s="4">
+        <f>30295-O104-N104-M104</f>
+        <v>5627</v>
       </c>
     </row>
     <row r="105" spans="1:16" x14ac:dyDescent="0.25">
@@ -5945,10 +5947,34 @@
         <v>833</v>
       </c>
       <c r="F105" s="13">
-        <v>9564</v>
-      </c>
-      <c r="G105" s="13">
+        <v>9891</v>
+      </c>
+      <c r="G105" s="36">
         <v>293</v>
+      </c>
+      <c r="H105" s="4">
+        <v>5571</v>
+      </c>
+      <c r="I105" s="4">
+        <v>239941</v>
+      </c>
+      <c r="J105" s="4"/>
+      <c r="K105" s="4"/>
+      <c r="L105" s="4">
+        <v>166443</v>
+      </c>
+      <c r="M105" s="18">
+        <v>1022</v>
+      </c>
+      <c r="N105" s="18">
+        <v>12386</v>
+      </c>
+      <c r="O105" s="18">
+        <v>12167</v>
+      </c>
+      <c r="P105" s="4">
+        <f>31577-O105-N105-M105</f>
+        <v>6002</v>
       </c>
     </row>
   </sheetData>
@@ -5960,10 +5986,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C255934D-2CD9-446F-A5BE-CB7D14454E2D}">
-  <dimension ref="A1:F834"/>
+  <dimension ref="A1:F843"/>
   <sheetViews>
-    <sheetView topLeftCell="A816" workbookViewId="0">
-      <selection activeCell="A834" sqref="A834"/>
+    <sheetView topLeftCell="A833" workbookViewId="0">
+      <selection activeCell="D843" sqref="A821:D843"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17446,13 +17472,13 @@
       <c r="A817" s="16">
         <v>43996</v>
       </c>
-      <c r="B817" s="33" t="s">
+      <c r="B817" s="31" t="s">
         <v>29</v>
       </c>
       <c r="C817" s="6">
         <v>61</v>
       </c>
-      <c r="D817" s="33" t="s">
+      <c r="D817" s="31" t="s">
         <v>27</v>
       </c>
     </row>
@@ -17460,13 +17486,13 @@
       <c r="A818" s="16">
         <v>43996</v>
       </c>
-      <c r="B818" s="33" t="s">
+      <c r="B818" s="31" t="s">
         <v>22</v>
       </c>
       <c r="C818" s="6">
         <v>59</v>
       </c>
-      <c r="D818" s="33" t="s">
+      <c r="D818" s="31" t="s">
         <v>23</v>
       </c>
     </row>
@@ -17474,27 +17500,27 @@
       <c r="A819" s="16">
         <v>43996</v>
       </c>
-      <c r="B819" s="33" t="s">
+      <c r="B819" s="31" t="s">
         <v>22</v>
       </c>
       <c r="C819" s="6">
         <v>78</v>
       </c>
-      <c r="D819" s="33" t="s">
+      <c r="D819" s="31" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="820" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A820" s="16">
+      <c r="A820" s="27">
         <v>43996</v>
       </c>
-      <c r="B820" s="33" t="s">
+      <c r="B820" s="31" t="s">
         <v>22</v>
       </c>
       <c r="C820" s="6">
         <v>75</v>
       </c>
-      <c r="D820" s="33" t="s">
+      <c r="D820" s="31" t="s">
         <v>23</v>
       </c>
     </row>
@@ -17502,13 +17528,13 @@
       <c r="A821" s="16">
         <v>43996</v>
       </c>
-      <c r="B821" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="C821" s="6">
+      <c r="B821" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="C821" s="4">
         <v>89</v>
       </c>
-      <c r="D821" s="33" t="s">
+      <c r="D821" s="19" t="s">
         <v>27</v>
       </c>
     </row>
@@ -17516,13 +17542,13 @@
       <c r="A822" s="16">
         <v>43996</v>
       </c>
-      <c r="B822" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="C822" s="6">
+      <c r="B822" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="C822" s="4">
         <v>95</v>
       </c>
-      <c r="D822" s="33" t="s">
+      <c r="D822" s="19" t="s">
         <v>27</v>
       </c>
     </row>
@@ -17530,13 +17556,13 @@
       <c r="A823" s="16">
         <v>43996</v>
       </c>
-      <c r="B823" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="C823" s="6">
+      <c r="B823" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="C823" s="4">
         <v>50</v>
       </c>
-      <c r="D823" s="33" t="s">
+      <c r="D823" s="19" t="s">
         <v>27</v>
       </c>
     </row>
@@ -17544,13 +17570,13 @@
       <c r="A824" s="16">
         <v>43996</v>
       </c>
-      <c r="B824" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="C824" s="6">
+      <c r="B824" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="C824" s="4">
         <v>66</v>
       </c>
-      <c r="D824" s="33" t="s">
+      <c r="D824" s="19" t="s">
         <v>27</v>
       </c>
     </row>
@@ -17558,13 +17584,13 @@
       <c r="A825" s="16">
         <v>43996</v>
       </c>
-      <c r="B825" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="C825" s="6">
+      <c r="B825" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="C825" s="4">
         <v>51</v>
       </c>
-      <c r="D825" s="33" t="s">
+      <c r="D825" s="19" t="s">
         <v>27</v>
       </c>
     </row>
@@ -17572,13 +17598,13 @@
       <c r="A826" s="16">
         <v>43996</v>
       </c>
-      <c r="B826" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="C826" s="6">
+      <c r="B826" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="C826" s="4">
         <v>73</v>
       </c>
-      <c r="D826" s="33" t="s">
+      <c r="D826" s="19" t="s">
         <v>23</v>
       </c>
     </row>
@@ -17586,13 +17612,13 @@
       <c r="A827" s="16">
         <v>43996</v>
       </c>
-      <c r="B827" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="C827" s="6">
+      <c r="B827" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="C827" s="4">
         <v>62</v>
       </c>
-      <c r="D827" s="33" t="s">
+      <c r="D827" s="19" t="s">
         <v>23</v>
       </c>
     </row>
@@ -17600,13 +17626,13 @@
       <c r="A828" s="16">
         <v>43996</v>
       </c>
-      <c r="B828" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="C828" s="6">
+      <c r="B828" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="C828" s="4">
         <v>58</v>
       </c>
-      <c r="D828" s="33" t="s">
+      <c r="D828" s="19" t="s">
         <v>23</v>
       </c>
     </row>
@@ -17614,13 +17640,13 @@
       <c r="A829" s="16">
         <v>43996</v>
       </c>
-      <c r="B829" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="C829" s="6">
+      <c r="B829" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="C829" s="4">
         <v>71</v>
       </c>
-      <c r="D829" s="33" t="s">
+      <c r="D829" s="19" t="s">
         <v>25</v>
       </c>
     </row>
@@ -17628,13 +17654,13 @@
       <c r="A830" s="16">
         <v>43996</v>
       </c>
-      <c r="B830" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="C830" s="6">
+      <c r="B830" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="C830" s="4">
         <v>83</v>
       </c>
-      <c r="D830" s="33" t="s">
+      <c r="D830" s="19" t="s">
         <v>25</v>
       </c>
     </row>
@@ -17642,22 +17668,27 @@
       <c r="A831" s="16">
         <v>43996</v>
       </c>
-      <c r="B831" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="D831" s="33"/>
+      <c r="B831" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="C831" s="4">
+        <v>66</v>
+      </c>
+      <c r="D831" s="19" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="832" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A832" s="16">
         <v>43996</v>
       </c>
-      <c r="B832" s="33" t="s">
+      <c r="B832" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="C832" s="6">
+      <c r="C832" s="4">
         <v>93</v>
       </c>
-      <c r="D832" s="33" t="s">
+      <c r="D832" s="19" t="s">
         <v>27</v>
       </c>
     </row>
@@ -17665,13 +17696,13 @@
       <c r="A833" s="16">
         <v>43996</v>
       </c>
-      <c r="B833" s="33" t="s">
+      <c r="B833" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="C833" s="6">
+      <c r="C833" s="4">
         <v>52</v>
       </c>
-      <c r="D833" s="33" t="s">
+      <c r="D833" s="19" t="s">
         <v>23</v>
       </c>
     </row>
@@ -17679,14 +17710,140 @@
       <c r="A834" s="16">
         <v>43996</v>
       </c>
-      <c r="B834" s="33" t="s">
+      <c r="B834" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="C834" s="6">
+      <c r="C834" s="4">
         <v>32</v>
       </c>
-      <c r="D834" s="33" t="s">
+      <c r="D834" s="19" t="s">
         <v>25</v>
+      </c>
+    </row>
+    <row r="835" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A835" s="16">
+        <v>43997</v>
+      </c>
+      <c r="B835" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="C835" s="4">
+        <v>53</v>
+      </c>
+      <c r="D835" s="19" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="836" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A836" s="16">
+        <v>43997</v>
+      </c>
+      <c r="B836" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="C836" s="4">
+        <v>73</v>
+      </c>
+      <c r="D836" s="19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="837" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A837" s="16">
+        <v>43997</v>
+      </c>
+      <c r="B837" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="C837" s="4">
+        <v>83</v>
+      </c>
+      <c r="D837" s="19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="838" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A838" s="16">
+        <v>43997</v>
+      </c>
+      <c r="B838" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="C838" s="4">
+        <v>88</v>
+      </c>
+      <c r="D838" s="19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="839" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A839" s="16">
+        <v>43997</v>
+      </c>
+      <c r="B839" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="C839" s="4">
+        <v>96</v>
+      </c>
+      <c r="D839" s="19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="840" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A840" s="16">
+        <v>43997</v>
+      </c>
+      <c r="B840" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="C840" s="4">
+        <v>51</v>
+      </c>
+      <c r="D840" s="19" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="841" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A841" s="16">
+        <v>43997</v>
+      </c>
+      <c r="B841" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="C841" s="4">
+        <v>48</v>
+      </c>
+      <c r="D841" s="19" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="842" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A842" s="16">
+        <v>43997</v>
+      </c>
+      <c r="B842" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="C842" s="4">
+        <v>62</v>
+      </c>
+      <c r="D842" s="19" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="843" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A843" s="16">
+        <v>43997</v>
+      </c>
+      <c r="B843" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="C843" s="4">
+        <v>78</v>
+      </c>
+      <c r="D843" s="19" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -17699,8 +17856,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A57CA6F3-BC06-4B65-9752-C1012701CA2A}">
   <dimension ref="A1:H2442"/>
   <sheetViews>
-    <sheetView topLeftCell="A2396" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C2442" sqref="C2396:C2442"/>
+    <sheetView topLeftCell="A2419" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D2442" sqref="D2442"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -51257,7 +51414,7 @@
       <c r="C2398" s="4">
         <v>49</v>
       </c>
-      <c r="D2398" s="34"/>
+      <c r="D2398" s="32"/>
     </row>
     <row r="2399" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2399" s="28" t="s">
@@ -51457,7 +51614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2417" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2417" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2417" s="5" t="s">
         <v>66</v>
       </c>
@@ -51468,7 +51625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2418" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2418" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2418" s="5" t="s">
         <v>67</v>
       </c>
@@ -51479,7 +51636,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2419" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2419" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2419" s="5" t="s">
         <v>27</v>
       </c>
@@ -51489,8 +51646,11 @@
       <c r="C2419" s="4">
         <v>635</v>
       </c>
-    </row>
-    <row r="2420" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2419" s="6">
+        <v>13196</v>
+      </c>
+    </row>
+    <row r="2420" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2420" s="5" t="s">
         <v>23</v>
       </c>
@@ -51500,8 +51660,11 @@
       <c r="C2420" s="4">
         <v>558</v>
       </c>
-    </row>
-    <row r="2421" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2420" s="6">
+        <v>14707</v>
+      </c>
+    </row>
+    <row r="2421" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2421" s="26" t="s">
         <v>55</v>
       </c>
@@ -51511,8 +51674,11 @@
       <c r="C2421" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="2422" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2421" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2422" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2422" s="5" t="s">
         <v>25</v>
       </c>
@@ -51522,8 +51688,11 @@
       <c r="C2422" s="4">
         <v>27</v>
       </c>
-    </row>
-    <row r="2423" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2422" s="6">
+        <v>1326</v>
+      </c>
+    </row>
+    <row r="2423" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2423" s="28" t="s">
         <v>56</v>
       </c>
@@ -51533,8 +51702,11 @@
       <c r="C2423" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="2424" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2423" s="6">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2424" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2424" s="5" t="s">
         <v>42</v>
       </c>
@@ -51544,8 +51716,11 @@
       <c r="C2424" s="4">
         <v>6</v>
       </c>
-    </row>
-    <row r="2425" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2424" s="6">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="2425" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2425" s="5" t="s">
         <v>57</v>
       </c>
@@ -51555,8 +51730,11 @@
       <c r="C2425" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="2426" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2425" s="6">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="2426" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2426" s="5" t="s">
         <v>58</v>
       </c>
@@ -51566,8 +51744,11 @@
       <c r="C2426" s="4">
         <v>15</v>
       </c>
-    </row>
-    <row r="2427" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2426" s="6">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="2427" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2427" s="5" t="s">
         <v>68</v>
       </c>
@@ -51577,8 +51758,11 @@
       <c r="C2427" s="4">
         <v>6</v>
       </c>
-    </row>
-    <row r="2428" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2427" s="6">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2428" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2428" s="5" t="s">
         <v>59</v>
       </c>
@@ -51588,8 +51772,11 @@
       <c r="C2428" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="2429" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2428" s="6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2429" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2429" s="5" t="s">
         <v>60</v>
       </c>
@@ -51599,8 +51786,11 @@
       <c r="C2429" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="2430" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2429" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2430" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2430" s="5" t="s">
         <v>43</v>
       </c>
@@ -51610,8 +51800,11 @@
       <c r="C2430" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="2431" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2430" s="6">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2431" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2431" s="5" t="s">
         <v>35</v>
       </c>
@@ -51621,8 +51814,11 @@
       <c r="C2431" s="4">
         <v>7</v>
       </c>
-    </row>
-    <row r="2432" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2431" s="6">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="2432" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2432" s="5" t="s">
         <v>45</v>
       </c>
@@ -51632,8 +51828,11 @@
       <c r="C2432" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="2433" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2432" s="6">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2433" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2433" s="5" t="s">
         <v>40</v>
       </c>
@@ -51643,8 +51842,11 @@
       <c r="C2433" s="4">
         <v>9</v>
       </c>
-    </row>
-    <row r="2434" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2433" s="6">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="2434" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2434" s="5" t="s">
         <v>37</v>
       </c>
@@ -51654,8 +51856,11 @@
       <c r="C2434" s="4">
         <v>6</v>
       </c>
-    </row>
-    <row r="2435" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2434" s="6">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="2435" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2435" s="5" t="s">
         <v>61</v>
       </c>
@@ -51665,8 +51870,11 @@
       <c r="C2435" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="2436" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2435" s="6">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2436" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2436" s="5" t="s">
         <v>62</v>
       </c>
@@ -51676,8 +51884,11 @@
       <c r="C2436" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="2437" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2436" s="6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2437" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2437" s="5" t="s">
         <v>63</v>
       </c>
@@ -51687,8 +51898,11 @@
       <c r="C2437" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="2438" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2437" s="6">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2438" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2438" s="5" t="s">
         <v>64</v>
       </c>
@@ -51698,8 +51912,11 @@
       <c r="C2438" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="2439" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2438" s="6">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2439" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2439" s="5" t="s">
         <v>44</v>
       </c>
@@ -51709,8 +51926,11 @@
       <c r="C2439" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="2440" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2439" s="6">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="2440" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2440" s="5" t="s">
         <v>65</v>
       </c>
@@ -51720,8 +51940,11 @@
       <c r="C2440" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="2441" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2440" s="6">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2441" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2441" s="5" t="s">
         <v>66</v>
       </c>
@@ -51731,8 +51954,11 @@
       <c r="C2441" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="2442" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2441" s="6">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="2442" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2442" s="5" t="s">
         <v>67</v>
       </c>
@@ -51741,6 +51967,9 @@
       </c>
       <c r="C2442" s="4">
         <v>6</v>
+      </c>
+      <c r="D2442" s="6">
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -51750,12 +51979,12 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41FC76FE-1A63-4E59-BFE1-BA7DA5FEAD63}">
-  <dimension ref="A1:M48"/>
+  <dimension ref="A1:M49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="I1" sqref="I1"/>
-      <selection pane="bottomLeft" activeCell="E48" sqref="E48"/>
+      <selection pane="bottomLeft" activeCell="C49" sqref="C49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -53728,6 +53957,47 @@
         <v>1261</v>
       </c>
     </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A49" s="14">
+        <v>43996</v>
+      </c>
+      <c r="B49">
+        <v>31564</v>
+      </c>
+      <c r="C49">
+        <v>49.36</v>
+      </c>
+      <c r="D49">
+        <v>50.22</v>
+      </c>
+      <c r="E49">
+        <v>2228</v>
+      </c>
+      <c r="F49">
+        <v>2615</v>
+      </c>
+      <c r="G49">
+        <v>6262</v>
+      </c>
+      <c r="H49">
+        <v>6805</v>
+      </c>
+      <c r="I49">
+        <v>5377</v>
+      </c>
+      <c r="J49">
+        <v>3727</v>
+      </c>
+      <c r="K49">
+        <v>1991</v>
+      </c>
+      <c r="L49">
+        <v>1227</v>
+      </c>
+      <c r="M49">
+        <v>1302</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/argentina.xlsx
+++ b/data/argentina.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\COVID\covid19Page\covid\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3000B1A-B6DF-4DA6-BD2E-C7CD1C5ACABB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09ACE1A5-A3D0-4629-8EC0-248A64B6CEF6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9555" yWindow="405" windowWidth="9945" windowHeight="10515" xr2:uid="{FD99AC7E-67B3-424D-874D-40A6E057BF54}"/>
+    <workbookView xWindow="11055" yWindow="1320" windowWidth="12825" windowHeight="7050" tabRatio="472" firstSheet="2" activeTab="3" xr2:uid="{FD99AC7E-67B3-424D-874D-40A6E057BF54}"/>
   </bookViews>
   <sheets>
     <sheet name="argentina_gral" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4184" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4256" uniqueCount="81">
   <si>
     <t>D¡a</t>
   </si>
@@ -324,7 +324,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -392,19 +392,6 @@
         <color indexed="64"/>
       </right>
       <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -501,19 +488,19 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -831,11 +818,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D48F336C-A519-44F7-9544-8D5A56C7FEE1}">
-  <dimension ref="A1:Q105"/>
+  <dimension ref="A1:Q106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A95" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J105" sqref="J105"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A101" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D106" sqref="A106:XFD106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5824,7 +5811,7 @@
       <c r="A103" s="9">
         <v>43994</v>
       </c>
-      <c r="B103" s="33">
+      <c r="B103" s="32">
         <v>1391</v>
       </c>
       <c r="C103" s="11">
@@ -5834,7 +5821,7 @@
       <c r="D103" s="11">
         <v>20</v>
       </c>
-      <c r="E103" s="34">
+      <c r="E103" s="33">
         <v>785</v>
       </c>
       <c r="F103" s="10">
@@ -5852,7 +5839,7 @@
       <c r="J103" s="11">
         <v>797</v>
       </c>
-      <c r="K103" s="35">
+      <c r="K103" s="34">
         <v>158691</v>
       </c>
       <c r="L103" s="11">
@@ -5949,17 +5936,19 @@
       <c r="F105" s="13">
         <v>9891</v>
       </c>
-      <c r="G105" s="36">
-        <v>293</v>
-      </c>
+      <c r="G105" s="35"/>
       <c r="H105" s="4">
         <v>5571</v>
       </c>
       <c r="I105" s="4">
         <v>239941</v>
       </c>
-      <c r="J105" s="4"/>
-      <c r="K105" s="4"/>
+      <c r="J105" s="4">
+        <v>832</v>
+      </c>
+      <c r="K105" s="4">
+        <v>165611</v>
+      </c>
       <c r="L105" s="4">
         <v>166443</v>
       </c>
@@ -5975,6 +5964,62 @@
       <c r="P105" s="4">
         <f>31577-O105-N105-M105</f>
         <v>6002</v>
+      </c>
+    </row>
+    <row r="106" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="2">
+        <v>43997</v>
+      </c>
+      <c r="B106" s="17">
+        <v>1208</v>
+      </c>
+      <c r="C106" s="4">
+        <f>C105+B106</f>
+        <v>32785</v>
+      </c>
+      <c r="D106" s="4">
+        <f>12+9</f>
+        <v>21</v>
+      </c>
+      <c r="E106" s="4">
+        <f>E105+D106</f>
+        <v>854</v>
+      </c>
+      <c r="F106" s="13">
+        <v>10164</v>
+      </c>
+      <c r="G106" s="36">
+        <v>324</v>
+      </c>
+      <c r="H106" s="4">
+        <v>5118</v>
+      </c>
+      <c r="I106" s="4">
+        <f>I105+H106</f>
+        <v>245059</v>
+      </c>
+      <c r="J106" s="4">
+        <v>847</v>
+      </c>
+      <c r="K106" s="4">
+        <v>168596</v>
+      </c>
+      <c r="L106" s="4">
+        <f>K106+J106</f>
+        <v>169443</v>
+      </c>
+      <c r="M106" s="18">
+        <v>1028</v>
+      </c>
+      <c r="N106" s="18">
+        <v>12835</v>
+      </c>
+      <c r="O106" s="18">
+        <v>12828</v>
+      </c>
+      <c r="P106" s="4">
+        <f>32785-O106-N106-M106</f>
+        <v>6094</v>
       </c>
     </row>
   </sheetData>
@@ -5986,10 +6031,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C255934D-2CD9-446F-A5BE-CB7D14454E2D}">
-  <dimension ref="A1:F843"/>
+  <dimension ref="A1:F867"/>
   <sheetViews>
-    <sheetView topLeftCell="A833" workbookViewId="0">
-      <selection activeCell="D843" sqref="A821:D843"/>
+    <sheetView topLeftCell="A853" workbookViewId="0">
+      <selection activeCell="A867" sqref="A867"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17846,6 +17891,342 @@
         <v>27</v>
       </c>
     </row>
+    <row r="844" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A844" s="16">
+        <v>43997</v>
+      </c>
+      <c r="B844" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="C844" s="4">
+        <v>62</v>
+      </c>
+      <c r="D844" s="19" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="845" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A845" s="16">
+        <v>43997</v>
+      </c>
+      <c r="B845" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="C845" s="4">
+        <v>63</v>
+      </c>
+      <c r="D845" s="19" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="846" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A846" s="16">
+        <v>43997</v>
+      </c>
+      <c r="B846" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="C846" s="4">
+        <v>66</v>
+      </c>
+      <c r="D846" s="19" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="847" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A847" s="16">
+        <v>43997</v>
+      </c>
+      <c r="B847" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="C847" s="4">
+        <v>68</v>
+      </c>
+      <c r="D847" s="19" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="848" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A848" s="16">
+        <v>43997</v>
+      </c>
+      <c r="B848" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="C848" s="4">
+        <v>76</v>
+      </c>
+      <c r="D848" s="19" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="849" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A849" s="16">
+        <v>43997</v>
+      </c>
+      <c r="B849" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="C849" s="4">
+        <v>54</v>
+      </c>
+      <c r="D849" s="19" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="850" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A850" s="16">
+        <v>43997</v>
+      </c>
+      <c r="B850" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="C850" s="4">
+        <v>55</v>
+      </c>
+      <c r="D850" s="19" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="851" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A851" s="16">
+        <v>43997</v>
+      </c>
+      <c r="B851" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="C851" s="4">
+        <v>40</v>
+      </c>
+      <c r="D851" s="19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="852" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A852" s="16">
+        <v>43997</v>
+      </c>
+      <c r="B852" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="C852" s="4">
+        <v>72</v>
+      </c>
+      <c r="D852" s="19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="853" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A853" s="16">
+        <v>43997</v>
+      </c>
+      <c r="B853" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="C853" s="4">
+        <v>67</v>
+      </c>
+      <c r="D853" s="19" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="854" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A854" s="16">
+        <v>43997</v>
+      </c>
+      <c r="B854" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="C854" s="4">
+        <v>64</v>
+      </c>
+      <c r="D854" s="19" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="855" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A855" s="16">
+        <v>43997</v>
+      </c>
+      <c r="B855" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C855" s="4">
+        <v>92</v>
+      </c>
+      <c r="D855" s="19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="856" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A856" s="16">
+        <v>43998</v>
+      </c>
+      <c r="B856" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="C856" s="4">
+        <v>62</v>
+      </c>
+      <c r="D856" s="19" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="857" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A857" s="16">
+        <v>43998</v>
+      </c>
+      <c r="B857" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="C857" s="4">
+        <v>63</v>
+      </c>
+      <c r="D857" s="19" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="858" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A858" s="16">
+        <v>43998</v>
+      </c>
+      <c r="B858" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="C858" s="4">
+        <v>66</v>
+      </c>
+      <c r="D858" s="19" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="859" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A859" s="16">
+        <v>43998</v>
+      </c>
+      <c r="B859" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="C859" s="4">
+        <v>68</v>
+      </c>
+      <c r="D859" s="19" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="860" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A860" s="16">
+        <v>43998</v>
+      </c>
+      <c r="B860" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="C860" s="4">
+        <v>76</v>
+      </c>
+      <c r="D860" s="19" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="861" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A861" s="16">
+        <v>43998</v>
+      </c>
+      <c r="B861" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="C861" s="4">
+        <v>54</v>
+      </c>
+      <c r="D861" s="19" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="862" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A862" s="16">
+        <v>43998</v>
+      </c>
+      <c r="B862" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="C862" s="4">
+        <v>55</v>
+      </c>
+      <c r="D862" s="19" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="863" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A863" s="16">
+        <v>43998</v>
+      </c>
+      <c r="B863" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="C863" s="4">
+        <v>40</v>
+      </c>
+      <c r="D863" s="19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="864" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A864" s="16">
+        <v>43998</v>
+      </c>
+      <c r="B864" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="C864" s="4">
+        <v>72</v>
+      </c>
+      <c r="D864" s="19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="865" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A865" s="16">
+        <v>43998</v>
+      </c>
+      <c r="B865" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="C865" s="4">
+        <v>67</v>
+      </c>
+      <c r="D865" s="19" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="866" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A866" s="16">
+        <v>43998</v>
+      </c>
+      <c r="B866" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="C866" s="4">
+        <v>64</v>
+      </c>
+      <c r="D866" s="19" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="867" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A867" s="16">
+        <v>43998</v>
+      </c>
+      <c r="B867" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="C867" s="4">
+        <v>92</v>
+      </c>
+      <c r="D867" s="19" t="s">
+        <v>23</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:F803" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -17854,10 +18235,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A57CA6F3-BC06-4B65-9752-C1012701CA2A}">
-  <dimension ref="A1:H2442"/>
+  <dimension ref="A1:H2466"/>
   <sheetViews>
-    <sheetView topLeftCell="A2419" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D2442" sqref="D2442"/>
+    <sheetView topLeftCell="A2454" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D2466" sqref="B2382:D2466"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -51378,9 +51759,10 @@
       <c r="B2395" s="16">
         <v>43995</v>
       </c>
-      <c r="C2395" s="6">
+      <c r="C2395" s="4">
         <v>849</v>
       </c>
+      <c r="D2395" s="4"/>
     </row>
     <row r="2396" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2396" s="5" t="s">
@@ -51392,17 +51774,19 @@
       <c r="C2396" s="4">
         <v>558</v>
       </c>
+      <c r="D2396" s="4"/>
     </row>
     <row r="2397" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2397" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="B2397" s="27">
+      <c r="B2397" s="16">
         <v>43995</v>
       </c>
       <c r="C2397" s="4">
         <v>0</v>
       </c>
+      <c r="D2397" s="4"/>
     </row>
     <row r="2398" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2398" s="5" t="s">
@@ -51414,18 +51798,19 @@
       <c r="C2398" s="4">
         <v>49</v>
       </c>
-      <c r="D2398" s="32"/>
+      <c r="D2398" s="4"/>
     </row>
     <row r="2399" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2399" s="28" t="s">
         <v>56</v>
       </c>
-      <c r="B2399" s="29">
+      <c r="B2399" s="16">
         <v>43995</v>
       </c>
       <c r="C2399" s="4">
         <v>9</v>
       </c>
+      <c r="D2399" s="4"/>
     </row>
     <row r="2400" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2400" s="5" t="s">
@@ -51437,8 +51822,9 @@
       <c r="C2400" s="4">
         <v>6</v>
       </c>
-    </row>
-    <row r="2401" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2400" s="4"/>
+    </row>
+    <row r="2401" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2401" s="5" t="s">
         <v>57</v>
       </c>
@@ -51448,8 +51834,9 @@
       <c r="C2401" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="2402" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2401" s="4"/>
+    </row>
+    <row r="2402" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2402" s="5" t="s">
         <v>58</v>
       </c>
@@ -51459,8 +51846,9 @@
       <c r="C2402" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="2403" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2402" s="4"/>
+    </row>
+    <row r="2403" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2403" s="5" t="s">
         <v>68</v>
       </c>
@@ -51470,8 +51858,9 @@
       <c r="C2403" s="4">
         <v>26</v>
       </c>
-    </row>
-    <row r="2404" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2403" s="4"/>
+    </row>
+    <row r="2404" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2404" s="5" t="s">
         <v>59</v>
       </c>
@@ -51481,8 +51870,9 @@
       <c r="C2404" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="2405" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2404" s="4"/>
+    </row>
+    <row r="2405" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2405" s="5" t="s">
         <v>60</v>
       </c>
@@ -51492,8 +51882,9 @@
       <c r="C2405" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="2406" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2405" s="4"/>
+    </row>
+    <row r="2406" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2406" s="5" t="s">
         <v>43</v>
       </c>
@@ -51503,8 +51894,9 @@
       <c r="C2406" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="2407" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2406" s="4"/>
+    </row>
+    <row r="2407" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2407" s="5" t="s">
         <v>35</v>
       </c>
@@ -51514,8 +51906,9 @@
       <c r="C2407" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="2408" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2407" s="4"/>
+    </row>
+    <row r="2408" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2408" s="5" t="s">
         <v>45</v>
       </c>
@@ -51525,8 +51918,9 @@
       <c r="C2408" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="2409" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2408" s="4"/>
+    </row>
+    <row r="2409" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2409" s="5" t="s">
         <v>40</v>
       </c>
@@ -51536,8 +51930,9 @@
       <c r="C2409" s="4">
         <v>13</v>
       </c>
-    </row>
-    <row r="2410" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2409" s="4"/>
+    </row>
+    <row r="2410" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2410" s="5" t="s">
         <v>37</v>
       </c>
@@ -51547,8 +51942,9 @@
       <c r="C2410" s="4">
         <v>13</v>
       </c>
-    </row>
-    <row r="2411" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2410" s="4"/>
+    </row>
+    <row r="2411" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2411" s="5" t="s">
         <v>61</v>
       </c>
@@ -51558,8 +51954,9 @@
       <c r="C2411" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="2412" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2411" s="4"/>
+    </row>
+    <row r="2412" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2412" s="5" t="s">
         <v>62</v>
       </c>
@@ -51569,8 +51966,9 @@
       <c r="C2412" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="2413" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2412" s="4"/>
+    </row>
+    <row r="2413" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2413" s="5" t="s">
         <v>63</v>
       </c>
@@ -51580,8 +51978,9 @@
       <c r="C2413" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="2414" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2413" s="4"/>
+    </row>
+    <row r="2414" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2414" s="5" t="s">
         <v>64</v>
       </c>
@@ -51591,8 +51990,9 @@
       <c r="C2414" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="2415" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2414" s="4"/>
+    </row>
+    <row r="2415" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2415" s="5" t="s">
         <v>44</v>
       </c>
@@ -51602,8 +52002,9 @@
       <c r="C2415" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="2416" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2415" s="4"/>
+    </row>
+    <row r="2416" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2416" s="5" t="s">
         <v>65</v>
       </c>
@@ -51613,6 +52014,7 @@
       <c r="C2416" s="4">
         <v>0</v>
       </c>
+      <c r="D2416" s="4"/>
     </row>
     <row r="2417" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2417" s="5" t="s">
@@ -51624,6 +52026,7 @@
       <c r="C2417" s="4">
         <v>0</v>
       </c>
+      <c r="D2417" s="4"/>
     </row>
     <row r="2418" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2418" s="5" t="s">
@@ -51635,6 +52038,7 @@
       <c r="C2418" s="4">
         <v>1</v>
       </c>
+      <c r="D2418" s="4"/>
     </row>
     <row r="2419" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2419" s="5" t="s">
@@ -51646,7 +52050,7 @@
       <c r="C2419" s="4">
         <v>635</v>
       </c>
-      <c r="D2419" s="6">
+      <c r="D2419" s="4">
         <v>13196</v>
       </c>
     </row>
@@ -51660,7 +52064,7 @@
       <c r="C2420" s="4">
         <v>558</v>
       </c>
-      <c r="D2420" s="6">
+      <c r="D2420" s="4">
         <v>14707</v>
       </c>
     </row>
@@ -51674,7 +52078,7 @@
       <c r="C2421" s="4">
         <v>0</v>
       </c>
-      <c r="D2421" s="6">
+      <c r="D2421" s="4">
         <v>0</v>
       </c>
     </row>
@@ -51688,7 +52092,7 @@
       <c r="C2422" s="4">
         <v>27</v>
       </c>
-      <c r="D2422" s="6">
+      <c r="D2422" s="4">
         <v>1326</v>
       </c>
     </row>
@@ -51702,7 +52106,7 @@
       <c r="C2423" s="4">
         <v>2</v>
       </c>
-      <c r="D2423" s="6">
+      <c r="D2423" s="4">
         <v>41</v>
       </c>
     </row>
@@ -51716,7 +52120,7 @@
       <c r="C2424" s="4">
         <v>6</v>
       </c>
-      <c r="D2424" s="6">
+      <c r="D2424" s="4">
         <v>495</v>
       </c>
     </row>
@@ -51730,7 +52134,7 @@
       <c r="C2425" s="4">
         <v>2</v>
       </c>
-      <c r="D2425" s="6">
+      <c r="D2425" s="4">
         <v>103</v>
       </c>
     </row>
@@ -51744,7 +52148,7 @@
       <c r="C2426" s="4">
         <v>15</v>
       </c>
-      <c r="D2426" s="6">
+      <c r="D2426" s="4">
         <v>86</v>
       </c>
     </row>
@@ -51758,7 +52162,7 @@
       <c r="C2427" s="4">
         <v>6</v>
       </c>
-      <c r="D2427" s="6">
+      <c r="D2427" s="4">
         <v>33</v>
       </c>
     </row>
@@ -51772,7 +52176,7 @@
       <c r="C2428" s="4">
         <v>0</v>
       </c>
-      <c r="D2428" s="6">
+      <c r="D2428" s="4">
         <v>8</v>
       </c>
     </row>
@@ -51786,7 +52190,7 @@
       <c r="C2429" s="4">
         <v>1</v>
       </c>
-      <c r="D2429" s="6">
+      <c r="D2429" s="4">
         <v>6</v>
       </c>
     </row>
@@ -51800,7 +52204,7 @@
       <c r="C2430" s="4">
         <v>0</v>
       </c>
-      <c r="D2430" s="6">
+      <c r="D2430" s="4">
         <v>64</v>
       </c>
     </row>
@@ -51814,7 +52218,7 @@
       <c r="C2431" s="4">
         <v>7</v>
       </c>
-      <c r="D2431" s="6">
+      <c r="D2431" s="4">
         <v>112</v>
       </c>
     </row>
@@ -51828,7 +52232,7 @@
       <c r="C2432" s="4">
         <v>0</v>
       </c>
-      <c r="D2432" s="6">
+      <c r="D2432" s="4">
         <v>37</v>
       </c>
     </row>
@@ -51842,7 +52246,7 @@
       <c r="C2433" s="4">
         <v>9</v>
       </c>
-      <c r="D2433" s="6">
+      <c r="D2433" s="4">
         <v>209</v>
       </c>
     </row>
@@ -51856,7 +52260,7 @@
       <c r="C2434" s="4">
         <v>6</v>
       </c>
-      <c r="D2434" s="6">
+      <c r="D2434" s="4">
         <v>552</v>
       </c>
     </row>
@@ -51870,7 +52274,7 @@
       <c r="C2435" s="4">
         <v>2</v>
       </c>
-      <c r="D2435" s="6">
+      <c r="D2435" s="4">
         <v>21</v>
       </c>
     </row>
@@ -51884,7 +52288,7 @@
       <c r="C2436" s="4">
         <v>0</v>
       </c>
-      <c r="D2436" s="6">
+      <c r="D2436" s="4">
         <v>7</v>
       </c>
     </row>
@@ -51898,7 +52302,7 @@
       <c r="C2437" s="4">
         <v>0</v>
       </c>
-      <c r="D2437" s="6">
+      <c r="D2437" s="4">
         <v>11</v>
       </c>
     </row>
@@ -51912,7 +52316,7 @@
       <c r="C2438" s="4">
         <v>0</v>
       </c>
-      <c r="D2438" s="6">
+      <c r="D2438" s="4">
         <v>51</v>
       </c>
     </row>
@@ -51926,7 +52330,7 @@
       <c r="C2439" s="4">
         <v>0</v>
       </c>
-      <c r="D2439" s="6">
+      <c r="D2439" s="4">
         <v>285</v>
       </c>
     </row>
@@ -51940,7 +52344,7 @@
       <c r="C2440" s="4">
         <v>0</v>
       </c>
-      <c r="D2440" s="6">
+      <c r="D2440" s="4">
         <v>22</v>
       </c>
     </row>
@@ -51954,7 +52358,7 @@
       <c r="C2441" s="4">
         <v>0</v>
       </c>
-      <c r="D2441" s="6">
+      <c r="D2441" s="4">
         <v>149</v>
       </c>
     </row>
@@ -51968,7 +52372,343 @@
       <c r="C2442" s="4">
         <v>6</v>
       </c>
-      <c r="D2442" s="6">
+      <c r="D2442" s="4">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2443" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2443" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2443" s="16">
+        <v>43997</v>
+      </c>
+      <c r="C2443" s="4">
+        <v>552</v>
+      </c>
+      <c r="D2443" s="4">
+        <v>13748</v>
+      </c>
+    </row>
+    <row r="2444" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2444" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2444" s="16">
+        <v>43997</v>
+      </c>
+      <c r="C2444" s="4">
+        <v>575</v>
+      </c>
+      <c r="D2444" s="4">
+        <v>15282</v>
+      </c>
+    </row>
+    <row r="2445" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2445" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2445" s="16">
+        <v>43997</v>
+      </c>
+      <c r="C2445" s="4">
+        <v>0</v>
+      </c>
+      <c r="D2445" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2446" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2446" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2446" s="16">
+        <v>43997</v>
+      </c>
+      <c r="C2446" s="4">
+        <v>38</v>
+      </c>
+      <c r="D2446" s="4">
+        <v>1364</v>
+      </c>
+    </row>
+    <row r="2447" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2447" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="B2447" s="16">
+        <v>43997</v>
+      </c>
+      <c r="C2447" s="4">
+        <v>22</v>
+      </c>
+      <c r="D2447" s="4">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2448" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2448" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2448" s="16">
+        <v>43997</v>
+      </c>
+      <c r="C2448" s="4">
+        <v>2</v>
+      </c>
+      <c r="D2448" s="4">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="2449" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2449" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2449" s="16">
+        <v>43997</v>
+      </c>
+      <c r="C2449" s="4">
+        <v>1</v>
+      </c>
+      <c r="D2449" s="4">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="2450" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2450" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B2450" s="16">
+        <v>43997</v>
+      </c>
+      <c r="C2450" s="4">
+        <v>2</v>
+      </c>
+      <c r="D2450" s="4">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="2451" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2451" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B2451" s="16">
+        <v>43997</v>
+      </c>
+      <c r="C2451" s="4">
+        <v>0</v>
+      </c>
+      <c r="D2451" s="4">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2452" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2452" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2452" s="16">
+        <v>43997</v>
+      </c>
+      <c r="C2452" s="4">
+        <v>0</v>
+      </c>
+      <c r="D2452" s="4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2453" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2453" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B2453" s="16">
+        <v>43997</v>
+      </c>
+      <c r="C2453" s="4">
+        <v>0</v>
+      </c>
+      <c r="D2453" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2454" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2454" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2454" s="16">
+        <v>43997</v>
+      </c>
+      <c r="C2454" s="4">
+        <v>0</v>
+      </c>
+      <c r="D2454" s="4">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2455" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2455" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2455" s="16">
+        <v>43997</v>
+      </c>
+      <c r="C2455" s="4">
+        <v>0</v>
+      </c>
+      <c r="D2455" s="4">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="2456" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2456" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2456" s="16">
+        <v>43997</v>
+      </c>
+      <c r="C2456" s="4">
+        <v>1</v>
+      </c>
+      <c r="D2456" s="4">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2457" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2457" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2457" s="16">
+        <v>43997</v>
+      </c>
+      <c r="C2457" s="4">
+        <v>3</v>
+      </c>
+      <c r="D2457" s="4">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="2458" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2458" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2458" s="16">
+        <v>43997</v>
+      </c>
+      <c r="C2458" s="4">
+        <v>12</v>
+      </c>
+      <c r="D2458" s="4">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="2459" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2459" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B2459" s="16">
+        <v>43997</v>
+      </c>
+      <c r="C2459" s="4">
+        <v>0</v>
+      </c>
+      <c r="D2459" s="4">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2460" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2460" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B2460" s="16">
+        <v>43997</v>
+      </c>
+      <c r="C2460" s="4">
+        <v>0</v>
+      </c>
+      <c r="D2460" s="4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2461" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2461" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B2461" s="16">
+        <v>43997</v>
+      </c>
+      <c r="C2461" s="4">
+        <v>0</v>
+      </c>
+      <c r="D2461" s="4">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2462" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2462" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B2462" s="16">
+        <v>43997</v>
+      </c>
+      <c r="C2462" s="4">
+        <v>0</v>
+      </c>
+      <c r="D2462" s="4">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2463" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2463" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2463" s="16">
+        <v>43997</v>
+      </c>
+      <c r="C2463" s="4">
+        <v>0</v>
+      </c>
+      <c r="D2463" s="4">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="2464" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2464" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B2464" s="16">
+        <v>43997</v>
+      </c>
+      <c r="C2464" s="4">
+        <v>0</v>
+      </c>
+      <c r="D2464" s="4">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2465" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2465" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B2465" s="16">
+        <v>43997</v>
+      </c>
+      <c r="C2465" s="4">
+        <v>0</v>
+      </c>
+      <c r="D2465" s="4">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="2466" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2466" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B2466" s="16">
+        <v>43997</v>
+      </c>
+      <c r="C2466" s="4">
+        <v>0</v>
+      </c>
+      <c r="D2466" s="4">
         <v>56</v>
       </c>
     </row>
@@ -51979,2023 +52719,2064 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41FC76FE-1A63-4E59-BFE1-BA7DA5FEAD63}">
-  <dimension ref="A1:M49"/>
+  <dimension ref="A1:M50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="I1" sqref="I1"/>
-      <selection pane="bottomLeft" activeCell="C49" sqref="C49"/>
+      <selection pane="bottomLeft" activeCell="F50" sqref="F50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="1" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="14">
+      <c r="A2" s="2">
         <v>43932</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="1">
         <v>2133</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="1">
         <v>46.7</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="1">
         <v>53.3</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="1">
         <v>39</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="1">
         <v>68</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="1">
         <v>322</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="1">
         <v>421</v>
       </c>
-      <c r="I2">
+      <c r="I2" s="1">
         <v>385</v>
       </c>
-      <c r="J2">
+      <c r="J2" s="1">
         <v>347</v>
       </c>
-      <c r="K2">
+      <c r="K2" s="1">
         <v>273</v>
       </c>
-      <c r="L2">
+      <c r="L2" s="1">
         <v>188</v>
       </c>
-      <c r="M2">
+      <c r="M2" s="1">
         <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="14">
+      <c r="A3" s="2">
         <v>43933</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="1">
         <v>2201</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="1">
         <v>47</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="1">
         <v>53</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="1">
         <v>40</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="1">
         <v>72</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="1">
         <v>346</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="1">
         <v>433</v>
       </c>
-      <c r="I3">
+      <c r="I3" s="1">
         <v>395</v>
       </c>
-      <c r="J3">
+      <c r="J3" s="1">
         <v>353</v>
       </c>
-      <c r="K3">
+      <c r="K3" s="1">
         <v>276</v>
       </c>
-      <c r="L3">
+      <c r="L3" s="1">
         <v>192</v>
       </c>
-      <c r="M3">
+      <c r="M3" s="1">
         <v>94</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="14">
+      <c r="A4" s="2">
         <v>43934</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="1">
         <v>2270</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="1">
         <v>47.4</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="1">
         <v>52.6</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="1">
         <v>42</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="1">
         <v>73</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="1">
         <v>363</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="1">
         <v>474</v>
       </c>
-      <c r="I4">
+      <c r="I4" s="1">
         <v>403</v>
       </c>
-      <c r="J4">
+      <c r="J4" s="1">
         <v>367</v>
       </c>
-      <c r="K4">
+      <c r="K4" s="1">
         <v>282</v>
       </c>
-      <c r="L4">
+      <c r="L4" s="1">
         <v>194</v>
       </c>
-      <c r="M4">
+      <c r="M4" s="1">
         <v>99</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="14">
+      <c r="A5" s="2">
         <v>43935</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="1">
         <v>2430</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="1">
         <v>48.1</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="1">
         <v>51.9</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="1">
         <v>48</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="1">
         <v>80</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="1">
         <v>395</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="1">
         <v>478</v>
       </c>
-      <c r="I5">
+      <c r="I5" s="1">
         <v>440</v>
       </c>
-      <c r="J5">
+      <c r="J5" s="1">
         <v>393</v>
       </c>
-      <c r="K5">
+      <c r="K5" s="1">
         <v>285</v>
       </c>
-      <c r="L5">
+      <c r="L5" s="1">
         <v>199</v>
       </c>
-      <c r="M5">
+      <c r="M5" s="1">
         <v>112</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="14">
+      <c r="A6" s="2">
         <v>43936</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="1">
         <v>2558</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="1">
         <v>48.5</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="1">
         <v>51.5</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="1">
         <v>52</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="1">
         <v>85</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="1">
         <v>415</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="1">
         <v>507</v>
       </c>
-      <c r="I6">
+      <c r="I6" s="1">
         <v>468</v>
       </c>
-      <c r="J6">
+      <c r="J6" s="1">
         <v>411</v>
       </c>
-      <c r="K6">
+      <c r="K6" s="1">
         <v>294</v>
       </c>
-      <c r="L6">
+      <c r="L6" s="1">
         <v>209</v>
       </c>
-      <c r="M6">
+      <c r="M6" s="1">
         <v>117</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="14">
+      <c r="A7" s="2">
         <v>43937</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="1">
         <v>2656</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="1">
         <v>48.8</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="1">
         <v>51.2</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="1">
         <v>56</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="1">
         <v>88</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="1">
         <v>432</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="1">
         <v>531</v>
       </c>
-      <c r="I7">
+      <c r="I7" s="1">
         <v>479</v>
       </c>
-      <c r="J7">
+      <c r="J7" s="1">
         <v>434</v>
       </c>
-      <c r="K7">
+      <c r="K7" s="1">
         <v>300</v>
       </c>
-      <c r="L7">
+      <c r="L7" s="1">
         <v>211</v>
       </c>
-      <c r="M7">
+      <c r="M7" s="1">
         <v>126</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="14">
+      <c r="A8" s="2">
         <v>43938</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="1">
         <v>2745</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="1">
         <v>48.9</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="1">
         <v>51.1</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="1">
         <v>58</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="1">
         <v>90</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="1">
         <v>450</v>
       </c>
-      <c r="H8">
+      <c r="H8" s="1">
         <v>547</v>
       </c>
-      <c r="I8">
+      <c r="I8" s="1">
         <v>489</v>
       </c>
-      <c r="J8">
+      <c r="J8" s="1">
         <v>447</v>
       </c>
-      <c r="K8">
+      <c r="K8" s="1">
         <v>305</v>
       </c>
-      <c r="L8">
+      <c r="L8" s="1">
         <v>222</v>
       </c>
-      <c r="M8">
+      <c r="M8" s="1">
         <v>137</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="14">
+      <c r="A9" s="2">
         <v>43939</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="1">
         <v>2826</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="1">
         <v>48.8</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="1">
         <v>51.2</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="1">
         <v>61</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="1">
         <v>94</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="1">
         <v>459</v>
       </c>
-      <c r="H9">
+      <c r="H9" s="1">
         <v>569</v>
       </c>
-      <c r="I9">
+      <c r="I9" s="1">
         <v>503</v>
       </c>
-      <c r="J9">
+      <c r="J9" s="1">
         <v>461</v>
       </c>
-      <c r="K9">
+      <c r="K9" s="1">
         <v>311</v>
       </c>
-      <c r="L9">
+      <c r="L9" s="1">
         <v>229</v>
       </c>
-      <c r="M9">
+      <c r="M9" s="1">
         <v>139</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="14">
+      <c r="A10" s="2">
         <v>43940</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="1">
         <v>2928</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="1">
         <v>49.2</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="1">
         <v>50.8</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="1">
         <v>62</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="1">
         <v>97</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="1">
         <v>469</v>
       </c>
-      <c r="H10">
+      <c r="H10" s="1">
         <v>587</v>
       </c>
-      <c r="I10">
+      <c r="I10" s="1">
         <v>522</v>
       </c>
-      <c r="J10">
+      <c r="J10" s="1">
         <v>478</v>
       </c>
-      <c r="K10">
+      <c r="K10" s="1">
         <v>318</v>
       </c>
-      <c r="L10">
+      <c r="L10" s="1">
         <v>239</v>
       </c>
-      <c r="M10">
+      <c r="M10" s="1">
         <v>156</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="14">
+      <c r="A11" s="2">
         <v>43941</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="1">
         <v>3018</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="1">
         <v>49</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="1">
         <v>51</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="1">
         <v>68</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="1">
         <v>100</v>
       </c>
-      <c r="G11">
+      <c r="G11" s="1">
         <v>482</v>
       </c>
-      <c r="H11">
+      <c r="H11" s="1">
         <v>611</v>
       </c>
-      <c r="I11">
+      <c r="I11" s="1">
         <v>539</v>
       </c>
-      <c r="J11">
+      <c r="J11" s="1">
         <v>484</v>
       </c>
-      <c r="K11">
+      <c r="K11" s="1">
         <v>327</v>
       </c>
-      <c r="L11">
+      <c r="L11" s="1">
         <v>243</v>
       </c>
-      <c r="M11">
+      <c r="M11" s="1">
         <v>164</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="14">
+      <c r="A12" s="2">
         <v>43942</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="1">
         <v>3130</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="1">
         <v>49.4</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="1">
         <v>50.6</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="1">
         <v>74</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="1">
         <v>103</v>
       </c>
-      <c r="G12">
+      <c r="G12" s="1">
         <v>502</v>
       </c>
-      <c r="H12">
+      <c r="H12" s="1">
         <v>634</v>
       </c>
-      <c r="I12">
+      <c r="I12" s="1">
         <v>561</v>
       </c>
-      <c r="J12">
+      <c r="J12" s="1">
         <v>491</v>
       </c>
-      <c r="K12">
+      <c r="K12" s="1">
         <v>336</v>
       </c>
-      <c r="L12">
+      <c r="L12" s="1">
         <v>249</v>
       </c>
-      <c r="M12">
+      <c r="M12" s="1">
         <v>180</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="14">
+      <c r="A13" s="2">
         <v>43943</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="1">
         <v>3263</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="1">
         <v>49.3</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="1">
         <v>50.7</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="1">
         <v>82</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="1">
         <v>107</v>
       </c>
-      <c r="G13">
+      <c r="G13" s="1">
         <v>524</v>
       </c>
-      <c r="H13">
+      <c r="H13" s="1">
         <v>663</v>
       </c>
-      <c r="I13">
+      <c r="I13" s="1">
         <v>585</v>
       </c>
-      <c r="J13">
+      <c r="J13" s="1">
         <v>513</v>
       </c>
-      <c r="K13">
+      <c r="K13" s="1">
         <v>346</v>
       </c>
-      <c r="L13">
+      <c r="L13" s="1">
         <v>261</v>
       </c>
-      <c r="M13">
+      <c r="M13" s="1">
         <v>195</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="14">
+      <c r="A14" s="2">
         <v>43944</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="1">
         <v>3422</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="1">
         <v>50</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="1">
         <v>50</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="1">
         <v>85</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="1">
         <v>109</v>
       </c>
-      <c r="G14">
+      <c r="G14" s="1">
         <v>542</v>
       </c>
-      <c r="H14">
+      <c r="H14" s="1">
         <v>696</v>
       </c>
-      <c r="I14">
+      <c r="I14" s="1">
         <v>612</v>
       </c>
-      <c r="J14">
+      <c r="J14" s="1">
         <v>538</v>
       </c>
-      <c r="K14">
+      <c r="K14" s="1">
         <v>359</v>
       </c>
-      <c r="L14">
+      <c r="L14" s="1">
         <v>269</v>
       </c>
-      <c r="M14">
+      <c r="M14" s="1">
         <v>212</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="14">
+      <c r="A15" s="2">
         <v>43945</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="1">
         <v>3593</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="1">
         <v>49.9</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="1">
         <v>50.1</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="1">
         <v>97</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="1">
         <v>116</v>
       </c>
-      <c r="G15">
+      <c r="G15" s="1">
         <v>579</v>
       </c>
-      <c r="H15">
+      <c r="H15" s="1">
         <v>735</v>
       </c>
-      <c r="I15">
+      <c r="I15" s="1">
         <v>631</v>
       </c>
-      <c r="J15">
+      <c r="J15" s="1">
         <v>545</v>
       </c>
-      <c r="K15">
+      <c r="K15" s="1">
         <v>370</v>
       </c>
-      <c r="L15">
+      <c r="L15" s="1">
         <v>281</v>
       </c>
-      <c r="M15">
+      <c r="M15" s="1">
         <v>239</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="14">
+      <c r="A16" s="2">
         <v>43946</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="1">
         <v>3756</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="1">
         <v>49.7</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="1">
         <v>50.3</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="1">
         <v>103</v>
       </c>
-      <c r="F16">
+      <c r="F16" s="1">
         <v>128</v>
       </c>
-      <c r="G16">
+      <c r="G16" s="1">
         <v>602</v>
       </c>
-      <c r="H16">
+      <c r="H16" s="1">
         <v>773</v>
       </c>
-      <c r="I16">
+      <c r="I16" s="1">
         <v>658</v>
       </c>
-      <c r="J16">
+      <c r="J16" s="1">
         <v>569</v>
       </c>
-      <c r="K16">
+      <c r="K16" s="1">
         <v>380</v>
       </c>
-      <c r="L16">
+      <c r="L16" s="1">
         <v>294</v>
       </c>
-      <c r="M16">
+      <c r="M16" s="1">
         <v>259</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" s="14">
+      <c r="A17" s="2">
         <v>43947</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="1">
         <v>3869</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="1">
         <v>49.8</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="1">
         <v>50.2</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="1">
         <v>113</v>
       </c>
-      <c r="F17">
+      <c r="F17" s="1">
         <v>138</v>
       </c>
-      <c r="G17">
+      <c r="G17" s="1">
         <v>619</v>
       </c>
-      <c r="H17">
+      <c r="H17" s="1">
         <v>795</v>
       </c>
-      <c r="I17">
+      <c r="I17" s="1">
         <v>672</v>
       </c>
-      <c r="J17">
+      <c r="J17" s="1">
         <v>588</v>
       </c>
-      <c r="K17">
+      <c r="K17" s="1">
         <v>384</v>
       </c>
-      <c r="L17">
+      <c r="L17" s="1">
         <v>300</v>
       </c>
-      <c r="M17">
+      <c r="M17" s="1">
         <v>269</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" s="14">
+      <c r="A18" s="2">
         <v>43948</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="1">
         <v>3891</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="1">
         <v>50</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="1">
         <v>50</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="1">
         <v>123</v>
       </c>
-      <c r="F18">
+      <c r="F18" s="1">
         <v>141</v>
       </c>
-      <c r="G18">
+      <c r="G18" s="1">
         <v>648</v>
       </c>
-      <c r="H18">
+      <c r="H18" s="1">
         <v>819</v>
       </c>
-      <c r="I18">
+      <c r="I18" s="1">
         <v>687</v>
       </c>
-      <c r="J18">
+      <c r="J18" s="1">
         <v>597</v>
       </c>
-      <c r="K18">
+      <c r="K18" s="1">
         <v>391</v>
       </c>
-      <c r="L18">
+      <c r="L18" s="1">
         <v>304</v>
       </c>
-      <c r="M18">
+      <c r="M18" s="1">
         <v>280</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A19" s="14">
+      <c r="A19" s="2">
         <v>43949</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="1">
         <v>4113</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="1">
         <v>50.2</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="1">
         <v>49.8</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="1">
         <v>128</v>
       </c>
-      <c r="F19">
+      <c r="F19" s="1">
         <v>146</v>
       </c>
-      <c r="G19">
+      <c r="G19" s="1">
         <v>676</v>
       </c>
-      <c r="H19">
+      <c r="H19" s="1">
         <v>847</v>
       </c>
-      <c r="I19">
+      <c r="I19" s="1">
         <v>712</v>
       </c>
-      <c r="J19">
+      <c r="J19" s="1">
         <v>609</v>
       </c>
-      <c r="K19">
+      <c r="K19" s="1">
         <v>397</v>
       </c>
-      <c r="L19">
+      <c r="L19" s="1">
         <v>310</v>
       </c>
-      <c r="M19">
+      <c r="M19" s="1">
         <v>288</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20" s="14">
+      <c r="A20" s="2">
         <v>43950</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="1">
         <v>4262</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="1">
         <v>50.1</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="1">
         <v>49.9</v>
       </c>
-      <c r="E20">
+      <c r="E20" s="1">
         <v>135</v>
       </c>
-      <c r="F20">
+      <c r="F20" s="1">
         <v>158</v>
       </c>
-      <c r="G20">
+      <c r="G20" s="1">
         <v>705</v>
       </c>
-      <c r="H20">
+      <c r="H20" s="1">
         <v>874</v>
       </c>
-      <c r="I20">
+      <c r="I20" s="1">
         <v>738</v>
       </c>
-      <c r="J20">
+      <c r="J20" s="1">
         <v>625</v>
       </c>
-      <c r="K20">
+      <c r="K20" s="1">
         <v>405</v>
       </c>
-      <c r="L20">
+      <c r="L20" s="1">
         <v>328</v>
       </c>
-      <c r="M20">
+      <c r="M20" s="1">
         <v>304</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A21" s="14">
+      <c r="A21" s="2">
         <v>43951</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="1">
         <v>4428</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="1">
         <v>50.3</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="1">
         <v>49.7</v>
       </c>
-      <c r="E21">
+      <c r="E21" s="1">
         <v>140</v>
       </c>
-      <c r="F21">
+      <c r="F21" s="1">
         <v>165</v>
       </c>
-      <c r="G21">
+      <c r="G21" s="1">
         <v>732</v>
       </c>
-      <c r="H21">
+      <c r="H21" s="1">
         <v>898</v>
       </c>
-      <c r="I21">
+      <c r="I21" s="1">
         <v>764</v>
       </c>
-      <c r="J21">
+      <c r="J21" s="1">
         <v>647</v>
       </c>
-      <c r="K21">
+      <c r="K21" s="1">
         <v>418</v>
       </c>
-      <c r="L21">
+      <c r="L21" s="1">
         <v>341</v>
       </c>
-      <c r="M21">
+      <c r="M21" s="1">
         <v>310</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A22" s="14">
+      <c r="A22" s="2">
         <v>43952</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="1">
         <v>4532</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="1">
         <v>50.3</v>
       </c>
-      <c r="D22">
+      <c r="D22" s="1">
         <v>49.7</v>
       </c>
-      <c r="E22">
+      <c r="E22" s="1">
         <v>141</v>
       </c>
-      <c r="F22">
+      <c r="F22" s="1">
         <v>173</v>
       </c>
-      <c r="G22">
+      <c r="G22" s="1">
         <v>747</v>
       </c>
-      <c r="H22">
+      <c r="H22" s="1">
         <v>920</v>
       </c>
-      <c r="I22">
+      <c r="I22" s="1">
         <v>779</v>
       </c>
-      <c r="J22">
+      <c r="J22" s="1">
         <v>654</v>
       </c>
-      <c r="K22">
+      <c r="K22" s="1">
         <v>431</v>
       </c>
-      <c r="L22">
+      <c r="L22" s="1">
         <v>353</v>
       </c>
-      <c r="M22">
+      <c r="M22" s="1">
         <v>320</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A23" s="14">
+      <c r="A23" s="2">
         <v>43953</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="1">
         <v>4681</v>
       </c>
-      <c r="C23">
+      <c r="C23" s="1">
         <v>50</v>
       </c>
-      <c r="D23">
+      <c r="D23" s="1">
         <v>50</v>
       </c>
-      <c r="E23">
+      <c r="E23" s="1">
         <v>148</v>
       </c>
-      <c r="F23">
+      <c r="F23" s="1">
         <v>182</v>
       </c>
-      <c r="G23">
+      <c r="G23" s="1">
         <v>767</v>
       </c>
-      <c r="H23">
+      <c r="H23" s="1">
         <v>958</v>
       </c>
-      <c r="I23">
+      <c r="I23" s="1">
         <v>804</v>
       </c>
-      <c r="J23">
+      <c r="J23" s="1">
         <v>669</v>
       </c>
-      <c r="K23">
+      <c r="K23" s="1">
         <v>435</v>
       </c>
-      <c r="L23">
+      <c r="L23" s="1">
         <v>361</v>
       </c>
-      <c r="M23">
+      <c r="M23" s="1">
         <v>332</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A24" s="14">
+      <c r="A24" s="2">
         <v>43954</v>
       </c>
-      <c r="B24">
+      <c r="B24" s="1">
         <v>4770</v>
       </c>
-      <c r="C24">
+      <c r="C24" s="1">
         <v>50.3</v>
       </c>
-      <c r="D24">
+      <c r="D24" s="1">
         <v>49.7</v>
       </c>
-      <c r="E24">
+      <c r="E24" s="1">
         <v>161</v>
       </c>
-      <c r="F24">
+      <c r="F24" s="1">
         <v>194</v>
       </c>
-      <c r="G24">
+      <c r="G24" s="1">
         <v>785</v>
       </c>
-      <c r="H24">
+      <c r="H24" s="1">
         <v>984</v>
       </c>
-      <c r="I24">
+      <c r="I24" s="1">
         <v>819</v>
       </c>
-      <c r="J24">
+      <c r="J24" s="1">
         <v>678</v>
       </c>
-      <c r="K24">
+      <c r="K24" s="1">
         <v>443</v>
       </c>
-      <c r="L24">
+      <c r="L24" s="1">
         <v>366</v>
       </c>
-      <c r="M24">
+      <c r="M24" s="1">
         <v>340</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A25" s="14">
+      <c r="A25" s="2">
         <v>43955</v>
       </c>
-      <c r="B25">
+      <c r="B25" s="1">
         <v>4862</v>
       </c>
-      <c r="C25">
+      <c r="C25" s="1">
         <v>50.5</v>
       </c>
-      <c r="D25">
+      <c r="D25" s="1">
         <v>49.5</v>
       </c>
-      <c r="E25">
+      <c r="E25" s="1">
         <v>170</v>
       </c>
-      <c r="F25">
+      <c r="F25" s="1">
         <v>207</v>
       </c>
-      <c r="G25">
+      <c r="G25" s="1">
         <v>808</v>
       </c>
-      <c r="H25">
+      <c r="H25" s="1">
         <v>1003</v>
       </c>
-      <c r="I25">
+      <c r="I25" s="1">
         <v>835</v>
       </c>
-      <c r="J25">
+      <c r="J25" s="1">
         <v>687</v>
       </c>
-      <c r="K25">
+      <c r="K25" s="1">
         <v>450</v>
       </c>
-      <c r="L25">
+      <c r="L25" s="1">
         <v>369</v>
       </c>
-      <c r="M25">
+      <c r="M25" s="1">
         <v>344</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A26" s="14">
+      <c r="A26" s="2">
         <v>43956</v>
       </c>
-      <c r="B26">
+      <c r="B26" s="1">
         <v>4995</v>
       </c>
-      <c r="C26">
+      <c r="C26" s="1">
         <v>50.3</v>
       </c>
-      <c r="D26">
+      <c r="D26" s="1">
         <v>49.7</v>
       </c>
-      <c r="E26">
+      <c r="E26" s="1">
         <v>182</v>
       </c>
-      <c r="F26">
+      <c r="F26" s="1">
         <v>213</v>
       </c>
-      <c r="G26">
+      <c r="G26" s="1">
         <v>834</v>
       </c>
-      <c r="H26">
+      <c r="H26" s="1">
         <v>1037</v>
       </c>
-      <c r="I26">
+      <c r="I26" s="1">
         <v>856</v>
       </c>
-      <c r="J26">
+      <c r="J26" s="1">
         <v>703</v>
       </c>
-      <c r="K26">
+      <c r="K26" s="1">
         <v>456</v>
       </c>
-      <c r="L26">
+      <c r="L26" s="1">
         <v>371</v>
       </c>
-      <c r="M26">
+      <c r="M26" s="1">
         <v>354</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A27" s="14">
+      <c r="A27" s="2">
         <v>43957</v>
       </c>
-      <c r="B27">
+      <c r="B27" s="1">
         <v>5194</v>
       </c>
-      <c r="C27">
+      <c r="C27" s="1">
         <v>50</v>
       </c>
-      <c r="D27">
+      <c r="D27" s="1">
         <v>50</v>
       </c>
-      <c r="E27">
+      <c r="E27" s="1">
         <v>192</v>
       </c>
-      <c r="F27">
+      <c r="F27" s="1">
         <v>229</v>
       </c>
-      <c r="G27">
+      <c r="G27" s="1">
         <v>867</v>
       </c>
-      <c r="H27">
+      <c r="H27" s="1">
         <v>1086</v>
       </c>
-      <c r="I27">
+      <c r="I27" s="1">
         <v>892</v>
       </c>
-      <c r="J27">
+      <c r="J27" s="1">
         <v>727</v>
       </c>
-      <c r="K27">
+      <c r="K27" s="1">
         <v>466</v>
       </c>
-      <c r="L27">
+      <c r="L27" s="1">
         <v>372</v>
       </c>
-      <c r="M27">
+      <c r="M27" s="1">
         <v>363</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A28" s="14">
+      <c r="A28" s="2">
         <v>43961</v>
       </c>
-      <c r="B28">
+      <c r="B28" s="1">
         <v>6021</v>
       </c>
-      <c r="C28">
+      <c r="C28" s="1">
         <v>50.22</v>
       </c>
-      <c r="D28">
+      <c r="D28" s="1">
         <v>49.59</v>
       </c>
-      <c r="E28">
+      <c r="E28" s="1">
         <v>263</v>
       </c>
-      <c r="F28">
+      <c r="F28" s="1">
         <v>298</v>
       </c>
-      <c r="G28">
+      <c r="G28" s="1">
         <v>1022</v>
       </c>
-      <c r="H28">
+      <c r="H28" s="1">
         <v>1254</v>
       </c>
-      <c r="I28">
+      <c r="I28" s="1">
         <v>1039</v>
       </c>
-      <c r="J28">
+      <c r="J28" s="1">
         <v>808</v>
       </c>
-      <c r="K28">
+      <c r="K28" s="1">
         <v>517</v>
       </c>
-      <c r="L28">
+      <c r="L28" s="1">
         <v>406</v>
       </c>
-      <c r="M28">
+      <c r="M28" s="1">
         <v>412</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A29" s="14">
+      <c r="A29" s="2">
         <v>43962</v>
       </c>
-      <c r="B29">
+      <c r="B29" s="1">
         <v>6265</v>
       </c>
-      <c r="C29">
+      <c r="C29" s="1">
         <v>49.2</v>
       </c>
-      <c r="D29">
+      <c r="D29" s="1">
         <v>50.2</v>
       </c>
-      <c r="E29">
+      <c r="E29" s="1">
         <v>270</v>
       </c>
-      <c r="F29">
+      <c r="F29" s="1">
         <v>315</v>
       </c>
-      <c r="G29">
+      <c r="G29" s="1">
         <v>1063</v>
       </c>
-      <c r="H29">
+      <c r="H29" s="1">
         <v>1311</v>
       </c>
-      <c r="I29">
+      <c r="I29" s="1">
         <v>1095</v>
       </c>
-      <c r="J29">
+      <c r="J29" s="1">
         <v>847</v>
       </c>
-      <c r="K29">
+      <c r="K29" s="1">
         <v>531</v>
       </c>
-      <c r="L29">
+      <c r="L29" s="1">
         <v>411</v>
       </c>
-      <c r="M29">
+      <c r="M29" s="1">
         <v>420</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A30" s="14">
+      <c r="A30" s="2">
         <v>43964</v>
       </c>
-      <c r="B30">
+      <c r="B30" s="1">
         <v>6866</v>
       </c>
-      <c r="C30">
+      <c r="C30" s="1">
         <v>49.36</v>
       </c>
-      <c r="D30">
+      <c r="D30" s="1">
         <v>50.48</v>
       </c>
-      <c r="E30">
+      <c r="E30" s="1">
         <v>323</v>
       </c>
-      <c r="F30">
+      <c r="F30" s="1">
         <v>353</v>
       </c>
-      <c r="G30">
+      <c r="G30" s="1">
         <v>1172</v>
       </c>
-      <c r="H30">
+      <c r="H30" s="1">
         <v>1457</v>
       </c>
-      <c r="I30">
+      <c r="I30" s="1">
         <v>1188</v>
       </c>
-      <c r="J30">
+      <c r="J30" s="1">
         <v>923</v>
       </c>
-      <c r="K30">
+      <c r="K30" s="1">
         <v>579</v>
       </c>
-      <c r="L30">
+      <c r="L30" s="1">
         <v>435</v>
       </c>
-      <c r="M30">
+      <c r="M30" s="1">
         <v>434</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A31" s="14">
+      <c r="A31" s="2">
         <v>43968</v>
       </c>
-      <c r="B31">
+      <c r="B31" s="1">
         <v>8055</v>
       </c>
-      <c r="C31">
+      <c r="C31" s="1">
         <v>49.06</v>
       </c>
-      <c r="D31">
+      <c r="D31" s="1">
         <v>50.75</v>
       </c>
-      <c r="E31">
+      <c r="E31" s="1">
         <v>421</v>
       </c>
-      <c r="F31">
+      <c r="F31" s="1">
         <v>474</v>
       </c>
-      <c r="G31">
+      <c r="G31" s="1">
         <v>1416</v>
       </c>
-      <c r="H31">
+      <c r="H31" s="1">
         <v>1699</v>
       </c>
-      <c r="I31">
+      <c r="I31" s="1">
         <v>1405</v>
       </c>
-      <c r="J31">
+      <c r="J31" s="1">
         <v>1068</v>
       </c>
-      <c r="K31">
+      <c r="K31" s="1">
         <v>638</v>
       </c>
-      <c r="L31">
+      <c r="L31" s="1">
         <v>472</v>
       </c>
-      <c r="M31">
+      <c r="M31" s="1">
         <v>459</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A32" s="14">
+      <c r="A32" s="2">
         <v>43970</v>
       </c>
-      <c r="B32">
+      <c r="B32" s="1">
         <v>8796</v>
       </c>
-      <c r="C32">
+      <c r="C32" s="1">
         <v>48.84</v>
       </c>
-      <c r="D32">
+      <c r="D32" s="1">
         <v>50.93</v>
       </c>
-      <c r="E32">
+      <c r="E32" s="1">
         <v>482</v>
       </c>
-      <c r="F32">
+      <c r="F32" s="1">
         <v>521</v>
       </c>
-      <c r="G32">
+      <c r="G32" s="1">
         <v>1559</v>
       </c>
-      <c r="H32">
+      <c r="H32" s="1">
         <v>1875</v>
       </c>
-      <c r="I32">
+      <c r="I32" s="1">
         <v>1536</v>
       </c>
-      <c r="J32">
+      <c r="J32" s="1">
         <v>1162</v>
       </c>
-      <c r="K32">
+      <c r="K32" s="1">
         <v>685</v>
       </c>
-      <c r="L32">
+      <c r="L32" s="1">
         <v>487</v>
       </c>
-      <c r="M32">
+      <c r="M32" s="1">
         <v>486</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A33" s="14">
+      <c r="A33" s="2">
         <v>43976</v>
       </c>
-      <c r="B33">
+      <c r="B33" s="1">
         <v>12615</v>
       </c>
-      <c r="C33">
+      <c r="C33" s="1">
         <v>48.68</v>
       </c>
-      <c r="D33">
+      <c r="D33" s="1">
         <v>51.02</v>
       </c>
-      <c r="E33">
+      <c r="E33" s="1">
         <v>835</v>
       </c>
-      <c r="F33">
+      <c r="F33" s="1">
         <v>895</v>
       </c>
-      <c r="G33">
+      <c r="G33" s="1">
         <v>2377</v>
       </c>
-      <c r="H33">
+      <c r="H33" s="1">
         <v>2682</v>
       </c>
-      <c r="I33">
+      <c r="I33" s="1">
         <v>2175</v>
       </c>
-      <c r="J33">
+      <c r="J33" s="1">
         <v>1568</v>
       </c>
-      <c r="K33">
+      <c r="K33" s="1">
         <v>887</v>
       </c>
-      <c r="L33">
+      <c r="L33" s="1">
         <v>588</v>
       </c>
-      <c r="M33">
+      <c r="M33" s="1">
         <v>595</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A34" s="14">
+      <c r="A34" s="2">
         <v>43977</v>
       </c>
-      <c r="B34">
+      <c r="B34" s="1">
         <v>13215</v>
       </c>
-      <c r="C34">
+      <c r="C34" s="1">
         <v>48.77</v>
       </c>
-      <c r="D34">
+      <c r="D34" s="1">
         <v>50.9</v>
       </c>
-      <c r="E34">
+      <c r="E34" s="1">
         <v>887</v>
       </c>
-      <c r="F34">
+      <c r="F34" s="1">
         <v>953</v>
       </c>
-      <c r="G34">
+      <c r="G34" s="1">
         <v>2503</v>
       </c>
-      <c r="H34">
+      <c r="H34" s="1">
         <v>2808</v>
       </c>
-      <c r="I34">
+      <c r="I34" s="1">
         <v>2286</v>
       </c>
-      <c r="J34">
+      <c r="J34" s="1">
         <v>1633</v>
       </c>
-      <c r="K34">
+      <c r="K34" s="1">
         <v>914</v>
       </c>
-      <c r="L34">
+      <c r="L34" s="1">
         <v>605</v>
       </c>
-      <c r="M34">
+      <c r="M34" s="1">
         <v>613</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A35" s="14">
+      <c r="A35" s="2">
         <v>43978</v>
       </c>
-      <c r="B35">
+      <c r="B35" s="1">
         <v>13920</v>
       </c>
-      <c r="C35">
+      <c r="C35" s="1">
         <v>48.74</v>
       </c>
-      <c r="D35">
+      <c r="D35" s="1">
         <v>50.94</v>
       </c>
-      <c r="E35">
+      <c r="E35" s="1">
         <v>940</v>
       </c>
-      <c r="F35">
+      <c r="F35" s="1">
         <v>1018</v>
       </c>
-      <c r="G35">
+      <c r="G35" s="1">
         <v>2651</v>
       </c>
-      <c r="H35">
+      <c r="H35" s="1">
         <v>2974</v>
       </c>
-      <c r="I35">
+      <c r="I35" s="1">
         <v>2394</v>
       </c>
-      <c r="J35">
+      <c r="J35" s="1">
         <v>1722</v>
       </c>
-      <c r="K35">
+      <c r="K35" s="1">
         <v>956</v>
       </c>
-      <c r="L35">
+      <c r="L35" s="1">
         <v>625</v>
       </c>
-      <c r="M35">
+      <c r="M35" s="1">
         <v>627</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A36" s="14">
+      <c r="A36" s="2">
         <v>43979</v>
       </c>
-      <c r="B36">
+      <c r="B36" s="1">
         <v>14689</v>
       </c>
-      <c r="C36">
+      <c r="C36" s="1">
         <v>48.91</v>
       </c>
-      <c r="D36">
+      <c r="D36" s="1">
         <v>50.75</v>
       </c>
-      <c r="E36">
+      <c r="E36" s="1">
         <v>1002</v>
       </c>
-      <c r="F36">
+      <c r="F36" s="1">
         <v>1080</v>
       </c>
-      <c r="G36">
+      <c r="G36" s="1">
         <v>2813</v>
       </c>
-      <c r="H36">
+      <c r="H36" s="1">
         <v>3142</v>
       </c>
-      <c r="I36">
+      <c r="I36" s="1">
         <v>2508</v>
       </c>
-      <c r="J36">
+      <c r="J36" s="1">
         <v>1812</v>
       </c>
-      <c r="K36">
+      <c r="K36" s="1">
         <v>1005</v>
       </c>
-      <c r="L36">
+      <c r="L36" s="1">
         <v>651</v>
       </c>
-      <c r="M36">
+      <c r="M36" s="1">
         <v>662</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A37" s="14">
+      <c r="A37" s="2">
         <v>43981</v>
       </c>
-      <c r="B37">
+      <c r="B37" s="1">
         <v>16198</v>
       </c>
-      <c r="C37">
+      <c r="C37" s="1">
         <v>49.05</v>
       </c>
-      <c r="D37">
+      <c r="D37" s="1">
         <v>50.61</v>
       </c>
-      <c r="E37">
+      <c r="E37" s="1">
         <v>1117</v>
       </c>
-      <c r="F37">
+      <c r="F37" s="1">
         <v>1235</v>
       </c>
-      <c r="G37">
+      <c r="G37" s="1">
         <v>3128</v>
       </c>
-      <c r="H37">
+      <c r="H37" s="1">
         <v>3430</v>
       </c>
-      <c r="I37">
+      <c r="I37" s="1">
         <v>2756</v>
       </c>
-      <c r="J37">
+      <c r="J37" s="1">
         <v>1971</v>
       </c>
-      <c r="K37">
+      <c r="K37" s="1">
         <v>1080</v>
       </c>
-      <c r="L37">
+      <c r="L37" s="1">
         <v>717</v>
       </c>
-      <c r="M37">
+      <c r="M37" s="1">
         <v>748</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A38" s="14">
+      <c r="A38" s="2">
         <v>43983</v>
       </c>
-      <c r="B38">
+      <c r="B38" s="1">
         <v>17402</v>
       </c>
-      <c r="C38">
+      <c r="C38" s="1">
         <v>49.1</v>
       </c>
-      <c r="D38">
+      <c r="D38" s="1">
         <v>50.53</v>
       </c>
-      <c r="E38">
+      <c r="E38" s="1">
         <v>1213</v>
       </c>
-      <c r="F38">
+      <c r="F38" s="1">
         <v>1358</v>
       </c>
-      <c r="G38">
+      <c r="G38" s="1">
         <v>3389</v>
       </c>
-      <c r="H38">
+      <c r="H38" s="1">
         <v>3702</v>
       </c>
-      <c r="I38">
+      <c r="I38" s="1">
         <v>2957</v>
       </c>
-      <c r="J38">
+      <c r="J38" s="1">
         <v>2087</v>
       </c>
-      <c r="K38">
+      <c r="K38" s="1">
         <v>1141</v>
       </c>
-      <c r="L38">
+      <c r="L38" s="1">
         <v>749</v>
       </c>
-      <c r="M38">
+      <c r="M38" s="1">
         <v>787</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A39" s="14">
+      <c r="A39" s="2">
         <v>43984</v>
       </c>
-      <c r="B39">
+      <c r="B39" s="1">
         <v>18306</v>
       </c>
-      <c r="C39">
+      <c r="C39" s="1">
         <v>49.28</v>
       </c>
-      <c r="D39">
+      <c r="D39" s="1">
         <v>50.37</v>
       </c>
-      <c r="E39">
+      <c r="E39" s="1">
         <v>1267</v>
       </c>
-      <c r="F39">
+      <c r="F39" s="1">
         <v>1436</v>
       </c>
-      <c r="G39">
+      <c r="G39" s="1">
         <v>3566</v>
       </c>
-      <c r="H39">
+      <c r="H39" s="1">
         <v>3905</v>
       </c>
-      <c r="I39">
+      <c r="I39" s="1">
         <v>3124</v>
       </c>
-      <c r="J39">
+      <c r="J39" s="1">
         <v>2203</v>
       </c>
-      <c r="K39">
+      <c r="K39" s="1">
         <v>1187</v>
       </c>
-      <c r="L39">
+      <c r="L39" s="1">
         <v>784</v>
       </c>
-      <c r="M39">
+      <c r="M39" s="1">
         <v>816</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A40" s="14">
+      <c r="A40" s="2">
         <v>43986</v>
       </c>
-      <c r="B40">
+      <c r="B40" s="1">
         <v>20184</v>
       </c>
-      <c r="C40">
+      <c r="C40" s="1">
         <v>49.17</v>
       </c>
-      <c r="D40">
+      <c r="D40" s="1">
         <v>50.49</v>
       </c>
-      <c r="E40">
+      <c r="E40" s="1">
         <v>1412</v>
       </c>
-      <c r="F40">
+      <c r="F40" s="1">
         <v>1625</v>
       </c>
-      <c r="G40">
+      <c r="G40" s="1">
         <v>3937</v>
       </c>
-      <c r="H40">
+      <c r="H40" s="1">
         <v>4296</v>
       </c>
-      <c r="I40">
+      <c r="I40" s="1">
         <v>3428</v>
       </c>
-      <c r="J40">
+      <c r="J40" s="1">
         <v>2410</v>
       </c>
-      <c r="K40">
+      <c r="K40" s="1">
         <v>1297</v>
       </c>
-      <c r="L40">
+      <c r="L40" s="1">
         <v>853</v>
       </c>
-      <c r="M40">
+      <c r="M40" s="1">
         <v>906</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A41" s="14">
+      <c r="A41" s="2">
         <v>43988</v>
       </c>
-      <c r="B41">
+      <c r="B41" s="1">
         <v>22007</v>
       </c>
-      <c r="C41">
+      <c r="C41" s="1">
         <v>49.27</v>
       </c>
-      <c r="D41">
+      <c r="D41" s="1">
         <v>50.35</v>
       </c>
-      <c r="E41">
+      <c r="E41" s="1">
         <v>1553</v>
       </c>
-      <c r="F41">
+      <c r="F41" s="1">
         <v>1801</v>
       </c>
-      <c r="G41">
+      <c r="G41" s="1">
         <v>4322</v>
       </c>
-      <c r="H41">
+      <c r="H41" s="1">
         <v>4706</v>
       </c>
-      <c r="I41">
+      <c r="I41" s="1">
         <v>3717</v>
       </c>
-      <c r="J41">
+      <c r="J41" s="1">
         <v>2596</v>
       </c>
-      <c r="K41">
+      <c r="K41" s="1">
         <v>1424</v>
       </c>
-      <c r="L41">
+      <c r="L41" s="1">
         <v>907</v>
       </c>
-      <c r="M41">
+      <c r="M41" s="1">
         <v>954</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A42" s="14">
+      <c r="A42" s="2">
         <v>43989</v>
       </c>
-      <c r="B42">
+      <c r="B42" s="1">
         <v>22781</v>
       </c>
-      <c r="C42">
+      <c r="C42" s="1">
         <v>49.3</v>
       </c>
-      <c r="D42">
+      <c r="D42" s="1">
         <v>50.32</v>
       </c>
-      <c r="E42">
+      <c r="E42" s="1">
         <v>1615</v>
       </c>
-      <c r="F42">
+      <c r="F42" s="1">
         <v>1868</v>
       </c>
-      <c r="G42">
+      <c r="G42" s="1">
         <v>4483</v>
       </c>
-      <c r="H42">
+      <c r="H42" s="1">
         <v>4874</v>
       </c>
-      <c r="I42">
+      <c r="I42" s="1">
         <v>3846</v>
       </c>
-      <c r="J42">
+      <c r="J42" s="1">
         <v>2680</v>
       </c>
-      <c r="K42">
+      <c r="K42" s="1">
         <v>1467</v>
       </c>
-      <c r="L42">
+      <c r="L42" s="1">
         <v>938</v>
       </c>
-      <c r="M42">
+      <c r="M42" s="1">
         <v>982</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A43" s="14">
+      <c r="A43" s="2">
         <v>43990</v>
       </c>
-      <c r="B43">
+      <c r="B43" s="1">
         <v>23607</v>
       </c>
-      <c r="C43">
+      <c r="C43" s="1">
         <v>49.37</v>
       </c>
-      <c r="D43">
+      <c r="D43" s="1">
         <v>50.24</v>
       </c>
-      <c r="E43">
+      <c r="E43" s="1">
         <v>1686</v>
       </c>
-      <c r="F43">
+      <c r="F43" s="1">
         <v>1948</v>
       </c>
-      <c r="G43">
+      <c r="G43" s="1">
         <v>4650</v>
       </c>
-      <c r="H43">
+      <c r="H43" s="1">
         <v>5019</v>
       </c>
-      <c r="I43">
+      <c r="I43" s="1">
         <v>3988</v>
       </c>
-      <c r="J43">
+      <c r="J43" s="1">
         <v>2777</v>
       </c>
-      <c r="K43">
+      <c r="K43" s="1">
         <v>1517</v>
       </c>
-      <c r="L43">
+      <c r="L43" s="1">
         <v>971</v>
       </c>
-      <c r="M43">
+      <c r="M43" s="1">
         <v>1023</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A44" s="14">
+      <c r="A44" s="2">
         <v>43991</v>
       </c>
-      <c r="B44">
+      <c r="B44" s="1">
         <v>24748</v>
       </c>
-      <c r="C44">
+      <c r="C44" s="1">
         <v>49.39</v>
       </c>
-      <c r="D44">
+      <c r="D44" s="1">
         <v>50.2</v>
       </c>
-      <c r="E44">
+      <c r="E44" s="1">
         <v>1791</v>
       </c>
-      <c r="F44">
+      <c r="F44" s="1">
         <v>2043</v>
       </c>
-      <c r="G44">
+      <c r="G44" s="1">
         <v>4885</v>
       </c>
-      <c r="H44">
+      <c r="H44" s="1">
         <v>5278</v>
       </c>
-      <c r="I44">
+      <c r="I44" s="1">
         <v>4150</v>
       </c>
-      <c r="J44">
+      <c r="J44" s="1">
         <v>2915</v>
       </c>
-      <c r="K44">
+      <c r="K44" s="1">
         <v>1584</v>
       </c>
-      <c r="L44">
+      <c r="L44" s="1">
         <v>1007</v>
       </c>
-      <c r="M44">
+      <c r="M44" s="1">
         <v>1066</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A45" s="14">
+      <c r="A45" s="2">
         <v>43992</v>
       </c>
-      <c r="B45">
+      <c r="B45" s="1">
         <v>25974</v>
       </c>
-      <c r="C45">
+      <c r="C45" s="1">
         <v>49.34</v>
       </c>
-      <c r="D45">
+      <c r="D45" s="1">
         <v>50.24</v>
       </c>
-      <c r="E45">
+      <c r="E45" s="1">
         <v>1870</v>
       </c>
-      <c r="F45">
+      <c r="F45" s="1">
         <v>2137</v>
       </c>
-      <c r="G45">
+      <c r="G45" s="1">
         <v>5100</v>
       </c>
-      <c r="H45">
+      <c r="H45" s="1">
         <v>5556</v>
       </c>
-      <c r="I45">
+      <c r="I45" s="1">
         <v>4390</v>
       </c>
-      <c r="J45">
+      <c r="J45" s="1">
         <v>3077</v>
       </c>
-      <c r="K45">
+      <c r="K45" s="1">
         <v>1652</v>
       </c>
-      <c r="L45">
+      <c r="L45" s="1">
         <v>1043</v>
       </c>
-      <c r="M45">
+      <c r="M45" s="1">
         <v>1109</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A46" s="14">
+      <c r="A46" s="2">
         <v>43993</v>
       </c>
-      <c r="B46">
+      <c r="B46" s="1">
         <v>27360</v>
       </c>
-      <c r="C46">
+      <c r="C46" s="1">
         <v>49.38</v>
       </c>
-      <c r="D46">
+      <c r="D46" s="1">
         <v>50.2</v>
       </c>
-      <c r="E46">
+      <c r="E46" s="1">
         <v>1961</v>
       </c>
-      <c r="F46">
+      <c r="F46" s="1">
         <v>2268</v>
       </c>
-      <c r="G46">
+      <c r="G46" s="1">
         <v>5375</v>
       </c>
-      <c r="H46">
+      <c r="H46" s="1">
         <v>5868</v>
       </c>
-      <c r="I46">
+      <c r="I46" s="1">
         <v>4614</v>
       </c>
-      <c r="J46">
+      <c r="J46" s="1">
         <v>3261</v>
       </c>
-      <c r="K46">
+      <c r="K46" s="1">
         <v>1729</v>
       </c>
-      <c r="L46">
+      <c r="L46" s="1">
         <v>1090</v>
       </c>
-      <c r="M46">
+      <c r="M46" s="1">
         <v>1164</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A47" s="14">
+      <c r="A47" s="2">
         <v>43994</v>
       </c>
-      <c r="B47">
+      <c r="B47" s="1">
         <v>28751</v>
       </c>
-      <c r="C47">
+      <c r="C47" s="1">
         <v>49.43</v>
       </c>
-      <c r="D47">
+      <c r="D47" s="1">
         <v>50.14</v>
       </c>
-      <c r="E47">
+      <c r="E47" s="1">
         <v>2038</v>
       </c>
-      <c r="F47">
+      <c r="F47" s="1">
         <v>2376</v>
       </c>
-      <c r="G47">
+      <c r="G47" s="1">
         <v>5664</v>
       </c>
-      <c r="H47">
+      <c r="H47" s="1">
         <v>6178</v>
       </c>
-      <c r="I47">
+      <c r="I47" s="1">
         <v>4870</v>
       </c>
-      <c r="J47">
+      <c r="J47" s="1">
         <v>3419</v>
       </c>
-      <c r="K47">
+      <c r="K47" s="1">
         <v>1806</v>
       </c>
-      <c r="L47">
+      <c r="L47" s="1">
         <v>1148</v>
       </c>
-      <c r="M47">
+      <c r="M47" s="1">
         <v>1223</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A48" s="14">
+      <c r="A48" s="2">
         <v>43995</v>
       </c>
-      <c r="B48">
+      <c r="B48" s="1">
         <v>30282</v>
       </c>
-      <c r="C48">
+      <c r="C48" s="1">
         <v>49.31</v>
       </c>
-      <c r="D48">
+      <c r="D48" s="1">
         <v>50.27</v>
       </c>
-      <c r="E48">
+      <c r="E48" s="1">
         <v>2134</v>
       </c>
-      <c r="F48">
+      <c r="F48" s="1">
         <v>2506</v>
       </c>
-      <c r="G48">
+      <c r="G48" s="1">
         <v>5996</v>
       </c>
-      <c r="H48">
+      <c r="H48" s="1">
         <v>6530</v>
       </c>
-      <c r="I48">
+      <c r="I48" s="1">
         <v>5156</v>
       </c>
-      <c r="J48">
+      <c r="J48" s="1">
         <v>3585</v>
       </c>
-      <c r="K48">
+      <c r="K48" s="1">
         <v>1900</v>
       </c>
-      <c r="L48">
+      <c r="L48" s="1">
         <v>1184</v>
       </c>
-      <c r="M48">
+      <c r="M48" s="1">
         <v>1261</v>
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A49" s="14">
+      <c r="A49" s="2">
         <v>43996</v>
       </c>
-      <c r="B49">
+      <c r="B49" s="1">
         <v>31564</v>
       </c>
-      <c r="C49">
+      <c r="C49" s="1">
         <v>49.36</v>
       </c>
-      <c r="D49">
+      <c r="D49" s="1">
         <v>50.22</v>
       </c>
-      <c r="E49">
+      <c r="E49" s="1">
         <v>2228</v>
       </c>
-      <c r="F49">
+      <c r="F49" s="1">
         <v>2615</v>
       </c>
-      <c r="G49">
+      <c r="G49" s="1">
         <v>6262</v>
       </c>
-      <c r="H49">
+      <c r="H49" s="1">
         <v>6805</v>
       </c>
-      <c r="I49">
+      <c r="I49" s="1">
         <v>5377</v>
       </c>
-      <c r="J49">
+      <c r="J49" s="1">
         <v>3727</v>
       </c>
-      <c r="K49">
+      <c r="K49" s="1">
         <v>1991</v>
       </c>
-      <c r="L49">
+      <c r="L49" s="1">
         <v>1227</v>
       </c>
-      <c r="M49">
+      <c r="M49" s="1">
         <v>1302</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A50" s="2">
+        <v>43997</v>
+      </c>
+      <c r="B50" s="1">
+        <v>32772</v>
+      </c>
+      <c r="C50" s="1">
+        <v>49.33</v>
+      </c>
+      <c r="D50" s="1">
+        <v>50.26</v>
+      </c>
+      <c r="E50" s="1">
+        <v>2294</v>
+      </c>
+      <c r="F50" s="1">
+        <v>2733</v>
+      </c>
+      <c r="G50" s="1">
+        <v>6498</v>
+      </c>
+      <c r="H50" s="1">
+        <v>7086</v>
+      </c>
+      <c r="I50" s="1">
+        <v>5608</v>
+      </c>
+      <c r="J50" s="1">
+        <v>3875</v>
+      </c>
+      <c r="K50" s="1">
+        <v>2053</v>
+      </c>
+      <c r="L50" s="1">
+        <v>1258</v>
+      </c>
+      <c r="M50" s="1">
+        <v>1338</v>
       </c>
     </row>
   </sheetData>
